--- a/intensities/tilastokeskus data väestörakenne 2018 miehet.xlsx
+++ b/intensities/tilastokeskus data väestörakenne 2018 miehet.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antti/Documents/Github/ty-llisyyspaperi/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antti/Documents/Github/econogym/intensities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC744CE-D95F-D94D-A0EC-54E9CF871194}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BC0F6B-3660-DF48-83D8-5C439BCD47C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="460" windowWidth="19740" windowHeight="14600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1360" yWindow="2360" windowWidth="23720" windowHeight="14600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="022_115c_2018" sheetId="2" r:id="rId1"/>
     <sheet name="alkavuus" sheetId="5" r:id="rId2"/>
-    <sheet name="Yhteensä" sheetId="3" r:id="rId3"/>
-    <sheet name="kuva" sheetId="4" r:id="rId4"/>
+    <sheet name="tkmalli2" sheetId="6" r:id="rId3"/>
+    <sheet name="osatyö" sheetId="7" r:id="rId4"/>
+    <sheet name="Yhteensä" sheetId="3" r:id="rId5"/>
+    <sheet name="kuva" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -81,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="108">
   <si>
     <t>Väestö muuttujina Pääasiallinen toiminta, Sukupuoli, Ikä, Vuosi ja Tiedot</t>
   </si>
@@ -361,6 +363,54 @@
   <si>
     <t>non-outsider</t>
   </si>
+  <si>
+    <t>tk</t>
+  </si>
+  <si>
+    <t>efektiivinen tk</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>eff.pop</t>
+  </si>
+  <si>
+    <t>oikea</t>
+  </si>
+  <si>
+    <t>Osa-aikatyö</t>
+  </si>
+  <si>
+    <t>15 - 24</t>
+  </si>
+  <si>
+    <t>25 - 34</t>
+  </si>
+  <si>
+    <t>35 - 44</t>
+  </si>
+  <si>
+    <t>45 - 54</t>
+  </si>
+  <si>
+    <t>55 - 64</t>
+  </si>
+  <si>
+    <t>65 - 74</t>
+  </si>
+  <si>
+    <t>Kokoaikatyö</t>
+  </si>
+  <si>
+    <t>osuus</t>
+  </si>
+  <si>
+    <t>määrä</t>
+  </si>
+  <si>
+    <t>yht</t>
+  </si>
 </sst>
 </file>
 
@@ -370,7 +420,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -403,6 +453,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="12.1"/>
+      <color rgb="FF000000"/>
+      <name val="Inherit"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -426,7 +486,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
@@ -440,6 +500,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -6752,7 +6815,7 @@
       <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40.6640625" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
@@ -6762,7 +6825,7 @@
     <col min="7" max="9" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6770,12 +6833,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="D4" s="2" t="s">
         <v>80</v>
       </c>
@@ -6804,7 +6867,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -6842,7 +6905,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
@@ -6874,7 +6937,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
@@ -6906,7 +6969,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
@@ -6938,7 +7001,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
@@ -6970,7 +7033,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
@@ -7002,7 +7065,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
@@ -7034,7 +7097,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
@@ -7066,7 +7129,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
@@ -7098,7 +7161,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
@@ -7130,7 +7193,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
@@ -7162,7 +7225,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
@@ -7194,7 +7257,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:12">
       <c r="C17" s="2" t="s">
         <v>16</v>
       </c>
@@ -7226,7 +7289,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12">
       <c r="C18" s="2" t="s">
         <v>17</v>
       </c>
@@ -7258,7 +7321,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12">
       <c r="C19" s="2" t="s">
         <v>18</v>
       </c>
@@ -7290,7 +7353,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:12">
       <c r="C20" s="2" t="s">
         <v>19</v>
       </c>
@@ -7322,7 +7385,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12">
       <c r="C21" s="2" t="s">
         <v>20</v>
       </c>
@@ -7354,7 +7417,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12">
       <c r="C22" s="2" t="s">
         <v>21</v>
       </c>
@@ -7386,7 +7449,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12">
       <c r="C23" s="2" t="s">
         <v>22</v>
       </c>
@@ -7418,7 +7481,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12">
       <c r="C24" s="2" t="s">
         <v>23</v>
       </c>
@@ -7450,7 +7513,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12">
       <c r="C25" s="2" t="s">
         <v>24</v>
       </c>
@@ -7482,7 +7545,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:12">
       <c r="C26" s="2" t="s">
         <v>25</v>
       </c>
@@ -7514,7 +7577,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12">
       <c r="C27" s="2" t="s">
         <v>26</v>
       </c>
@@ -7546,7 +7609,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12">
       <c r="C28" s="2" t="s">
         <v>27</v>
       </c>
@@ -7578,7 +7641,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:12">
       <c r="C29" s="2" t="s">
         <v>28</v>
       </c>
@@ -7610,7 +7673,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:12">
       <c r="C30" s="2" t="s">
         <v>29</v>
       </c>
@@ -7642,7 +7705,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:12">
       <c r="C31" s="2" t="s">
         <v>30</v>
       </c>
@@ -7674,7 +7737,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:12">
       <c r="C32" s="2" t="s">
         <v>31</v>
       </c>
@@ -7706,7 +7769,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:12">
       <c r="C33" s="2" t="s">
         <v>32</v>
       </c>
@@ -7738,7 +7801,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:12">
       <c r="C34" s="2" t="s">
         <v>33</v>
       </c>
@@ -7770,7 +7833,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:12">
       <c r="C35" s="2" t="s">
         <v>34</v>
       </c>
@@ -7802,7 +7865,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:12">
       <c r="C36" s="2" t="s">
         <v>35</v>
       </c>
@@ -7834,7 +7897,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:12">
       <c r="C37" s="2" t="s">
         <v>36</v>
       </c>
@@ -7866,7 +7929,7 @@
         <v>2675</v>
       </c>
     </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:12">
       <c r="C38" s="2" t="s">
         <v>37</v>
       </c>
@@ -7898,7 +7961,7 @@
         <v>2938</v>
       </c>
     </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:12">
       <c r="C39" s="2" t="s">
         <v>38</v>
       </c>
@@ -7930,7 +7993,7 @@
         <v>3137</v>
       </c>
     </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:12">
       <c r="C40" s="2" t="s">
         <v>39</v>
       </c>
@@ -7962,7 +8025,7 @@
         <v>3490</v>
       </c>
     </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:12">
       <c r="C41" s="2" t="s">
         <v>40</v>
       </c>
@@ -7994,7 +8057,7 @@
         <v>3959</v>
       </c>
     </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:12">
       <c r="C42" s="2" t="s">
         <v>41</v>
       </c>
@@ -8026,7 +8089,7 @@
         <v>4373</v>
       </c>
     </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:12">
       <c r="C43" s="2" t="s">
         <v>42</v>
       </c>
@@ -8058,7 +8121,7 @@
         <v>4660</v>
       </c>
     </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:12">
       <c r="C44" s="2" t="s">
         <v>43</v>
       </c>
@@ -8090,7 +8153,7 @@
         <v>5350</v>
       </c>
     </row>
-    <row r="45" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:12">
       <c r="C45" s="2" t="s">
         <v>44</v>
       </c>
@@ -8122,7 +8185,7 @@
         <v>6161</v>
       </c>
     </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:12">
       <c r="C46" s="2" t="s">
         <v>45</v>
       </c>
@@ -8154,7 +8217,7 @@
         <v>7404</v>
       </c>
     </row>
-    <row r="47" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:12">
       <c r="C47" s="2" t="s">
         <v>46</v>
       </c>
@@ -8186,7 +8249,7 @@
         <v>8278</v>
       </c>
     </row>
-    <row r="48" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:12">
       <c r="C48" s="2" t="s">
         <v>47</v>
       </c>
@@ -8218,7 +8281,7 @@
         <v>5074</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12">
       <c r="C49" s="2" t="s">
         <v>48</v>
       </c>
@@ -8250,7 +8313,7 @@
         <v>4725</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12">
       <c r="C50" s="2" t="s">
         <v>49</v>
       </c>
@@ -8282,7 +8345,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12">
       <c r="C51" s="2" t="s">
         <v>50</v>
       </c>
@@ -8311,7 +8374,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12">
       <c r="C52" s="2" t="s">
         <v>51</v>
       </c>
@@ -8340,7 +8403,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12">
       <c r="C53" s="2" t="s">
         <v>52</v>
       </c>
@@ -8369,7 +8432,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12">
       <c r="C54" s="2" t="s">
         <v>53</v>
       </c>
@@ -8398,7 +8461,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12">
       <c r="C55" s="2" t="s">
         <v>54</v>
       </c>
@@ -8427,7 +8490,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12">
       <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
@@ -8443,7 +8506,7 @@
         <v>25947</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12">
       <c r="C57" s="2" t="s">
         <v>5</v>
       </c>
@@ -8453,7 +8516,7 @@
         <v>23055</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12">
       <c r="C58" s="2" t="s">
         <v>6</v>
       </c>
@@ -8463,7 +8526,7 @@
         <v>22734</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12">
       <c r="C59" s="2" t="s">
         <v>7</v>
       </c>
@@ -8473,7 +8536,7 @@
         <v>21662</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12">
       <c r="C60" s="2" t="s">
         <v>8</v>
       </c>
@@ -8483,7 +8546,7 @@
         <v>19240</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12">
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
@@ -8493,7 +8556,7 @@
         <v>16811</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12">
       <c r="C62" s="2" t="s">
         <v>10</v>
       </c>
@@ -8503,7 +8566,7 @@
         <v>15492</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12">
       <c r="C63" s="2" t="s">
         <v>11</v>
       </c>
@@ -8513,7 +8576,7 @@
         <v>13794</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12">
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
@@ -8523,7 +8586,7 @@
         <v>13009</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:6">
       <c r="C65" s="2" t="s">
         <v>13</v>
       </c>
@@ -8533,7 +8596,7 @@
         <v>11894</v>
       </c>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:6">
       <c r="C66" s="2" t="s">
         <v>14</v>
       </c>
@@ -8543,7 +8606,7 @@
         <v>11417</v>
       </c>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:6">
       <c r="C67" s="2" t="s">
         <v>15</v>
       </c>
@@ -8553,7 +8616,7 @@
         <v>10391</v>
       </c>
     </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:6">
       <c r="C68" s="2" t="s">
         <v>16</v>
       </c>
@@ -8563,7 +8626,7 @@
         <v>9961</v>
       </c>
     </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:6">
       <c r="C69" s="2" t="s">
         <v>17</v>
       </c>
@@ -8573,7 +8636,7 @@
         <v>9985</v>
       </c>
     </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:6">
       <c r="C70" s="2" t="s">
         <v>18</v>
       </c>
@@ -8583,7 +8646,7 @@
         <v>9960</v>
       </c>
     </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:6">
       <c r="C71" s="2" t="s">
         <v>19</v>
       </c>
@@ -8593,7 +8656,7 @@
         <v>9584</v>
       </c>
     </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:6">
       <c r="C72" s="2" t="s">
         <v>20</v>
       </c>
@@ -8603,7 +8666,7 @@
         <v>9087</v>
       </c>
     </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:6">
       <c r="C73" s="2" t="s">
         <v>21</v>
       </c>
@@ -8613,7 +8676,7 @@
         <v>8460</v>
       </c>
     </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:6">
       <c r="C74" s="2" t="s">
         <v>22</v>
       </c>
@@ -8623,7 +8686,7 @@
         <v>8183</v>
       </c>
     </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:6">
       <c r="C75" s="2" t="s">
         <v>23</v>
       </c>
@@ -8633,7 +8696,7 @@
         <v>7609</v>
       </c>
     </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:6">
       <c r="C76" s="2" t="s">
         <v>24</v>
       </c>
@@ -8643,7 +8706,7 @@
         <v>7529</v>
       </c>
     </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:6">
       <c r="C77" s="2" t="s">
         <v>25</v>
       </c>
@@ -8653,7 +8716,7 @@
         <v>7160</v>
       </c>
     </row>
-    <row r="78" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:6">
       <c r="C78" s="2" t="s">
         <v>26</v>
       </c>
@@ -8663,7 +8726,7 @@
         <v>6974</v>
       </c>
     </row>
-    <row r="79" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:6">
       <c r="C79" s="2" t="s">
         <v>27</v>
       </c>
@@ -8673,7 +8736,7 @@
         <v>6700</v>
       </c>
     </row>
-    <row r="80" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:6">
       <c r="C80" s="2" t="s">
         <v>28</v>
       </c>
@@ -8683,7 +8746,7 @@
         <v>6450</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:6">
       <c r="C81" s="2" t="s">
         <v>29</v>
       </c>
@@ -8693,7 +8756,7 @@
         <v>5973</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:6">
       <c r="C82" s="2" t="s">
         <v>30</v>
       </c>
@@ -8703,7 +8766,7 @@
         <v>6217</v>
       </c>
     </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:6">
       <c r="C83" s="2" t="s">
         <v>31</v>
       </c>
@@ -8713,7 +8776,7 @@
         <v>6403</v>
       </c>
     </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:6">
       <c r="C84" s="2" t="s">
         <v>32</v>
       </c>
@@ -8723,7 +8786,7 @@
         <v>6632</v>
       </c>
     </row>
-    <row r="85" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:6">
       <c r="C85" s="2" t="s">
         <v>33</v>
       </c>
@@ -8733,7 +8796,7 @@
         <v>6961</v>
       </c>
     </row>
-    <row r="86" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:6">
       <c r="C86" s="2" t="s">
         <v>34</v>
       </c>
@@ -8743,7 +8806,7 @@
         <v>7564</v>
       </c>
     </row>
-    <row r="87" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:6">
       <c r="C87" s="2" t="s">
         <v>35</v>
       </c>
@@ -8753,7 +8816,7 @@
         <v>7956</v>
       </c>
     </row>
-    <row r="88" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:6">
       <c r="C88" s="2" t="s">
         <v>36</v>
       </c>
@@ -8763,7 +8826,7 @@
         <v>8214</v>
       </c>
     </row>
-    <row r="89" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:6">
       <c r="C89" s="2" t="s">
         <v>37</v>
       </c>
@@ -8773,7 +8836,7 @@
         <v>8592</v>
       </c>
     </row>
-    <row r="90" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:6">
       <c r="C90" s="2" t="s">
         <v>38</v>
       </c>
@@ -8783,7 +8846,7 @@
         <v>9074</v>
       </c>
     </row>
-    <row r="91" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:6">
       <c r="C91" s="2" t="s">
         <v>39</v>
       </c>
@@ -8793,7 +8856,7 @@
         <v>9595</v>
       </c>
     </row>
-    <row r="92" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:6">
       <c r="C92" s="2" t="s">
         <v>40</v>
       </c>
@@ -8803,7 +8866,7 @@
         <v>10432</v>
       </c>
     </row>
-    <row r="93" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:6">
       <c r="C93" s="2" t="s">
         <v>41</v>
       </c>
@@ -8813,7 +8876,7 @@
         <v>10995</v>
       </c>
     </row>
-    <row r="94" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:6">
       <c r="C94" s="2" t="s">
         <v>42</v>
       </c>
@@ -8823,7 +8886,7 @@
         <v>11651</v>
       </c>
     </row>
-    <row r="95" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:6">
       <c r="C95" s="2" t="s">
         <v>43</v>
       </c>
@@ -8833,7 +8896,7 @@
         <v>12736</v>
       </c>
     </row>
-    <row r="96" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:6">
       <c r="C96" s="2" t="s">
         <v>44</v>
       </c>
@@ -8843,7 +8906,7 @@
         <v>14401</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6">
       <c r="C97" s="2" t="s">
         <v>45</v>
       </c>
@@ -8853,7 +8916,7 @@
         <v>17324</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6">
       <c r="C98" s="2" t="s">
         <v>46</v>
       </c>
@@ -8863,7 +8926,7 @@
         <v>23502</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6">
       <c r="C99" s="2" t="s">
         <v>47</v>
       </c>
@@ -8873,7 +8936,7 @@
         <v>40705</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6">
       <c r="C100" s="2" t="s">
         <v>48</v>
       </c>
@@ -8883,7 +8946,7 @@
         <v>54923</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6">
       <c r="C101" s="2" t="s">
         <v>49</v>
       </c>
@@ -8893,7 +8956,7 @@
         <v>61332</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6">
       <c r="C102" s="2" t="s">
         <v>50</v>
       </c>
@@ -8903,7 +8966,7 @@
         <v>65707</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6">
       <c r="C103" s="2" t="s">
         <v>51</v>
       </c>
@@ -8913,7 +8976,7 @@
         <v>64498</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6">
       <c r="C104" s="2" t="s">
         <v>52</v>
       </c>
@@ -8923,7 +8986,7 @@
         <v>71699</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6">
       <c r="C105" s="2" t="s">
         <v>53</v>
       </c>
@@ -8933,7 +8996,7 @@
         <v>73943</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6">
       <c r="C106" s="2" t="s">
         <v>54</v>
       </c>
@@ -8943,7 +9006,7 @@
         <v>74651</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6">
       <c r="A107" s="2" t="s">
         <v>56</v>
       </c>
@@ -8959,7 +9022,7 @@
         <v>15564</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6">
       <c r="C108" s="2" t="s">
         <v>5</v>
       </c>
@@ -8969,7 +9032,7 @@
         <v>17286</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6">
       <c r="C109" s="2" t="s">
         <v>6</v>
       </c>
@@ -8979,7 +9042,7 @@
         <v>17334</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6">
       <c r="C110" s="2" t="s">
         <v>7</v>
       </c>
@@ -8989,7 +9052,7 @@
         <v>16060</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6">
       <c r="C111" s="2" t="s">
         <v>8</v>
       </c>
@@ -8999,7 +9062,7 @@
         <v>13436</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6">
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
@@ -9009,7 +9072,7 @@
         <v>10692</v>
       </c>
     </row>
-    <row r="113" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:6">
       <c r="C113" s="2" t="s">
         <v>10</v>
       </c>
@@ -9019,7 +9082,7 @@
         <v>8827</v>
       </c>
     </row>
-    <row r="114" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:6">
       <c r="C114" s="2" t="s">
         <v>11</v>
       </c>
@@ -9029,7 +9092,7 @@
         <v>6963</v>
       </c>
     </row>
-    <row r="115" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:6">
       <c r="C115" s="2" t="s">
         <v>12</v>
       </c>
@@ -9039,7 +9102,7 @@
         <v>5925</v>
       </c>
     </row>
-    <row r="116" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="3:6">
       <c r="C116" s="2" t="s">
         <v>13</v>
       </c>
@@ -9049,7 +9112,7 @@
         <v>4945</v>
       </c>
     </row>
-    <row r="117" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="3:6">
       <c r="C117" s="2" t="s">
         <v>14</v>
       </c>
@@ -9059,7 +9122,7 @@
         <v>4393</v>
       </c>
     </row>
-    <row r="118" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="3:6">
       <c r="C118" s="2" t="s">
         <v>15</v>
       </c>
@@ -9069,7 +9132,7 @@
         <v>3665</v>
       </c>
     </row>
-    <row r="119" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="3:6">
       <c r="C119" s="2" t="s">
         <v>16</v>
       </c>
@@ -9079,7 +9142,7 @@
         <v>3259</v>
       </c>
     </row>
-    <row r="120" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:6">
       <c r="C120" s="2" t="s">
         <v>17</v>
       </c>
@@ -9089,7 +9152,7 @@
         <v>3176</v>
       </c>
     </row>
-    <row r="121" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:6">
       <c r="C121" s="2" t="s">
         <v>18</v>
       </c>
@@ -9099,7 +9162,7 @@
         <v>3006</v>
       </c>
     </row>
-    <row r="122" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="3:6">
       <c r="C122" s="2" t="s">
         <v>19</v>
       </c>
@@ -9109,7 +9172,7 @@
         <v>2874</v>
       </c>
     </row>
-    <row r="123" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="3:6">
       <c r="C123" s="2" t="s">
         <v>20</v>
       </c>
@@ -9119,7 +9182,7 @@
         <v>2555</v>
       </c>
     </row>
-    <row r="124" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="3:6">
       <c r="C124" s="2" t="s">
         <v>21</v>
       </c>
@@ -9129,7 +9192,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="125" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="3:6">
       <c r="C125" s="2" t="s">
         <v>22</v>
       </c>
@@ -9139,7 +9202,7 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="126" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="3:6">
       <c r="C126" s="2" t="s">
         <v>23</v>
       </c>
@@ -9149,7 +9212,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="127" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="3:6">
       <c r="C127" s="2" t="s">
         <v>24</v>
       </c>
@@ -9159,7 +9222,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="128" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="3:6">
       <c r="C128" s="2" t="s">
         <v>25</v>
       </c>
@@ -9169,7 +9232,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="129" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="3:6">
       <c r="C129" s="2" t="s">
         <v>26</v>
       </c>
@@ -9179,7 +9242,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="130" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="3:6">
       <c r="C130" s="2" t="s">
         <v>27</v>
       </c>
@@ -9189,7 +9252,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="131" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="3:6">
       <c r="C131" s="2" t="s">
         <v>28</v>
       </c>
@@ -9199,7 +9262,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="132" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="3:6">
       <c r="C132" s="2" t="s">
         <v>29</v>
       </c>
@@ -9209,7 +9272,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="133" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="3:6">
       <c r="C133" s="2" t="s">
         <v>30</v>
       </c>
@@ -9219,7 +9282,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="134" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="3:6">
       <c r="C134" s="2" t="s">
         <v>31</v>
       </c>
@@ -9229,7 +9292,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="135" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="3:6">
       <c r="C135" s="2" t="s">
         <v>32</v>
       </c>
@@ -9239,7 +9302,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="136" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="3:6">
       <c r="C136" s="2" t="s">
         <v>33</v>
       </c>
@@ -9249,7 +9312,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="137" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="3:6">
       <c r="C137" s="2" t="s">
         <v>34</v>
       </c>
@@ -9259,7 +9322,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="138" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="3:6">
       <c r="C138" s="2" t="s">
         <v>35</v>
       </c>
@@ -9269,7 +9332,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="139" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="3:6">
       <c r="C139" s="2" t="s">
         <v>36</v>
       </c>
@@ -9279,7 +9342,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="140" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="3:6">
       <c r="C140" s="2" t="s">
         <v>37</v>
       </c>
@@ -9289,7 +9352,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="141" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="3:6">
       <c r="C141" s="2" t="s">
         <v>38</v>
       </c>
@@ -9299,7 +9362,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="142" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="3:6">
       <c r="C142" s="2" t="s">
         <v>39</v>
       </c>
@@ -9309,7 +9372,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="143" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="3:6">
       <c r="C143" s="2" t="s">
         <v>40</v>
       </c>
@@ -9319,7 +9382,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="144" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="3:6">
       <c r="C144" s="2" t="s">
         <v>41</v>
       </c>
@@ -9329,7 +9392,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6">
       <c r="C145" s="2" t="s">
         <v>42</v>
       </c>
@@ -9339,7 +9402,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6">
       <c r="C146" s="2" t="s">
         <v>43</v>
       </c>
@@ -9349,7 +9412,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6">
       <c r="C147" s="2" t="s">
         <v>44</v>
       </c>
@@ -9359,7 +9422,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6">
       <c r="C148" s="2" t="s">
         <v>45</v>
       </c>
@@ -9369,7 +9432,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6">
       <c r="C149" s="2" t="s">
         <v>46</v>
       </c>
@@ -9379,7 +9442,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6">
       <c r="C150" s="2" t="s">
         <v>47</v>
       </c>
@@ -9389,7 +9452,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6">
       <c r="C151" s="2" t="s">
         <v>48</v>
       </c>
@@ -9399,7 +9462,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6">
       <c r="C152" s="2" t="s">
         <v>49</v>
       </c>
@@ -9409,7 +9472,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6">
       <c r="C153" s="2" t="s">
         <v>50</v>
       </c>
@@ -9419,7 +9482,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6">
       <c r="C154" s="2" t="s">
         <v>51</v>
       </c>
@@ -9429,7 +9492,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6">
       <c r="C155" s="2" t="s">
         <v>52</v>
       </c>
@@ -9439,7 +9502,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6">
       <c r="C156" s="2" t="s">
         <v>53</v>
       </c>
@@ -9449,7 +9512,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6">
       <c r="C157" s="2" t="s">
         <v>54</v>
       </c>
@@ -9459,7 +9522,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6">
       <c r="A158" s="2" t="s">
         <v>57</v>
       </c>
@@ -9475,7 +9538,7 @@
         <v>2838</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6">
       <c r="C159" s="2" t="s">
         <v>5</v>
       </c>
@@ -9485,7 +9548,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6">
       <c r="C160" s="2" t="s">
         <v>6</v>
       </c>
@@ -9495,7 +9558,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="161" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="3:6">
       <c r="C161" s="2" t="s">
         <v>7</v>
       </c>
@@ -9505,7 +9568,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="162" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="3:6">
       <c r="C162" s="2" t="s">
         <v>8</v>
       </c>
@@ -9515,7 +9578,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="163" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="3:6">
       <c r="C163" s="2" t="s">
         <v>9</v>
       </c>
@@ -9525,7 +9588,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="164" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="3:6">
       <c r="C164" s="2" t="s">
         <v>10</v>
       </c>
@@ -9535,7 +9598,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="165" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="3:6">
       <c r="C165" s="2" t="s">
         <v>11</v>
       </c>
@@ -9545,7 +9608,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="166" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="3:6">
       <c r="C166" s="2" t="s">
         <v>12</v>
       </c>
@@ -9555,7 +9618,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="167" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="3:6">
       <c r="C167" s="2" t="s">
         <v>13</v>
       </c>
@@ -9565,7 +9628,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="168" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="3:6">
       <c r="C168" s="2" t="s">
         <v>14</v>
       </c>
@@ -9575,7 +9638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="3:6">
       <c r="C169" s="2" t="s">
         <v>15</v>
       </c>
@@ -9585,7 +9648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="3:6">
       <c r="C170" s="2" t="s">
         <v>16</v>
       </c>
@@ -9595,7 +9658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="3:6">
       <c r="C171" s="2" t="s">
         <v>17</v>
       </c>
@@ -9605,7 +9668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="3:6">
       <c r="C172" s="2" t="s">
         <v>18</v>
       </c>
@@ -9615,7 +9678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="3:6">
       <c r="C173" s="2" t="s">
         <v>19</v>
       </c>
@@ -9625,7 +9688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="3:6">
       <c r="C174" s="2" t="s">
         <v>20</v>
       </c>
@@ -9635,7 +9698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="3:6">
       <c r="C175" s="2" t="s">
         <v>21</v>
       </c>
@@ -9645,7 +9708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="3:6">
       <c r="C176" s="2" t="s">
         <v>22</v>
       </c>
@@ -9655,7 +9718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="3:6">
       <c r="C177" s="2" t="s">
         <v>23</v>
       </c>
@@ -9665,7 +9728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="3:6">
       <c r="C178" s="2" t="s">
         <v>24</v>
       </c>
@@ -9675,7 +9738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="3:6">
       <c r="C179" s="2" t="s">
         <v>25</v>
       </c>
@@ -9685,7 +9748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="3:6">
       <c r="C180" s="2" t="s">
         <v>26</v>
       </c>
@@ -9695,7 +9758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="3:6">
       <c r="C181" s="2" t="s">
         <v>27</v>
       </c>
@@ -9705,7 +9768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="3:6">
       <c r="C182" s="2" t="s">
         <v>28</v>
       </c>
@@ -9715,7 +9778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="3:6">
       <c r="C183" s="2" t="s">
         <v>29</v>
       </c>
@@ -9725,7 +9788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="3:6">
       <c r="C184" s="2" t="s">
         <v>30</v>
       </c>
@@ -9735,7 +9798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="3:6">
       <c r="C185" s="2" t="s">
         <v>31</v>
       </c>
@@ -9745,7 +9808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="3:6">
       <c r="C186" s="2" t="s">
         <v>32</v>
       </c>
@@ -9755,7 +9818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="3:6">
       <c r="C187" s="2" t="s">
         <v>33</v>
       </c>
@@ -9765,7 +9828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="3:6">
       <c r="C188" s="2" t="s">
         <v>34</v>
       </c>
@@ -9775,7 +9838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="3:6">
       <c r="C189" s="2" t="s">
         <v>35</v>
       </c>
@@ -9785,7 +9848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="3:6">
       <c r="C190" s="2" t="s">
         <v>36</v>
       </c>
@@ -9795,7 +9858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="3:6">
       <c r="C191" s="2" t="s">
         <v>37</v>
       </c>
@@ -9805,7 +9868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="192" spans="3:6">
       <c r="C192" s="2" t="s">
         <v>38</v>
       </c>
@@ -9815,7 +9878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="3:6">
       <c r="C193" s="2" t="s">
         <v>39</v>
       </c>
@@ -9825,7 +9888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="194" spans="3:6">
       <c r="C194" s="2" t="s">
         <v>40</v>
       </c>
@@ -9835,7 +9898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="3:6">
       <c r="C195" s="2" t="s">
         <v>41</v>
       </c>
@@ -9845,7 +9908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="3:6">
       <c r="C196" s="2" t="s">
         <v>42</v>
       </c>
@@ -9855,7 +9918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="3:6">
       <c r="C197" s="2" t="s">
         <v>43</v>
       </c>
@@ -9865,7 +9928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="3:6">
       <c r="C198" s="2" t="s">
         <v>44</v>
       </c>
@@ -9875,7 +9938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="199" spans="3:6">
       <c r="C199" s="2" t="s">
         <v>45</v>
       </c>
@@ -9885,7 +9948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="3:6">
       <c r="C200" s="2" t="s">
         <v>46</v>
       </c>
@@ -9895,7 +9958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="3:6">
       <c r="C201" s="2" t="s">
         <v>47</v>
       </c>
@@ -9905,7 +9968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="3:6">
       <c r="C202" s="2" t="s">
         <v>48</v>
       </c>
@@ -9915,7 +9978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="3:6">
       <c r="C203" s="2" t="s">
         <v>49</v>
       </c>
@@ -9925,7 +9988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="204" spans="3:6">
       <c r="C204" s="2" t="s">
         <v>50</v>
       </c>
@@ -9935,7 +9998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="3:6">
       <c r="C205" s="2" t="s">
         <v>51</v>
       </c>
@@ -9945,7 +10008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="206" spans="3:6">
       <c r="C206" s="2" t="s">
         <v>52</v>
       </c>
@@ -9955,7 +10018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="3:6">
       <c r="C207" s="2" t="s">
         <v>53</v>
       </c>
@@ -9965,7 +10028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="3:6">
       <c r="C208" s="2" t="s">
         <v>54</v>
       </c>
@@ -9975,7 +10038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6">
       <c r="A209" s="2" t="s">
         <v>58</v>
       </c>
@@ -9991,7 +10054,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6">
       <c r="C210" s="2" t="s">
         <v>5</v>
       </c>
@@ -10001,7 +10064,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6">
       <c r="C211" s="2" t="s">
         <v>6</v>
       </c>
@@ -10011,7 +10074,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6">
       <c r="C212" s="2" t="s">
         <v>7</v>
       </c>
@@ -10021,7 +10084,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6">
       <c r="C213" s="2" t="s">
         <v>8</v>
       </c>
@@ -10031,7 +10094,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6">
       <c r="C214" s="2" t="s">
         <v>9</v>
       </c>
@@ -10041,7 +10104,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6">
       <c r="C215" s="2" t="s">
         <v>10</v>
       </c>
@@ -10051,7 +10114,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6">
       <c r="C216" s="2" t="s">
         <v>11</v>
       </c>
@@ -10061,7 +10124,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6">
       <c r="C217" s="2" t="s">
         <v>12</v>
       </c>
@@ -10071,7 +10134,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6">
       <c r="C218" s="2" t="s">
         <v>13</v>
       </c>
@@ -10081,7 +10144,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6">
       <c r="C219" s="2" t="s">
         <v>14</v>
       </c>
@@ -10091,7 +10154,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6">
       <c r="C220" s="2" t="s">
         <v>15</v>
       </c>
@@ -10101,7 +10164,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6">
       <c r="C221" s="2" t="s">
         <v>16</v>
       </c>
@@ -10111,7 +10174,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6">
       <c r="C222" s="2" t="s">
         <v>17</v>
       </c>
@@ -10121,7 +10184,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6">
       <c r="C223" s="2" t="s">
         <v>18</v>
       </c>
@@ -10131,7 +10194,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6">
       <c r="C224" s="2" t="s">
         <v>19</v>
       </c>
@@ -10141,7 +10204,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="225" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="3:6">
       <c r="C225" s="2" t="s">
         <v>20</v>
       </c>
@@ -10151,7 +10214,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="226" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="3:6">
       <c r="C226" s="2" t="s">
         <v>21</v>
       </c>
@@ -10161,7 +10224,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="227" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="227" spans="3:6">
       <c r="C227" s="2" t="s">
         <v>22</v>
       </c>
@@ -10171,7 +10234,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="228" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="3:6">
       <c r="C228" s="2" t="s">
         <v>23</v>
       </c>
@@ -10181,7 +10244,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="229" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="229" spans="3:6">
       <c r="C229" s="2" t="s">
         <v>24</v>
       </c>
@@ -10191,7 +10254,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="230" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="230" spans="3:6">
       <c r="C230" s="2" t="s">
         <v>25</v>
       </c>
@@ -10201,7 +10264,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="231" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="231" spans="3:6">
       <c r="C231" s="2" t="s">
         <v>26</v>
       </c>
@@ -10211,7 +10274,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="232" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="232" spans="3:6">
       <c r="C232" s="2" t="s">
         <v>27</v>
       </c>
@@ -10221,7 +10284,7 @@
         <v>2114</v>
       </c>
     </row>
-    <row r="233" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="233" spans="3:6">
       <c r="C233" s="2" t="s">
         <v>28</v>
       </c>
@@ -10231,7 +10294,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="234" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="234" spans="3:6">
       <c r="C234" s="2" t="s">
         <v>29</v>
       </c>
@@ -10241,7 +10304,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="235" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="235" spans="3:6">
       <c r="C235" s="2" t="s">
         <v>30</v>
       </c>
@@ -10251,7 +10314,7 @@
         <v>2394</v>
       </c>
     </row>
-    <row r="236" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="236" spans="3:6">
       <c r="C236" s="2" t="s">
         <v>31</v>
       </c>
@@ -10261,7 +10324,7 @@
         <v>2631</v>
       </c>
     </row>
-    <row r="237" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="237" spans="3:6">
       <c r="C237" s="2" t="s">
         <v>32</v>
       </c>
@@ -10271,7 +10334,7 @@
         <v>2929</v>
       </c>
     </row>
-    <row r="238" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="238" spans="3:6">
       <c r="C238" s="2" t="s">
         <v>33</v>
       </c>
@@ -10281,7 +10344,7 @@
         <v>3153</v>
       </c>
     </row>
-    <row r="239" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="239" spans="3:6">
       <c r="C239" s="2" t="s">
         <v>34</v>
       </c>
@@ -10291,7 +10354,7 @@
         <v>3666</v>
       </c>
     </row>
-    <row r="240" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="240" spans="3:6">
       <c r="C240" s="2" t="s">
         <v>35</v>
       </c>
@@ -10301,7 +10364,7 @@
         <v>4076</v>
       </c>
     </row>
-    <row r="241" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="241" spans="3:6">
       <c r="C241" s="2" t="s">
         <v>36</v>
       </c>
@@ -10311,7 +10374,7 @@
         <v>4389</v>
       </c>
     </row>
-    <row r="242" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="242" spans="3:6">
       <c r="C242" s="2" t="s">
         <v>37</v>
       </c>
@@ -10321,7 +10384,7 @@
         <v>4739</v>
       </c>
     </row>
-    <row r="243" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="243" spans="3:6">
       <c r="C243" s="2" t="s">
         <v>38</v>
       </c>
@@ -10331,7 +10394,7 @@
         <v>5223</v>
       </c>
     </row>
-    <row r="244" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="244" spans="3:6">
       <c r="C244" s="2" t="s">
         <v>39</v>
       </c>
@@ -10341,7 +10404,7 @@
         <v>5728</v>
       </c>
     </row>
-    <row r="245" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="245" spans="3:6">
       <c r="C245" s="2" t="s">
         <v>40</v>
       </c>
@@ -10351,7 +10414,7 @@
         <v>6548</v>
       </c>
     </row>
-    <row r="246" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="246" spans="3:6">
       <c r="C246" s="2" t="s">
         <v>41</v>
       </c>
@@ -10361,7 +10424,7 @@
         <v>7223</v>
       </c>
     </row>
-    <row r="247" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="247" spans="3:6">
       <c r="C247" s="2" t="s">
         <v>42</v>
       </c>
@@ -10371,7 +10434,7 @@
         <v>8004</v>
       </c>
     </row>
-    <row r="248" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="248" spans="3:6">
       <c r="C248" s="2" t="s">
         <v>43</v>
       </c>
@@ -10381,7 +10444,7 @@
         <v>9253</v>
       </c>
     </row>
-    <row r="249" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="249" spans="3:6">
       <c r="C249" s="2" t="s">
         <v>44</v>
       </c>
@@ -10391,7 +10454,7 @@
         <v>11138</v>
       </c>
     </row>
-    <row r="250" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="250" spans="3:6">
       <c r="C250" s="2" t="s">
         <v>45</v>
       </c>
@@ -10401,7 +10464,7 @@
         <v>14232</v>
       </c>
     </row>
-    <row r="251" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="251" spans="3:6">
       <c r="C251" s="2" t="s">
         <v>46</v>
       </c>
@@ -10411,7 +10474,7 @@
         <v>20551</v>
       </c>
     </row>
-    <row r="252" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="252" spans="3:6">
       <c r="C252" s="2" t="s">
         <v>47</v>
       </c>
@@ -10421,7 +10484,7 @@
         <v>38969</v>
       </c>
     </row>
-    <row r="253" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="253" spans="3:6">
       <c r="C253" s="2" t="s">
         <v>48</v>
       </c>
@@ -10431,7 +10494,7 @@
         <v>54023</v>
       </c>
     </row>
-    <row r="254" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="254" spans="3:6">
       <c r="C254" s="2" t="s">
         <v>49</v>
       </c>
@@ -10441,7 +10504,7 @@
         <v>60686</v>
       </c>
     </row>
-    <row r="255" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="255" spans="3:6">
       <c r="C255" s="2" t="s">
         <v>50</v>
       </c>
@@ -10451,7 +10514,7 @@
         <v>65273</v>
       </c>
     </row>
-    <row r="256" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="256" spans="3:6">
       <c r="C256" s="2" t="s">
         <v>51</v>
       </c>
@@ -10461,7 +10524,7 @@
         <v>64112</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6">
       <c r="C257" s="2" t="s">
         <v>52</v>
       </c>
@@ -10471,7 +10534,7 @@
         <v>71292</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6">
       <c r="C258" s="2" t="s">
         <v>53</v>
       </c>
@@ -10481,7 +10544,7 @@
         <v>73572</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6">
       <c r="C259" s="2" t="s">
         <v>54</v>
       </c>
@@ -10491,7 +10554,7 @@
         <v>74255</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6">
       <c r="A260" s="2" t="s">
         <v>59</v>
       </c>
@@ -10507,7 +10570,7 @@
         <v>6874</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6">
       <c r="C261" s="2" t="s">
         <v>5</v>
       </c>
@@ -10517,7 +10580,7 @@
         <v>4338</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6">
       <c r="C262" s="2" t="s">
         <v>6</v>
       </c>
@@ -10527,7 +10590,7 @@
         <v>4168</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6">
       <c r="C263" s="2" t="s">
         <v>7</v>
       </c>
@@ -10537,7 +10600,7 @@
         <v>4355</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6">
       <c r="C264" s="2" t="s">
         <v>8</v>
       </c>
@@ -10547,7 +10610,7 @@
         <v>4510</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6">
       <c r="C265" s="2" t="s">
         <v>9</v>
       </c>
@@ -10557,7 +10620,7 @@
         <v>4768</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6">
       <c r="C266" s="2" t="s">
         <v>10</v>
       </c>
@@ -10567,7 +10630,7 @@
         <v>5232</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6">
       <c r="C267" s="2" t="s">
         <v>11</v>
       </c>
@@ -10577,7 +10640,7 @@
         <v>5331</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6">
       <c r="C268" s="2" t="s">
         <v>12</v>
       </c>
@@ -10587,7 +10650,7 @@
         <v>5593</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6">
       <c r="C269" s="2" t="s">
         <v>13</v>
       </c>
@@ -10597,7 +10660,7 @@
         <v>5554</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6">
       <c r="C270" s="2" t="s">
         <v>14</v>
       </c>
@@ -10607,7 +10670,7 @@
         <v>5613</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6">
       <c r="C271" s="2" t="s">
         <v>15</v>
       </c>
@@ -10617,7 +10680,7 @@
         <v>5339</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:6">
       <c r="C272" s="2" t="s">
         <v>16</v>
       </c>
@@ -10627,7 +10690,7 @@
         <v>5213</v>
       </c>
     </row>
-    <row r="273" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="273" spans="3:6">
       <c r="C273" s="2" t="s">
         <v>17</v>
       </c>
@@ -10637,7 +10700,7 @@
         <v>5266</v>
       </c>
     </row>
-    <row r="274" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="274" spans="3:6">
       <c r="C274" s="2" t="s">
         <v>18</v>
       </c>
@@ -10647,7 +10710,7 @@
         <v>5235</v>
       </c>
     </row>
-    <row r="275" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="275" spans="3:6">
       <c r="C275" s="2" t="s">
         <v>19</v>
       </c>
@@ -10657,7 +10720,7 @@
         <v>4954</v>
       </c>
     </row>
-    <row r="276" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="276" spans="3:6">
       <c r="C276" s="2" t="s">
         <v>20</v>
       </c>
@@ -10667,7 +10730,7 @@
         <v>4725</v>
       </c>
     </row>
-    <row r="277" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="277" spans="3:6">
       <c r="C277" s="2" t="s">
         <v>21</v>
       </c>
@@ -10677,7 +10740,7 @@
         <v>4386</v>
       </c>
     </row>
-    <row r="278" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="278" spans="3:6">
       <c r="C278" s="2" t="s">
         <v>22</v>
       </c>
@@ -10687,7 +10750,7 @@
         <v>4283</v>
       </c>
     </row>
-    <row r="279" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="279" spans="3:6">
       <c r="C279" s="2" t="s">
         <v>23</v>
       </c>
@@ -10697,7 +10760,7 @@
         <v>3955</v>
       </c>
     </row>
-    <row r="280" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="280" spans="3:6">
       <c r="C280" s="2" t="s">
         <v>24</v>
       </c>
@@ -10707,7 +10770,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="281" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="281" spans="3:6">
       <c r="C281" s="2" t="s">
         <v>25</v>
       </c>
@@ -10717,7 +10780,7 @@
         <v>3453</v>
       </c>
     </row>
-    <row r="282" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="282" spans="3:6">
       <c r="C282" s="2" t="s">
         <v>26</v>
       </c>
@@ -10727,7 +10790,7 @@
         <v>3350</v>
       </c>
     </row>
-    <row r="283" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="283" spans="3:6">
       <c r="C283" s="2" t="s">
         <v>27</v>
       </c>
@@ -10737,7 +10800,7 @@
         <v>3259</v>
       </c>
     </row>
-    <row r="284" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="284" spans="3:6">
       <c r="C284" s="2" t="s">
         <v>28</v>
       </c>
@@ -10747,7 +10810,7 @@
         <v>3054</v>
       </c>
     </row>
-    <row r="285" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="285" spans="3:6">
       <c r="C285" s="2" t="s">
         <v>29</v>
       </c>
@@ -10757,7 +10820,7 @@
         <v>2716</v>
       </c>
     </row>
-    <row r="286" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="286" spans="3:6">
       <c r="C286" s="2" t="s">
         <v>30</v>
       </c>
@@ -10767,7 +10830,7 @@
         <v>2789</v>
       </c>
     </row>
-    <row r="287" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="287" spans="3:6">
       <c r="C287" s="2" t="s">
         <v>31</v>
       </c>
@@ -10777,7 +10840,7 @@
         <v>2778</v>
       </c>
     </row>
-    <row r="288" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="288" spans="3:6">
       <c r="C288" s="2" t="s">
         <v>32</v>
       </c>
@@ -10787,7 +10850,7 @@
         <v>2743</v>
       </c>
     </row>
-    <row r="289" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="289" spans="3:6">
       <c r="C289" s="2" t="s">
         <v>33</v>
       </c>
@@ -10797,7 +10860,7 @@
         <v>2902</v>
       </c>
     </row>
-    <row r="290" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="290" spans="3:6">
       <c r="C290" s="2" t="s">
         <v>34</v>
       </c>
@@ -10807,7 +10870,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="291" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="291" spans="3:6">
       <c r="C291" s="2" t="s">
         <v>35</v>
       </c>
@@ -10817,7 +10880,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="292" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="292" spans="3:6">
       <c r="C292" s="2" t="s">
         <v>36</v>
       </c>
@@ -10827,7 +10890,7 @@
         <v>3091</v>
       </c>
     </row>
-    <row r="293" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="293" spans="3:6">
       <c r="C293" s="2" t="s">
         <v>37</v>
       </c>
@@ -10837,7 +10900,7 @@
         <v>3180</v>
       </c>
     </row>
-    <row r="294" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="294" spans="3:6">
       <c r="C294" s="2" t="s">
         <v>38</v>
       </c>
@@ -10847,7 +10910,7 @@
         <v>3178</v>
       </c>
     </row>
-    <row r="295" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="295" spans="3:6">
       <c r="C295" s="2" t="s">
         <v>39</v>
       </c>
@@ -10857,7 +10920,7 @@
         <v>3279</v>
       </c>
     </row>
-    <row r="296" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="296" spans="3:6">
       <c r="C296" s="2" t="s">
         <v>40</v>
       </c>
@@ -10867,7 +10930,7 @@
         <v>3309</v>
       </c>
     </row>
-    <row r="297" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="297" spans="3:6">
       <c r="C297" s="2" t="s">
         <v>41</v>
       </c>
@@ -10877,7 +10940,7 @@
         <v>3309</v>
       </c>
     </row>
-    <row r="298" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="298" spans="3:6">
       <c r="C298" s="2" t="s">
         <v>42</v>
       </c>
@@ -10887,7 +10950,7 @@
         <v>3280</v>
       </c>
     </row>
-    <row r="299" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="299" spans="3:6">
       <c r="C299" s="2" t="s">
         <v>43</v>
       </c>
@@ -10897,7 +10960,7 @@
         <v>3177</v>
       </c>
     </row>
-    <row r="300" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="300" spans="3:6">
       <c r="C300" s="2" t="s">
         <v>44</v>
       </c>
@@ -10907,7 +10970,7 @@
         <v>3054</v>
       </c>
     </row>
-    <row r="301" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="301" spans="3:6">
       <c r="C301" s="2" t="s">
         <v>45</v>
       </c>
@@ -10917,7 +10980,7 @@
         <v>2903</v>
       </c>
     </row>
-    <row r="302" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="302" spans="3:6">
       <c r="C302" s="2" t="s">
         <v>46</v>
       </c>
@@ -10927,7 +10990,7 @@
         <v>2831</v>
       </c>
     </row>
-    <row r="303" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="303" spans="3:6">
       <c r="C303" s="2" t="s">
         <v>47</v>
       </c>
@@ -10937,7 +11000,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="304" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="304" spans="3:6">
       <c r="C304" s="2" t="s">
         <v>48</v>
       </c>
@@ -10947,7 +11010,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:6">
       <c r="C305" s="2" t="s">
         <v>49</v>
       </c>
@@ -10957,7 +11020,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:6">
       <c r="C306" s="2" t="s">
         <v>50</v>
       </c>
@@ -10967,7 +11030,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:6">
       <c r="C307" s="2" t="s">
         <v>51</v>
       </c>
@@ -10977,7 +11040,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:6">
       <c r="C308" s="2" t="s">
         <v>52</v>
       </c>
@@ -10987,7 +11050,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:6">
       <c r="C309" s="2" t="s">
         <v>53</v>
       </c>
@@ -10997,7 +11060,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:6">
       <c r="C310" s="2" t="s">
         <v>54</v>
       </c>
@@ -11007,122 +11070,122 @@
         <v>289</v>
       </c>
     </row>
-    <row r="312" spans="1:6" ht="144" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:6" ht="144">
       <c r="A312" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="313" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:6" ht="32">
       <c r="A313" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:6" ht="80">
       <c r="A314" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:6">
       <c r="A315" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:6">
       <c r="A316" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:6">
       <c r="A318" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:6">
       <c r="A319" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:6">
       <c r="A320" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:1">
       <c r="A323" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:1">
       <c r="A324" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:1">
       <c r="A325" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:1">
       <c r="A327" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:1">
       <c r="A328" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:1">
       <c r="A330" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:1">
       <c r="A331" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:1">
       <c r="A332" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:1">
       <c r="A333" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:1">
       <c r="A335" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:1">
       <c r="A337" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:1">
       <c r="A338" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:1">
       <c r="A339" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:1">
       <c r="A346" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:1">
       <c r="A349" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:1">
       <c r="A350" t="s">
         <v>79</v>
       </c>
@@ -11139,17 +11202,17 @@
   <dimension ref="C2:I309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:9">
       <c r="F2">
         <v>0.8</v>
       </c>
     </row>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:9">
       <c r="C3" t="s">
         <v>88</v>
       </c>
@@ -11166,7 +11229,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:9">
       <c r="C4" s="2">
         <v>20</v>
       </c>
@@ -11190,7 +11253,7 @@
         <v>4.6979421689935814E-3</v>
       </c>
     </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:9">
       <c r="C5" s="2">
         <f>1+C4</f>
         <v>21</v>
@@ -11216,7 +11279,7 @@
       </c>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:9">
       <c r="C6" s="2">
         <f t="shared" ref="C6:C48" si="2">1+C5</f>
         <v>22</v>
@@ -11242,7 +11305,7 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:9">
       <c r="C7" s="2">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -11268,7 +11331,7 @@
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:9">
       <c r="C8" s="2">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -11294,7 +11357,7 @@
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:9">
       <c r="C9" s="2">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -11320,7 +11383,7 @@
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:9">
       <c r="C10" s="2">
         <f t="shared" si="2"/>
         <v>26</v>
@@ -11346,7 +11409,7 @@
       </c>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:9">
       <c r="C11" s="2">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -11372,7 +11435,7 @@
       </c>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:9">
       <c r="C12" s="2">
         <f t="shared" si="2"/>
         <v>28</v>
@@ -11398,7 +11461,7 @@
       </c>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:9">
       <c r="C13" s="2">
         <f t="shared" si="2"/>
         <v>29</v>
@@ -11424,7 +11487,7 @@
       </c>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:9">
       <c r="C14" s="2">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -11450,7 +11513,7 @@
       </c>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:9">
       <c r="C15" s="2">
         <f t="shared" si="2"/>
         <v>31</v>
@@ -11476,7 +11539,7 @@
       </c>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:9">
       <c r="C16" s="2">
         <f t="shared" si="2"/>
         <v>32</v>
@@ -11502,7 +11565,7 @@
       </c>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:9">
       <c r="C17" s="2">
         <f t="shared" si="2"/>
         <v>33</v>
@@ -11528,7 +11591,7 @@
       </c>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:9">
       <c r="C18" s="2">
         <f t="shared" si="2"/>
         <v>34</v>
@@ -11554,7 +11617,7 @@
       </c>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:9">
       <c r="C19" s="2">
         <f t="shared" si="2"/>
         <v>35</v>
@@ -11580,7 +11643,7 @@
       </c>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:9">
       <c r="C20" s="2">
         <f t="shared" si="2"/>
         <v>36</v>
@@ -11606,7 +11669,7 @@
       </c>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:9">
       <c r="C21" s="2">
         <f t="shared" si="2"/>
         <v>37</v>
@@ -11632,7 +11695,7 @@
       </c>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:9">
       <c r="C22" s="2">
         <f t="shared" si="2"/>
         <v>38</v>
@@ -11658,7 +11721,7 @@
       </c>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:9">
       <c r="C23" s="2">
         <f t="shared" si="2"/>
         <v>39</v>
@@ -11684,7 +11747,7 @@
       </c>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:9">
       <c r="C24" s="2">
         <f t="shared" si="2"/>
         <v>40</v>
@@ -11710,7 +11773,7 @@
       </c>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:9">
       <c r="C25" s="2">
         <f t="shared" si="2"/>
         <v>41</v>
@@ -11736,7 +11799,7 @@
       </c>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:9">
       <c r="C26" s="2">
         <f t="shared" si="2"/>
         <v>42</v>
@@ -11762,7 +11825,7 @@
       </c>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:9">
       <c r="C27" s="2">
         <f t="shared" si="2"/>
         <v>43</v>
@@ -11788,7 +11851,7 @@
       </c>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:9">
       <c r="C28" s="2">
         <f t="shared" si="2"/>
         <v>44</v>
@@ -11814,7 +11877,7 @@
       </c>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:9">
       <c r="C29" s="2">
         <f t="shared" si="2"/>
         <v>45</v>
@@ -11840,7 +11903,7 @@
       </c>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:9">
       <c r="C30" s="2">
         <f t="shared" si="2"/>
         <v>46</v>
@@ -11866,7 +11929,7 @@
       </c>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:9">
       <c r="C31" s="2">
         <f t="shared" si="2"/>
         <v>47</v>
@@ -11892,7 +11955,7 @@
       </c>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:9">
       <c r="C32" s="2">
         <f t="shared" si="2"/>
         <v>48</v>
@@ -11918,7 +11981,7 @@
       </c>
       <c r="I32" s="3"/>
     </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:9">
       <c r="C33" s="2">
         <f t="shared" si="2"/>
         <v>49</v>
@@ -11944,7 +12007,7 @@
       </c>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:9">
       <c r="C34" s="2">
         <f t="shared" si="2"/>
         <v>50</v>
@@ -11970,7 +12033,7 @@
       </c>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:9">
       <c r="C35" s="2">
         <f t="shared" si="2"/>
         <v>51</v>
@@ -11996,7 +12059,7 @@
       </c>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:9">
       <c r="C36" s="2">
         <f t="shared" si="2"/>
         <v>52</v>
@@ -12022,7 +12085,7 @@
       </c>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:9">
       <c r="C37" s="2">
         <f t="shared" si="2"/>
         <v>53</v>
@@ -12048,7 +12111,7 @@
       </c>
       <c r="I37" s="3"/>
     </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:9">
       <c r="C38" s="2">
         <f t="shared" si="2"/>
         <v>54</v>
@@ -12074,7 +12137,7 @@
       </c>
       <c r="I38" s="3"/>
     </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:9">
       <c r="C39" s="2">
         <f t="shared" si="2"/>
         <v>55</v>
@@ -12100,7 +12163,7 @@
       </c>
       <c r="I39" s="3"/>
     </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:9">
       <c r="C40" s="2">
         <f t="shared" si="2"/>
         <v>56</v>
@@ -12126,7 +12189,7 @@
       </c>
       <c r="I40" s="3"/>
     </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:9">
       <c r="C41" s="2">
         <f t="shared" si="2"/>
         <v>57</v>
@@ -12152,7 +12215,7 @@
       </c>
       <c r="I41" s="3"/>
     </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:9">
       <c r="C42" s="2">
         <f t="shared" si="2"/>
         <v>58</v>
@@ -12178,7 +12241,7 @@
       </c>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:9">
       <c r="C43" s="2">
         <f t="shared" si="2"/>
         <v>59</v>
@@ -12204,7 +12267,7 @@
       </c>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:9">
       <c r="C44" s="2">
         <f t="shared" si="2"/>
         <v>60</v>
@@ -12230,7 +12293,7 @@
       </c>
       <c r="I44" s="3"/>
     </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:9">
       <c r="C45" s="2">
         <f t="shared" si="2"/>
         <v>61</v>
@@ -12256,7 +12319,7 @@
       </c>
       <c r="I45" s="3"/>
     </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:9">
       <c r="C46" s="2">
         <f t="shared" si="2"/>
         <v>62</v>
@@ -12282,7 +12345,7 @@
       </c>
       <c r="I46" s="3"/>
     </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:9">
       <c r="C47" s="2">
         <f t="shared" si="2"/>
         <v>63</v>
@@ -12308,7 +12371,7 @@
       </c>
       <c r="I47" s="3"/>
     </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:9">
       <c r="C48" s="2">
         <f t="shared" si="2"/>
         <v>64</v>
@@ -12334,787 +12397,787 @@
       </c>
       <c r="I48" s="3"/>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:3">
       <c r="C49" s="2"/>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:3">
       <c r="C50" s="2"/>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:3">
       <c r="C51" s="2"/>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:3">
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:3">
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:3">
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:3">
       <c r="C55" s="2"/>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:3">
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:3">
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:3">
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:3">
       <c r="C59" s="2"/>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:3">
       <c r="C60" s="2"/>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:3">
       <c r="C61" s="2"/>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:3">
       <c r="C62" s="2"/>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:3">
       <c r="C63" s="2"/>
     </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:3">
       <c r="C64" s="2"/>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:3">
       <c r="C65" s="2"/>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:3">
       <c r="C66" s="2"/>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:3">
       <c r="C67" s="2"/>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:3">
       <c r="C68" s="2"/>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:3">
       <c r="C69" s="2"/>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:3">
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:3">
       <c r="C71" s="2"/>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:3">
       <c r="C72" s="2"/>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:3">
       <c r="C73" s="2"/>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:3">
       <c r="C74" s="2"/>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:3">
       <c r="C75" s="2"/>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:3">
       <c r="C76" s="2"/>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:3">
       <c r="C77" s="2"/>
     </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:3">
       <c r="C78" s="2"/>
     </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:3">
       <c r="C79" s="2"/>
     </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:3">
       <c r="C80" s="2"/>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:3">
       <c r="C81" s="2"/>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:3">
       <c r="C82" s="2"/>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:3">
       <c r="C83" s="2"/>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:3">
       <c r="C84" s="2"/>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:3">
       <c r="C85" s="2"/>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:3">
       <c r="C86" s="2"/>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:3">
       <c r="C87" s="2"/>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:3">
       <c r="C88" s="2"/>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:3">
       <c r="C89" s="2"/>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:3">
       <c r="C90" s="2"/>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:3">
       <c r="C91" s="2"/>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:3">
       <c r="C92" s="2"/>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:3">
       <c r="C93" s="2"/>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:3">
       <c r="C94" s="2"/>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:3">
       <c r="C95" s="2"/>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:3">
       <c r="C96" s="2"/>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:3">
       <c r="C97" s="2"/>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:3">
       <c r="C98" s="2"/>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:3">
       <c r="C99" s="2"/>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:3">
       <c r="C100" s="2"/>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:3">
       <c r="C101" s="2"/>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:3">
       <c r="C102" s="2"/>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:3">
       <c r="C103" s="2"/>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="3:3">
       <c r="C104" s="2"/>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:3">
       <c r="C105" s="2"/>
     </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:3">
       <c r="C106" s="2"/>
     </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:3">
       <c r="C107" s="2"/>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:3">
       <c r="C108" s="2"/>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="3:3">
       <c r="C109" s="2"/>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="3:3">
       <c r="C110" s="2"/>
     </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="3:3">
       <c r="C111" s="2"/>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="3:3">
       <c r="C112" s="2"/>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:3">
       <c r="C113" s="2"/>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:3">
       <c r="C114" s="2"/>
     </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:3">
       <c r="C115" s="2"/>
     </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="3:3">
       <c r="C116" s="2"/>
     </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="3:3">
       <c r="C117" s="2"/>
     </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="3:3">
       <c r="C118" s="2"/>
     </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="3:3">
       <c r="C119" s="2"/>
     </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:3">
       <c r="C120" s="2"/>
     </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:3">
       <c r="C121" s="2"/>
     </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="3:3">
       <c r="C122" s="2"/>
     </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="3:3">
       <c r="C123" s="2"/>
     </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="3:3">
       <c r="C124" s="2"/>
     </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="3:3">
       <c r="C125" s="2"/>
     </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="3:3">
       <c r="C126" s="2"/>
     </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="3:3">
       <c r="C127" s="2"/>
     </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="3:3">
       <c r="C128" s="2"/>
     </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="3:3">
       <c r="C129" s="2"/>
     </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="3:3">
       <c r="C130" s="2"/>
     </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="3:3">
       <c r="C131" s="2"/>
     </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="3:3">
       <c r="C132" s="2"/>
     </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="3:3">
       <c r="C133" s="2"/>
     </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="3:3">
       <c r="C134" s="2"/>
     </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="3:3">
       <c r="C135" s="2"/>
     </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="3:3">
       <c r="C136" s="2"/>
     </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="3:3">
       <c r="C137" s="2"/>
     </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="3:3">
       <c r="C138" s="2"/>
     </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="3:3">
       <c r="C139" s="2"/>
     </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="3:3">
       <c r="C140" s="2"/>
     </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="3:3">
       <c r="C141" s="2"/>
     </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="3:3">
       <c r="C142" s="2"/>
     </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="3:3">
       <c r="C143" s="2"/>
     </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="3:3">
       <c r="C144" s="2"/>
     </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="3:3">
       <c r="C145" s="2"/>
     </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="3:3">
       <c r="C146" s="2"/>
     </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="3:3">
       <c r="C147" s="2"/>
     </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="3:3">
       <c r="C148" s="2"/>
     </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="3:3">
       <c r="C149" s="2"/>
     </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="3:3">
       <c r="C150" s="2"/>
     </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="3:3">
       <c r="C151" s="2"/>
     </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="3:3">
       <c r="C152" s="2"/>
     </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="3:3">
       <c r="C153" s="2"/>
     </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="3:3">
       <c r="C154" s="2"/>
     </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="3:3">
       <c r="C155" s="2"/>
     </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="3:3">
       <c r="C156" s="2"/>
     </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="3:3">
       <c r="C157" s="2"/>
     </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="3:3">
       <c r="C158" s="2"/>
     </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="3:3">
       <c r="C159" s="2"/>
     </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="3:3">
       <c r="C160" s="2"/>
     </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="3:3">
       <c r="C161" s="2"/>
     </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="3:3">
       <c r="C162" s="2"/>
     </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="3:3">
       <c r="C163" s="2"/>
     </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="3:3">
       <c r="C164" s="2"/>
     </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="3:3">
       <c r="C165" s="2"/>
     </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="3:3">
       <c r="C166" s="2"/>
     </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="3:3">
       <c r="C167" s="2"/>
     </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="3:3">
       <c r="C168" s="2"/>
     </row>
-    <row r="169" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="3:3">
       <c r="C169" s="2"/>
     </row>
-    <row r="170" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="3:3">
       <c r="C170" s="2"/>
     </row>
-    <row r="171" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="3:3">
       <c r="C171" s="2"/>
     </row>
-    <row r="172" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="3:3">
       <c r="C172" s="2"/>
     </row>
-    <row r="173" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="3:3">
       <c r="C173" s="2"/>
     </row>
-    <row r="174" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="3:3">
       <c r="C174" s="2"/>
     </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="3:3">
       <c r="C175" s="2"/>
     </row>
-    <row r="176" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="3:3">
       <c r="C176" s="2"/>
     </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="3:3">
       <c r="C177" s="2"/>
     </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="3:3">
       <c r="C178" s="2"/>
     </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="3:3">
       <c r="C179" s="2"/>
     </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="3:3">
       <c r="C180" s="2"/>
     </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="3:3">
       <c r="C181" s="2"/>
     </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="3:3">
       <c r="C182" s="2"/>
     </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="3:3">
       <c r="C183" s="2"/>
     </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="3:3">
       <c r="C184" s="2"/>
     </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="3:3">
       <c r="C185" s="2"/>
     </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="3:3">
       <c r="C186" s="2"/>
     </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="3:3">
       <c r="C187" s="2"/>
     </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="3:3">
       <c r="C188" s="2"/>
     </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="3:3">
       <c r="C189" s="2"/>
     </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="3:3">
       <c r="C190" s="2"/>
     </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="3:3">
       <c r="C191" s="2"/>
     </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="3:3">
       <c r="C192" s="2"/>
     </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="3:3">
       <c r="C193" s="2"/>
     </row>
-    <row r="194" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="3:3">
       <c r="C194" s="2"/>
     </row>
-    <row r="195" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="3:3">
       <c r="C195" s="2"/>
     </row>
-    <row r="196" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="3:3">
       <c r="C196" s="2"/>
     </row>
-    <row r="197" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="3:3">
       <c r="C197" s="2"/>
     </row>
-    <row r="198" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="3:3">
       <c r="C198" s="2"/>
     </row>
-    <row r="199" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="3:3">
       <c r="C199" s="2"/>
     </row>
-    <row r="200" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="3:3">
       <c r="C200" s="2"/>
     </row>
-    <row r="201" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="3:3">
       <c r="C201" s="2"/>
     </row>
-    <row r="202" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="3:3">
       <c r="C202" s="2"/>
     </row>
-    <row r="203" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="3:3">
       <c r="C203" s="2"/>
     </row>
-    <row r="204" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="3:3">
       <c r="C204" s="2"/>
     </row>
-    <row r="205" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="3:3">
       <c r="C205" s="2"/>
     </row>
-    <row r="206" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="3:3">
       <c r="C206" s="2"/>
     </row>
-    <row r="207" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="3:3">
       <c r="C207" s="2"/>
     </row>
-    <row r="208" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="3:3">
       <c r="C208" s="2"/>
     </row>
-    <row r="209" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="3:3">
       <c r="C209" s="2"/>
     </row>
-    <row r="210" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="3:3">
       <c r="C210" s="2"/>
     </row>
-    <row r="211" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="3:3">
       <c r="C211" s="2"/>
     </row>
-    <row r="212" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="3:3">
       <c r="C212" s="2"/>
     </row>
-    <row r="213" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="3:3">
       <c r="C213" s="2"/>
     </row>
-    <row r="214" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="3:3">
       <c r="C214" s="2"/>
     </row>
-    <row r="215" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="3:3">
       <c r="C215" s="2"/>
     </row>
-    <row r="216" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="3:3">
       <c r="C216" s="2"/>
     </row>
-    <row r="217" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="3:3">
       <c r="C217" s="2"/>
     </row>
-    <row r="218" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="3:3">
       <c r="C218" s="2"/>
     </row>
-    <row r="219" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="3:3">
       <c r="C219" s="2"/>
     </row>
-    <row r="220" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="3:3">
       <c r="C220" s="2"/>
     </row>
-    <row r="221" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="3:3">
       <c r="C221" s="2"/>
     </row>
-    <row r="222" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="3:3">
       <c r="C222" s="2"/>
     </row>
-    <row r="223" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="3:3">
       <c r="C223" s="2"/>
     </row>
-    <row r="224" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="3:3">
       <c r="C224" s="2"/>
     </row>
-    <row r="225" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="3:3">
       <c r="C225" s="2"/>
     </row>
-    <row r="226" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="3:3">
       <c r="C226" s="2"/>
     </row>
-    <row r="227" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="3:3">
       <c r="C227" s="2"/>
     </row>
-    <row r="228" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="3:3">
       <c r="C228" s="2"/>
     </row>
-    <row r="229" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="3:3">
       <c r="C229" s="2"/>
     </row>
-    <row r="230" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="3:3">
       <c r="C230" s="2"/>
     </row>
-    <row r="231" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="3:3">
       <c r="C231" s="2"/>
     </row>
-    <row r="232" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="3:3">
       <c r="C232" s="2"/>
     </row>
-    <row r="233" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="3:3">
       <c r="C233" s="2"/>
     </row>
-    <row r="234" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="3:3">
       <c r="C234" s="2"/>
     </row>
-    <row r="235" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="3:3">
       <c r="C235" s="2"/>
     </row>
-    <row r="236" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="3:3">
       <c r="C236" s="2"/>
     </row>
-    <row r="237" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="3:3">
       <c r="C237" s="2"/>
     </row>
-    <row r="238" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="3:3">
       <c r="C238" s="2"/>
     </row>
-    <row r="239" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="3:3">
       <c r="C239" s="2"/>
     </row>
-    <row r="240" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="3:3">
       <c r="C240" s="2"/>
     </row>
-    <row r="241" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="3:3">
       <c r="C241" s="2"/>
     </row>
-    <row r="242" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="3:3">
       <c r="C242" s="2"/>
     </row>
-    <row r="243" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="3:3">
       <c r="C243" s="2"/>
     </row>
-    <row r="244" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="3:3">
       <c r="C244" s="2"/>
     </row>
-    <row r="245" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="3:3">
       <c r="C245" s="2"/>
     </row>
-    <row r="246" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="3:3">
       <c r="C246" s="2"/>
     </row>
-    <row r="247" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="3:3">
       <c r="C247" s="2"/>
     </row>
-    <row r="248" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="3:3">
       <c r="C248" s="2"/>
     </row>
-    <row r="249" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="3:3">
       <c r="C249" s="2"/>
     </row>
-    <row r="250" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="3:3">
       <c r="C250" s="2"/>
     </row>
-    <row r="251" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="3:3">
       <c r="C251" s="2"/>
     </row>
-    <row r="252" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="3:3">
       <c r="C252" s="2"/>
     </row>
-    <row r="253" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="3:3">
       <c r="C253" s="2"/>
     </row>
-    <row r="254" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="3:3">
       <c r="C254" s="2"/>
     </row>
-    <row r="255" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="3:3">
       <c r="C255" s="2"/>
     </row>
-    <row r="256" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="3:3">
       <c r="C256" s="2"/>
     </row>
-    <row r="257" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="3:3">
       <c r="C257" s="2"/>
     </row>
-    <row r="258" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="3:3">
       <c r="C258" s="2"/>
     </row>
-    <row r="259" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="3:3">
       <c r="C259" s="2"/>
     </row>
-    <row r="260" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="3:3">
       <c r="C260" s="2"/>
     </row>
-    <row r="261" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="3:3">
       <c r="C261" s="2"/>
     </row>
-    <row r="262" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="3:3">
       <c r="C262" s="2"/>
     </row>
-    <row r="263" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="3:3">
       <c r="C263" s="2"/>
     </row>
-    <row r="264" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="3:3">
       <c r="C264" s="2"/>
     </row>
-    <row r="265" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="3:3">
       <c r="C265" s="2"/>
     </row>
-    <row r="266" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="3:3">
       <c r="C266" s="2"/>
     </row>
-    <row r="267" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="3:3">
       <c r="C267" s="2"/>
     </row>
-    <row r="268" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="3:3">
       <c r="C268" s="2"/>
     </row>
-    <row r="269" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="3:3">
       <c r="C269" s="2"/>
     </row>
-    <row r="270" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="3:3">
       <c r="C270" s="2"/>
     </row>
-    <row r="271" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="3:3">
       <c r="C271" s="2"/>
     </row>
-    <row r="272" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="3:3">
       <c r="C272" s="2"/>
     </row>
-    <row r="273" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="3:3">
       <c r="C273" s="2"/>
     </row>
-    <row r="274" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="3:3">
       <c r="C274" s="2"/>
     </row>
-    <row r="275" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="3:3">
       <c r="C275" s="2"/>
     </row>
-    <row r="276" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="3:3">
       <c r="C276" s="2"/>
     </row>
-    <row r="277" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="3:3">
       <c r="C277" s="2"/>
     </row>
-    <row r="278" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="3:3">
       <c r="C278" s="2"/>
     </row>
-    <row r="279" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="3:3">
       <c r="C279" s="2"/>
     </row>
-    <row r="280" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="3:3">
       <c r="C280" s="2"/>
     </row>
-    <row r="281" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="3:3">
       <c r="C281" s="2"/>
     </row>
-    <row r="282" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="3:3">
       <c r="C282" s="2"/>
     </row>
-    <row r="283" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="3:3">
       <c r="C283" s="2"/>
     </row>
-    <row r="284" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="3:3">
       <c r="C284" s="2"/>
     </row>
-    <row r="285" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="3:3">
       <c r="C285" s="2"/>
     </row>
-    <row r="286" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="3:3">
       <c r="C286" s="2"/>
     </row>
-    <row r="287" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="3:3">
       <c r="C287" s="2"/>
     </row>
-    <row r="288" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="3:3">
       <c r="C288" s="2"/>
     </row>
-    <row r="289" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="3:3">
       <c r="C289" s="2"/>
     </row>
-    <row r="290" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="3:3">
       <c r="C290" s="2"/>
     </row>
-    <row r="291" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="3:3">
       <c r="C291" s="2"/>
     </row>
-    <row r="292" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="3:3">
       <c r="C292" s="2"/>
     </row>
-    <row r="293" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="3:3">
       <c r="C293" s="2"/>
     </row>
-    <row r="294" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="3:3">
       <c r="C294" s="2"/>
     </row>
-    <row r="295" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="3:3">
       <c r="C295" s="2"/>
     </row>
-    <row r="296" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="3:3">
       <c r="C296" s="2"/>
     </row>
-    <row r="297" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="3:3">
       <c r="C297" s="2"/>
     </row>
-    <row r="298" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="3:3">
       <c r="C298" s="2"/>
     </row>
-    <row r="299" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="3:3">
       <c r="C299" s="2"/>
     </row>
-    <row r="300" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="3:3">
       <c r="C300" s="2"/>
     </row>
-    <row r="301" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="3:3">
       <c r="C301" s="2"/>
     </row>
-    <row r="302" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="3:3">
       <c r="C302" s="2"/>
     </row>
-    <row r="303" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="3:3">
       <c r="C303" s="2"/>
     </row>
-    <row r="304" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="304" spans="3:3">
       <c r="C304" s="2"/>
     </row>
-    <row r="305" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="305" spans="3:3">
       <c r="C305" s="2"/>
     </row>
-    <row r="306" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="306" spans="3:3">
       <c r="C306" s="2"/>
     </row>
-    <row r="307" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="307" spans="3:3">
       <c r="C307" s="2"/>
     </row>
-    <row r="308" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="308" spans="3:3">
       <c r="C308" s="2"/>
     </row>
-    <row r="309" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="309" spans="3:3">
       <c r="C309" s="2"/>
     </row>
   </sheetData>
@@ -13124,14 +13187,1776 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59685EB-9BF6-1F4F-92B3-98D8318AAB2C}">
+  <dimension ref="A1:J55"/>
+  <sheetViews>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="C4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="C5" t="str">
+        <f>Yhteensä!C5</f>
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <f>Yhteensä!J5</f>
+        <v>1.4412416851441241E-2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E45" si="0">D5</f>
+        <v>1.4412416851441241E-2</v>
+      </c>
+      <c r="F5">
+        <f>Yhteensä!D5+Yhteensä!E5</f>
+        <v>0.50665188470066513</v>
+      </c>
+      <c r="G5">
+        <f>F5+MAX(0,Yhteensä!H5-Yhteensä!J5)</f>
+        <v>0.50665188470066513</v>
+      </c>
+      <c r="I5">
+        <f>MAX(0,E6-E5)/G5</f>
+        <v>6.8168003890104571E-3</v>
+      </c>
+      <c r="J5">
+        <f>alkavuus!H4</f>
+        <v>4.6979421689935814E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="C6" t="str">
+        <f>Yhteensä!C6</f>
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <f>Yhteensä!J6</f>
+        <v>1.7866161616161617E-2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>1.7866161616161617E-2</v>
+      </c>
+      <c r="F6">
+        <f>Yhteensä!D6+Yhteensä!E6</f>
+        <v>0.62556818181818186</v>
+      </c>
+      <c r="G6">
+        <f>F6+MAX(0,Yhteensä!H6-Yhteensä!J6)</f>
+        <v>0.62556818181818186</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ref="I6:I54" si="1">MAX(0,E7-E6)/G6</f>
+        <v>3.3410140823720222E-3</v>
+      </c>
+      <c r="J6">
+        <f>alkavuus!H5</f>
+        <v>4.4353024362023524E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="C7" t="str">
+        <f>Yhteensä!C7</f>
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <f>Yhteensä!J7</f>
+        <v>1.9956193721100024E-2</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1.9956193721100024E-2</v>
+      </c>
+      <c r="F7">
+        <f>Yhteensä!D7+Yhteensä!E7</f>
+        <v>0.64063640788513021</v>
+      </c>
+      <c r="G7">
+        <f>F7+MAX(0,Yhteensä!H7-Yhteensä!J7)</f>
+        <v>0.64063640788513021</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f>alkavuus!H6</f>
+        <v>3.6317357834616338E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="C8" t="str">
+        <f>Yhteensä!C8</f>
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <f>Yhteensä!J8</f>
+        <v>1.9219483568075117E-2</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>1.9219483568075117E-2</v>
+      </c>
+      <c r="F8">
+        <f>Yhteensä!D8+Yhteensä!E8</f>
+        <v>0.66710680751173701</v>
+      </c>
+      <c r="G8">
+        <f>F8+MAX(0,Yhteensä!H8-Yhteensä!J8)</f>
+        <v>0.66710680751173701</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>4.2796852803107573E-3</v>
+      </c>
+      <c r="J8">
+        <f>alkavuus!H7</f>
+        <v>3.1413612565445027E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="C9" t="str">
+        <f>Yhteensä!C9</f>
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <f>Yhteensä!J9</f>
+        <v>2.20744907525782E-2</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>2.20744907525782E-2</v>
+      </c>
+      <c r="F9">
+        <f>Yhteensä!D9+Yhteensä!E9</f>
+        <v>0.71433847552487284</v>
+      </c>
+      <c r="G9">
+        <f>F9+MAX(0,Yhteensä!H9-Yhteensä!J9)</f>
+        <v>0.71433847552487284</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>1.1186733510203147E-3</v>
+      </c>
+      <c r="J9">
+        <f>alkavuus!H8</f>
+        <v>3.4570913950380572E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="C10" t="str">
+        <f>Yhteensä!C10</f>
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <f>Yhteensä!J10</f>
+        <v>2.2873602168756352E-2</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>2.2873602168756352E-2</v>
+      </c>
+      <c r="F10">
+        <f>Yhteensä!D10+Yhteensä!E10</f>
+        <v>0.76208629842991082</v>
+      </c>
+      <c r="G10">
+        <f>F10+MAX(0,Yhteensä!H10-Yhteensä!J10)</f>
+        <v>0.76208629842991082</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>1.8025930100331979E-3</v>
+      </c>
+      <c r="J10">
+        <f>alkavuus!H9</f>
+        <v>3.0056066123345473E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="C11" t="str">
+        <f>Yhteensä!C11</f>
+        <v>26</v>
+      </c>
+      <c r="D11">
+        <f>Yhteensä!J11</f>
+        <v>2.4247333603348183E-2</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>2.4247333603348183E-2</v>
+      </c>
+      <c r="F11">
+        <f>Yhteensä!D11+Yhteensä!E11</f>
+        <v>0.79859592277575264</v>
+      </c>
+      <c r="G11">
+        <f>F11+MAX(0,Yhteensä!H11-Yhteensä!J11)</f>
+        <v>0.79859592277575264</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>2.1714903311113119E-3</v>
+      </c>
+      <c r="J11">
+        <f>alkavuus!H10</f>
+        <v>2.9056092093975704E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="C12" t="str">
+        <f>Yhteensä!C12</f>
+        <v>27</v>
+      </c>
+      <c r="D12">
+        <f>Yhteensä!J12</f>
+        <v>2.5981476928120646E-2</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>2.5981476928120646E-2</v>
+      </c>
+      <c r="F12">
+        <f>Yhteensä!D12+Yhteensä!E12</f>
+        <v>0.82179056361500424</v>
+      </c>
+      <c r="G12">
+        <f>F12+MAX(0,Yhteensä!H12-Yhteensä!J12)</f>
+        <v>0.82179056361500424</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f>alkavuus!H11</f>
+        <v>3.0292830696735107E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="C13" t="str">
+        <f>Yhteensä!C13</f>
+        <v>28</v>
+      </c>
+      <c r="D13">
+        <f>Yhteensä!J13</f>
+        <v>2.5087389083086852E-2</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>2.5087389083086852E-2</v>
+      </c>
+      <c r="F13">
+        <f>Yhteensä!D13+Yhteensä!E13</f>
+        <v>0.84272653939230979</v>
+      </c>
+      <c r="G13">
+        <f>F13+MAX(0,Yhteensä!H13-Yhteensä!J13)</f>
+        <v>0.84272653939230979</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f>alkavuus!H12</f>
+        <v>2.2892131174669719E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="C14" t="str">
+        <f>Yhteensä!C14</f>
+        <v>29</v>
+      </c>
+      <c r="D14">
+        <f>Yhteensä!J14</f>
+        <v>2.3162522324495123E-2</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>2.3162522324495123E-2</v>
+      </c>
+      <c r="F14">
+        <f>Yhteensä!D14+Yhteensä!E14</f>
+        <v>0.85764528094518477</v>
+      </c>
+      <c r="G14">
+        <f>F14+MAX(0,Yhteensä!H14-Yhteensä!J14)</f>
+        <v>0.85764528094518477</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>2.1576414617074835E-3</v>
+      </c>
+      <c r="J14">
+        <f>alkavuus!H13</f>
+        <v>2.1377137713771378E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="C15" t="str">
+        <f>Yhteensä!C15</f>
+        <v>30</v>
+      </c>
+      <c r="D15">
+        <f>Yhteensä!J15</f>
+        <v>2.5013013342100217E-2</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>2.5013013342100217E-2</v>
+      </c>
+      <c r="F15">
+        <f>Yhteensä!D15+Yhteensä!E15</f>
+        <v>0.86362017478973174</v>
+      </c>
+      <c r="G15">
+        <f>F15+MAX(0,Yhteensä!H15-Yhteensä!J15)</f>
+        <v>0.86362017478973174</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f>alkavuus!H14</f>
+        <v>1.8545577160840733E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="C16" t="str">
+        <f>Yhteensä!C16</f>
+        <v>31</v>
+      </c>
+      <c r="D16">
+        <f>Yhteensä!J16</f>
+        <v>2.3496079216988153E-2</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>2.3496079216988153E-2</v>
+      </c>
+      <c r="F16">
+        <f>Yhteensä!D16+Yhteensä!E16</f>
+        <v>0.87118653769103094</v>
+      </c>
+      <c r="G16">
+        <f>F16+MAX(0,Yhteensä!H16-Yhteensä!J16)</f>
+        <v>0.87118653769103094</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>2.5451718034245241E-3</v>
+      </c>
+      <c r="J16">
+        <f>alkavuus!H15</f>
+        <v>2.8135166026787024E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10">
+      <c r="C17" t="str">
+        <f>Yhteensä!C17</f>
+        <v>32</v>
+      </c>
+      <c r="D17">
+        <f>Yhteensä!J17</f>
+        <v>2.5713398628242401E-2</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>2.5713398628242401E-2</v>
+      </c>
+      <c r="F17">
+        <f>Yhteensä!D17+Yhteensä!E17</f>
+        <v>0.88340060402495135</v>
+      </c>
+      <c r="G17">
+        <f>F17+MAX(0,Yhteensä!H17-Yhteensä!J17)</f>
+        <v>0.88340060402495135</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f>alkavuus!H16</f>
+        <v>2.6073353033200068E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10">
+      <c r="C18" t="str">
+        <f>Yhteensä!C18</f>
+        <v>33</v>
+      </c>
+      <c r="D18">
+        <f>Yhteensä!J18</f>
+        <v>2.5633995887594244E-2</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>2.5633995887594244E-2</v>
+      </c>
+      <c r="F18">
+        <f>Yhteensä!D18+Yhteensä!E18</f>
+        <v>0.88411240575736805</v>
+      </c>
+      <c r="G18">
+        <f>F18+MAX(0,Yhteensä!H18-Yhteensä!J18)</f>
+        <v>0.88411240575736805</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>2.9603754178426519E-3</v>
+      </c>
+      <c r="J18">
+        <f>alkavuus!H17</f>
+        <v>2.9262802476083287E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10">
+      <c r="C19" t="str">
+        <f>Yhteensä!C19</f>
+        <v>34</v>
+      </c>
+      <c r="D19">
+        <f>Yhteensä!J19</f>
+        <v>2.8251300520208085E-2</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>2.8251300520208085E-2</v>
+      </c>
+      <c r="F19">
+        <f>Yhteensä!D19+Yhteensä!E19</f>
+        <v>0.88547418967587033</v>
+      </c>
+      <c r="G19">
+        <f>F19+MAX(0,Yhteensä!H19-Yhteensä!J19)</f>
+        <v>0.88547418967587033</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>7.6729285861902217E-4</v>
+      </c>
+      <c r="J19">
+        <f>alkavuus!H18</f>
+        <v>2.9374622522374129E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10">
+      <c r="C20" t="str">
+        <f>Yhteensä!C20</f>
+        <v>35</v>
+      </c>
+      <c r="D20">
+        <f>Yhteensä!J20</f>
+        <v>2.8930718542437846E-2</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>2.8930718542437846E-2</v>
+      </c>
+      <c r="F20">
+        <f>Yhteensä!D20+Yhteensä!E20</f>
+        <v>0.89270431335486078</v>
+      </c>
+      <c r="G20">
+        <f>F20+MAX(0,Yhteensä!H20-Yhteensä!J20)</f>
+        <v>0.89270431335486078</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f>alkavuus!H19</f>
+        <v>2.7846116412987643E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10">
+      <c r="C21" t="str">
+        <f>Yhteensä!C21</f>
+        <v>36</v>
+      </c>
+      <c r="D21">
+        <f>Yhteensä!J21</f>
+        <v>2.8930188480572813E-2</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>2.8930188480572813E-2</v>
+      </c>
+      <c r="F21">
+        <f>Yhteensä!D21+Yhteensä!E21</f>
+        <v>0.8937559229230283</v>
+      </c>
+      <c r="G21">
+        <f>F21+MAX(0,Yhteensä!H21-Yhteensä!J21)</f>
+        <v>0.8937559229230283</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>2.2658292666169811E-3</v>
+      </c>
+      <c r="J21">
+        <f>alkavuus!H20</f>
+        <v>2.8463769687440701E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10">
+      <c r="C22" t="str">
+        <f>Yhteensä!C22</f>
+        <v>37</v>
+      </c>
+      <c r="D22">
+        <f>Yhteensä!J22</f>
+        <v>3.0955286807944082E-2</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>3.0955286807944082E-2</v>
+      </c>
+      <c r="F22">
+        <f>Yhteensä!D22+Yhteensä!E22</f>
+        <v>0.89495728392322205</v>
+      </c>
+      <c r="G22">
+        <f>F22+MAX(0,Yhteensä!H22-Yhteensä!J22)</f>
+        <v>0.89495728392322205</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>2.8652699230863674E-4</v>
+      </c>
+      <c r="J22">
+        <f>alkavuus!H21</f>
+        <v>2.7765056102587587E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10">
+      <c r="C23" t="str">
+        <f>Yhteensä!C23</f>
+        <v>38</v>
+      </c>
+      <c r="D23">
+        <f>Yhteensä!J23</f>
+        <v>3.1211716226751309E-2</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>3.1211716226751309E-2</v>
+      </c>
+      <c r="F23">
+        <f>Yhteensä!D23+Yhteensä!E23</f>
+        <v>0.89572892304265517</v>
+      </c>
+      <c r="G23">
+        <f>F23+MAX(0,Yhteensä!H23-Yhteensä!J23)</f>
+        <v>0.89572892304265517</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f>alkavuus!H22</f>
+        <v>3.0176749532978878E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10">
+      <c r="C24" t="str">
+        <f>Yhteensä!C24</f>
+        <v>39</v>
+      </c>
+      <c r="D24">
+        <f>Yhteensä!J24</f>
+        <v>3.0980725623582766E-2</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>3.0980725623582766E-2</v>
+      </c>
+      <c r="F24">
+        <f>Yhteensä!D24+Yhteensä!E24</f>
+        <v>0.90093537414965985</v>
+      </c>
+      <c r="G24">
+        <f>F24+MAX(0,Yhteensä!H24-Yhteensä!J24)</f>
+        <v>0.90093537414965985</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>4.8999311460806317E-3</v>
+      </c>
+      <c r="J24">
+        <f>alkavuus!H23</f>
+        <v>3.1298446778015034E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10">
+      <c r="C25" t="str">
+        <f>Yhteensä!C25</f>
+        <v>40</v>
+      </c>
+      <c r="D25">
+        <f>Yhteensä!J25</f>
+        <v>3.5395246923984491E-2</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>3.5395246923984491E-2</v>
+      </c>
+      <c r="F25">
+        <f>Yhteensä!D25+Yhteensä!E25</f>
+        <v>0.89881454014270468</v>
+      </c>
+      <c r="G25">
+        <f>F25+MAX(0,Yhteensä!H25-Yhteensä!J25)</f>
+        <v>0.89881454014270468</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <f>alkavuus!H24</f>
+        <v>3.3490593511561534E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10">
+      <c r="C26" t="str">
+        <f>Yhteensä!C26</f>
+        <v>41</v>
+      </c>
+      <c r="D26">
+        <f>Yhteensä!J26</f>
+        <v>3.5222910303471855E-2</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>3.5222910303471855E-2</v>
+      </c>
+      <c r="F26">
+        <f>Yhteensä!D26+Yhteensä!E26</f>
+        <v>0.90298988427158355</v>
+      </c>
+      <c r="G26">
+        <f>F26+MAX(0,Yhteensä!H26-Yhteensä!J26)</f>
+        <v>0.90298988427158355</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>6.7720788526762622E-4</v>
+      </c>
+      <c r="J26">
+        <f>alkavuus!H25</f>
+        <v>2.991577112982864E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10">
+      <c r="C27" t="str">
+        <f>Yhteensä!C27</f>
+        <v>42</v>
+      </c>
+      <c r="D27">
+        <f>Yhteensä!J27</f>
+        <v>3.5834422173417473E-2</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>3.5834422173417473E-2</v>
+      </c>
+      <c r="F27">
+        <f>Yhteensä!D27+Yhteensä!E27</f>
+        <v>0.90381140363070256</v>
+      </c>
+      <c r="G27">
+        <f>F27+MAX(0,Yhteensä!H27-Yhteensä!J27)</f>
+        <v>0.90381140363070256</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>1.155068691479895E-3</v>
+      </c>
+      <c r="J27">
+        <f>alkavuus!H26</f>
+        <v>3.0563404647944181E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10">
+      <c r="C28" t="str">
+        <f>Yhteensä!C28</f>
+        <v>43</v>
+      </c>
+      <c r="D28">
+        <f>Yhteensä!J28</f>
+        <v>3.6878386428753795E-2</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>3.6878386428753795E-2</v>
+      </c>
+      <c r="F28">
+        <f>Yhteensä!D28+Yhteensä!E28</f>
+        <v>0.90556296275282966</v>
+      </c>
+      <c r="G28">
+        <f>F28+MAX(0,Yhteensä!H28-Yhteensä!J28)</f>
+        <v>0.90556296275282966</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>3.7964123369364708E-3</v>
+      </c>
+      <c r="J28">
+        <f>alkavuus!H27</f>
+        <v>3.4461429707519659E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10">
+      <c r="C29" t="str">
+        <f>Yhteensä!C29</f>
+        <v>44</v>
+      </c>
+      <c r="D29">
+        <f>Yhteensä!J29</f>
+        <v>4.031627683242138E-2</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>4.031627683242138E-2</v>
+      </c>
+      <c r="F29">
+        <f>Yhteensä!D29+Yhteensä!E29</f>
+        <v>0.90190006614154294</v>
+      </c>
+      <c r="G29">
+        <f>F29+MAX(0,Yhteensä!H29-Yhteensä!J29)</f>
+        <v>0.90190006614154294</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>4.8967094899277364E-3</v>
+      </c>
+      <c r="J29">
+        <f>alkavuus!H28</f>
+        <v>3.6339713668118168E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10">
+      <c r="C30" t="str">
+        <f>Yhteensä!C30</f>
+        <v>45</v>
+      </c>
+      <c r="D30">
+        <f>Yhteensä!J30</f>
+        <v>4.4732619445263126E-2</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>4.4732619445263126E-2</v>
+      </c>
+      <c r="F30">
+        <f>Yhteensä!D30+Yhteensä!E30</f>
+        <v>0.89936797982774996</v>
+      </c>
+      <c r="G30">
+        <f>F30+MAX(0,Yhteensä!H30-Yhteensä!J30)</f>
+        <v>0.89936797982774996</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>1.9213266602761674E-3</v>
+      </c>
+      <c r="J30">
+        <f>alkavuus!H29</f>
+        <v>4.0451132974529498E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10">
+      <c r="C31" t="str">
+        <f>Yhteensä!C31</f>
+        <v>46</v>
+      </c>
+      <c r="D31">
+        <f>Yhteensä!J31</f>
+        <v>4.6460599122304901E-2</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>4.6460599122304901E-2</v>
+      </c>
+      <c r="F31">
+        <f>Yhteensä!D31+Yhteensä!E31</f>
+        <v>0.89798384532213948</v>
+      </c>
+      <c r="G31">
+        <f>F31+MAX(0,Yhteensä!H31-Yhteensä!J31)</f>
+        <v>0.89798384532213948</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>4.6683757912086045E-3</v>
+      </c>
+      <c r="J31">
+        <f>alkavuus!H30</f>
+        <v>4.0020010005002498E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10">
+      <c r="C32" t="str">
+        <f>Yhteensä!C32</f>
+        <v>47</v>
+      </c>
+      <c r="D32">
+        <f>Yhteensä!J32</f>
+        <v>5.0652725166703189E-2</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>5.0652725166703189E-2</v>
+      </c>
+      <c r="F32">
+        <f>Yhteensä!D32+Yhteensä!E32</f>
+        <v>0.89525091569357917</v>
+      </c>
+      <c r="G32">
+        <f>F32+MAX(0,Yhteensä!H32-Yhteensä!J32)</f>
+        <v>0.89525091569357917</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>4.6301256526801258E-3</v>
+      </c>
+      <c r="J32">
+        <f>alkavuus!H31</f>
+        <v>4.5177246496290189E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10">
+      <c r="C33" t="str">
+        <f>Yhteensä!C33</f>
+        <v>48</v>
+      </c>
+      <c r="D33">
+        <f>Yhteensä!J33</f>
+        <v>5.4797849397041402E-2</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>5.4797849397041402E-2</v>
+      </c>
+      <c r="F33">
+        <f>Yhteensä!D33+Yhteensä!E33</f>
+        <v>0.89575043285440903</v>
+      </c>
+      <c r="G33">
+        <f>F33+MAX(0,Yhteensä!H33-Yhteensä!J33)</f>
+        <v>0.89575043285440903</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>2.4788988797857692E-3</v>
+      </c>
+      <c r="J33">
+        <f>alkavuus!H32</f>
+        <v>5.5275251470257416E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10">
+      <c r="C34" t="str">
+        <f>Yhteensä!C34</f>
+        <v>49</v>
+      </c>
+      <c r="D34">
+        <f>Yhteensä!J34</f>
+        <v>5.7018324141611815E-2</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>5.7018324141611815E-2</v>
+      </c>
+      <c r="F34">
+        <f>Yhteensä!D34+Yhteensä!E34</f>
+        <v>0.89236790606653615</v>
+      </c>
+      <c r="G34">
+        <f>F34+MAX(0,Yhteensä!H34-Yhteensä!J34)</f>
+        <v>0.89236790606653615</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>6.4226598484436312E-3</v>
+      </c>
+      <c r="J34">
+        <f>alkavuus!H33</f>
+        <v>5.5655126874823132E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10">
+      <c r="C35" t="str">
+        <f>Yhteensä!C35</f>
+        <v>50</v>
+      </c>
+      <c r="D35">
+        <f>Yhteensä!J35</f>
+        <v>6.2749699661945074E-2</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>6.2749699661945074E-2</v>
+      </c>
+      <c r="F35">
+        <f>Yhteensä!D35+Yhteensä!E35</f>
+        <v>0.8893917805157433</v>
+      </c>
+      <c r="G35">
+        <f>F35+MAX(0,Yhteensä!H35-Yhteensä!J35)</f>
+        <v>0.8893917805157433</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="1"/>
+        <v>5.7956053677125198E-3</v>
+      </c>
+      <c r="J35">
+        <f>alkavuus!H34</f>
+        <v>6.3194920559215429E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10">
+      <c r="C36" t="str">
+        <f>Yhteensä!C36</f>
+        <v>51</v>
+      </c>
+      <c r="D36">
+        <f>Yhteensä!J36</f>
+        <v>6.7904263439101512E-2</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>6.7904263439101512E-2</v>
+      </c>
+      <c r="F36">
+        <f>Yhteensä!D36+Yhteensä!E36</f>
+        <v>0.88398211754443357</v>
+      </c>
+      <c r="G36">
+        <f>F36+MAX(0,Yhteensä!H36-Yhteensä!J36)</f>
+        <v>0.88398211754443357</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="1"/>
+        <v>5.5842597148553679E-3</v>
+      </c>
+      <c r="J36">
+        <f>alkavuus!H35</f>
+        <v>7.3991752697920628E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10">
+      <c r="C37" t="str">
+        <f>Yhteensä!C37</f>
+        <v>52</v>
+      </c>
+      <c r="D37">
+        <f>Yhteensä!J37</f>
+        <v>7.2840649166757435E-2</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>7.2840649166757435E-2</v>
+      </c>
+      <c r="F37">
+        <f>Yhteensä!D37+Yhteensä!E37</f>
+        <v>0.88152162073848161</v>
+      </c>
+      <c r="G37">
+        <f>F37+MAX(0,Yhteensä!H37-Yhteensä!J37)</f>
+        <v>0.88152162073848161</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="1"/>
+        <v>8.0968782489593029E-3</v>
+      </c>
+      <c r="J37">
+        <f>alkavuus!H36</f>
+        <v>7.312990102499339E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="3:10">
+      <c r="C38" t="str">
+        <f>Yhteensä!C38</f>
+        <v>53</v>
+      </c>
+      <c r="D38">
+        <f>Yhteensä!J38</f>
+        <v>7.9978222403702198E-2</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>7.9978222403702198E-2</v>
+      </c>
+      <c r="F38">
+        <f>Yhteensä!D38+Yhteensä!E38</f>
+        <v>0.87390771743568796</v>
+      </c>
+      <c r="G38">
+        <f>F38+MAX(0,Yhteensä!H38-Yhteensä!J38)</f>
+        <v>0.87390771743568796</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="1"/>
+        <v>4.548654360798327E-3</v>
+      </c>
+      <c r="J38">
+        <f>alkavuus!H37</f>
+        <v>9.1428233275142757E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="3:10">
+      <c r="C39" t="str">
+        <f>Yhteensä!C39</f>
+        <v>54</v>
+      </c>
+      <c r="D39">
+        <f>Yhteensä!J39</f>
+        <v>8.3953326553551352E-2</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>8.3953326553551352E-2</v>
+      </c>
+      <c r="F39">
+        <f>Yhteensä!D39+Yhteensä!E39</f>
+        <v>0.87025638280790019</v>
+      </c>
+      <c r="G39">
+        <f>F39+MAX(0,Yhteensä!H39-Yhteensä!J39)</f>
+        <v>0.87025638280790019</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="1"/>
+        <v>1.0179089019395642E-2</v>
+      </c>
+      <c r="J39">
+        <f>alkavuus!H38</f>
+        <v>1.0254462590201291E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="3:10">
+      <c r="C40" t="str">
+        <f>Yhteensä!C40</f>
+        <v>55</v>
+      </c>
+      <c r="D40">
+        <f>Yhteensä!J40</f>
+        <v>9.281174374385022E-2</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>9.281174374385022E-2</v>
+      </c>
+      <c r="F40">
+        <f>Yhteensä!D40+Yhteensä!E40</f>
+        <v>0.86080897800707401</v>
+      </c>
+      <c r="G40">
+        <f>F40+MAX(0,Yhteensä!H40-Yhteensä!J40)</f>
+        <v>0.86080897800707401</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="1"/>
+        <v>1.6100660625114054E-2</v>
+      </c>
+      <c r="J40">
+        <f>alkavuus!H39</f>
+        <v>1.1784363732301469E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10">
+      <c r="C41" t="str">
+        <f>Yhteensä!C41</f>
+        <v>56</v>
+      </c>
+      <c r="D41">
+        <f>Yhteensä!J41</f>
+        <v>0.10667133696179339</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>0.10667133696179339</v>
+      </c>
+      <c r="F41">
+        <f>Yhteensä!D41+Yhteensä!E41</f>
+        <v>0.84644608503529672</v>
+      </c>
+      <c r="G41">
+        <f>F41+MAX(0,Yhteensä!H41-Yhteensä!J41)</f>
+        <v>0.84644608503529672</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="1"/>
+        <v>1.5144888610020666E-2</v>
+      </c>
+      <c r="J41">
+        <f>alkavuus!H40</f>
+        <v>1.3783743025184739E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="3:10">
+      <c r="C42" t="str">
+        <f>Yhteensä!C42</f>
+        <v>57</v>
+      </c>
+      <c r="D42">
+        <f>Yhteensä!J42</f>
+        <v>0.11949066863404104</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>0.11949066863404104</v>
+      </c>
+      <c r="F42">
+        <f>Yhteensä!D42+Yhteensä!E42</f>
+        <v>0.83411208569008388</v>
+      </c>
+      <c r="G42">
+        <f>F42+MAX(0,Yhteensä!H42-Yhteensä!J42)</f>
+        <v>0.83411208569008388</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="1"/>
+        <v>1.1688052806080037E-2</v>
+      </c>
+      <c r="J42">
+        <f>alkavuus!H41</f>
+        <v>1.5299155908639523E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="3:10">
+      <c r="C43" t="str">
+        <f>Yhteensä!C43</f>
+        <v>58</v>
+      </c>
+      <c r="D43">
+        <f>Yhteensä!J43</f>
+        <v>0.12923981473777629</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>0.12923981473777629</v>
+      </c>
+      <c r="F43">
+        <f>Yhteensä!D43+Yhteensä!E43</f>
+        <v>0.82497157278753086</v>
+      </c>
+      <c r="G43">
+        <f>F43+MAX(0,Yhteensä!H43-Yhteensä!J43)</f>
+        <v>0.82497157278753086</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="1"/>
+        <v>2.456347351359485E-2</v>
+      </c>
+      <c r="J43">
+        <f>alkavuus!H42</f>
+        <v>1.8282001465108132E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="3:10">
+      <c r="C44" t="str">
+        <f>Yhteensä!C44</f>
+        <v>59</v>
+      </c>
+      <c r="D44">
+        <f>Yhteensä!J44</f>
+        <v>0.14950398211541149</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>0.14950398211541149</v>
+      </c>
+      <c r="F44">
+        <f>Yhteensä!D44+Yhteensä!E44</f>
+        <v>0.80681849937124495</v>
+      </c>
+      <c r="G44">
+        <f>F44+MAX(0,Yhteensä!H44-Yhteensä!J44)</f>
+        <v>0.80681849937124495</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="1"/>
+        <v>3.6719657191459518E-2</v>
+      </c>
+      <c r="J44">
+        <f>alkavuus!H43</f>
+        <v>2.405125677673731E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="3:10">
+      <c r="C45" t="str">
+        <f>Yhteensä!C45</f>
+        <v>60</v>
+      </c>
+      <c r="D45">
+        <f>Yhteensä!J45</f>
+        <v>0.1791300808280514</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>0.1791300808280514</v>
+      </c>
+      <c r="F45">
+        <f>Yhteensä!D45+Yhteensä!E45</f>
+        <v>0.77568761993370938</v>
+      </c>
+      <c r="G45">
+        <f>F45+MAX(0,Yhteensä!H45-Yhteensä!J45)</f>
+        <v>0.77568761993370938</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="1"/>
+        <v>3.6573355127608606E-2</v>
+      </c>
+      <c r="J45">
+        <f>alkavuus!H44</f>
+        <v>3.2338044132752451E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="3:10">
+      <c r="C46" t="str">
+        <f>Yhteensä!C46</f>
+        <v>61</v>
+      </c>
+      <c r="D46">
+        <f>Yhteensä!J46</f>
+        <v>0.20749957961997645</v>
+      </c>
+      <c r="E46">
+        <f>D46</f>
+        <v>0.20749957961997645</v>
+      </c>
+      <c r="F46">
+        <f>Yhteensä!D46+Yhteensä!E46</f>
+        <v>0.74177456420604226</v>
+      </c>
+      <c r="G46">
+        <f>F46+MAX(0,Yhteensä!H46-Yhteensä!J46)</f>
+        <v>0.7502662406815761</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="1"/>
+        <v>2.6898065954173076E-2</v>
+      </c>
+      <c r="J46">
+        <f>alkavuus!H45</f>
+        <v>2.8290543885706204E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="3:10">
+      <c r="C47" t="str">
+        <f>Yhteensä!C47</f>
+        <v>62</v>
+      </c>
+      <c r="D47">
+        <f>Yhteensä!J47</f>
+        <v>0.22768029044501897</v>
+      </c>
+      <c r="E47">
+        <f>D47</f>
+        <v>0.22768029044501897</v>
+      </c>
+      <c r="F47">
+        <f>Yhteensä!D47+Yhteensä!E47</f>
+        <v>0.66403542549095107</v>
+      </c>
+      <c r="G47">
+        <f>F47+MAX(0,Yhteensä!H47-Yhteensä!J47)</f>
+        <v>0.7336212112877496</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="1"/>
+        <v>2.7508352422933157E-2</v>
+      </c>
+      <c r="J47">
+        <f>alkavuus!H46</f>
+        <v>1.9444444444444445E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="3:10">
+      <c r="C48" t="str">
+        <f>Yhteensä!C48</f>
+        <v>63</v>
+      </c>
+      <c r="D48">
+        <f>Yhteensä!J48</f>
+        <v>0.14229625890403275</v>
+      </c>
+      <c r="E48">
+        <f>E47+($D$47-$D$46)</f>
+        <v>0.2478610012700615</v>
+      </c>
+      <c r="F48">
+        <f>Yhteensä!D48+Yhteensä!E48</f>
+        <v>0.42843120758315106</v>
+      </c>
+      <c r="G48">
+        <f>F48+MAX(0,Yhteensä!H48-Yhteensä!J48)</f>
+        <v>0.83473554321610854</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="1"/>
+        <v>2.4176172907756303E-2</v>
+      </c>
+      <c r="J48">
+        <f>alkavuus!H47</f>
+        <v>4.5448600575464298E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:10">
+      <c r="C49" t="str">
+        <f>Yhteensä!C49</f>
+        <v>64</v>
+      </c>
+      <c r="D49">
+        <f>Yhteensä!J49</f>
+        <v>0.13514286531476133</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ref="E49:E55" si="2">E48+($D$47-$D$46)</f>
+        <v>0.26804171209510402</v>
+      </c>
+      <c r="F49">
+        <f>Yhteensä!D49+Yhteensä!E49</f>
+        <v>0.24171266767725882</v>
+      </c>
+      <c r="G49">
+        <f>F49+MAX(0,Yhteensä!H49-Yhteensä!J49)</f>
+        <v>0.85433172210622665</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="1"/>
+        <v>2.3621633497688709E-2</v>
+      </c>
+      <c r="J49">
+        <f>alkavuus!H48</f>
+        <v>3.3070970302268666E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:10">
+      <c r="C50" t="str">
+        <f>Yhteensä!C50</f>
+        <v>65</v>
+      </c>
+      <c r="D50">
+        <f>Yhteensä!J50</f>
+        <v>1.045740274036094E-2</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="2"/>
+        <v>0.28822242292014655</v>
+      </c>
+      <c r="F50">
+        <f>Yhteensä!D50+Yhteensä!E50</f>
+        <v>0.14805480721879435</v>
+      </c>
+      <c r="G50">
+        <f>F50+MAX(0,Yhteensä!H50-Yhteensä!J50)</f>
+        <v>0.98059152399988425</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="1"/>
+        <v>2.0580139977882276E-2</v>
+      </c>
+      <c r="J50">
+        <f>alkavuus!H49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:10">
+      <c r="C51" t="str">
+        <f>Yhteensä!C51</f>
+        <v>66</v>
+      </c>
+      <c r="D51">
+        <f>Yhteensä!J51</f>
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="2"/>
+        <v>0.30840313374518907</v>
+      </c>
+      <c r="F51">
+        <f>Yhteensä!D51+Yhteensä!E51</f>
+        <v>0.11498846175493893</v>
+      </c>
+      <c r="G51">
+        <f>F51+MAX(0,Yhteensä!H51-Yhteensä!J51)</f>
+        <v>0.99459672426408507</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="1"/>
+        <v>2.0290345154690203E-2</v>
+      </c>
+      <c r="J51">
+        <f>alkavuus!H50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:10">
+      <c r="C52" t="str">
+        <f>Yhteensä!C52</f>
+        <v>67</v>
+      </c>
+      <c r="D52">
+        <f>Yhteensä!J52</f>
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="2"/>
+        <v>0.3285838445702316</v>
+      </c>
+      <c r="F52">
+        <f>Yhteensä!D52+Yhteensä!E52</f>
+        <v>9.3521375055090353E-2</v>
+      </c>
+      <c r="G52">
+        <f>F52+MAX(0,Yhteensä!H52-Yhteensä!J52)</f>
+        <v>0.99424122227119149</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="1"/>
+        <v>2.0297600192982129E-2</v>
+      </c>
+      <c r="J52">
+        <f>alkavuus!H51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:10">
+      <c r="C53" t="str">
+        <f>Yhteensä!C53</f>
+        <v>68</v>
+      </c>
+      <c r="D53">
+        <f>Yhteensä!J53</f>
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="2"/>
+        <v>0.34876455539527412</v>
+      </c>
+      <c r="F53">
+        <f>Yhteensä!D53+Yhteensä!E53</f>
+        <v>1.1552056093565907E-2</v>
+      </c>
+      <c r="G53">
+        <f>F53+MAX(0,Yhteensä!H53-Yhteensä!J53)</f>
+        <v>0.99387913445788667</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="1"/>
+        <v>2.0304994969081561E-2</v>
+      </c>
+      <c r="J53">
+        <f>alkavuus!H52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:10">
+      <c r="C54" t="str">
+        <f>Yhteensä!C54</f>
+        <v>69</v>
+      </c>
+      <c r="D54">
+        <f>Yhteensä!J54</f>
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="2"/>
+        <v>0.36894526622031665</v>
+      </c>
+      <c r="F54">
+        <f>Yhteensä!D54+Yhteensä!E54</f>
+        <v>1.921501031393936E-3</v>
+      </c>
+      <c r="G54">
+        <f>F54+MAX(0,Yhteensä!H54-Yhteensä!J54)</f>
+        <v>0.99497018847664531</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="1"/>
+        <v>2.0282729129744395E-2</v>
+      </c>
+      <c r="J54">
+        <f>alkavuus!H53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:10">
+      <c r="C55" t="str">
+        <f>Yhteensä!C55</f>
+        <v>70</v>
+      </c>
+      <c r="D55">
+        <f>Yhteensä!J55</f>
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="2"/>
+        <v>0.38912597704535917</v>
+      </c>
+      <c r="F55">
+        <f>Yhteensä!D55+Yhteensä!E55</f>
+        <v>1.5240890745392454E-3</v>
+      </c>
+      <c r="G55">
+        <f>F55+MAX(0,Yhteensä!H55-Yhteensä!J55)</f>
+        <v>0.99477858372611561</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC63199-CE52-3041-9846-1F10D2621F28}">
+  <dimension ref="B3:L11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="2:12">
+      <c r="C3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="16">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="K4" s="11"/>
+      <c r="L4" s="12"/>
+    </row>
+    <row r="5" spans="2:12" ht="16">
+      <c r="B5" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="12">
+        <v>71</v>
+      </c>
+      <c r="D5" s="12">
+        <v>59</v>
+      </c>
+      <c r="E5" s="12">
+        <f>D5+C5</f>
+        <v>130</v>
+      </c>
+      <c r="F5" s="13">
+        <f>C5/E5</f>
+        <v>0.5461538461538461</v>
+      </c>
+      <c r="G5" s="13">
+        <f>D5/E5</f>
+        <v>0.45384615384615384</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="L5" s="12"/>
+    </row>
+    <row r="6" spans="2:12" ht="16">
+      <c r="B6" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="12">
+        <v>49</v>
+      </c>
+      <c r="D6" s="12">
+        <v>184</v>
+      </c>
+      <c r="E6" s="12">
+        <f t="shared" ref="E6:E10" si="0">D6+C6</f>
+        <v>233</v>
+      </c>
+      <c r="F6" s="13">
+        <f t="shared" ref="F6:F10" si="1">C6/E6</f>
+        <v>0.21030042918454936</v>
+      </c>
+      <c r="G6" s="13">
+        <f t="shared" ref="G6:G10" si="2">D6/E6</f>
+        <v>0.78969957081545061</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="L6" s="12"/>
+    </row>
+    <row r="7" spans="2:12" ht="16">
+      <c r="B7" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="12">
+        <v>41</v>
+      </c>
+      <c r="D7" s="12">
+        <v>211</v>
+      </c>
+      <c r="E7" s="12">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+      <c r="F7" s="13">
+        <f t="shared" si="1"/>
+        <v>0.1626984126984127</v>
+      </c>
+      <c r="G7" s="13">
+        <f t="shared" si="2"/>
+        <v>0.83730158730158732</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" s="12"/>
+    </row>
+    <row r="8" spans="2:12" ht="16">
+      <c r="B8" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="12">
+        <v>32</v>
+      </c>
+      <c r="D8" s="12">
+        <v>228</v>
+      </c>
+      <c r="E8" s="12">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
+      <c r="F8" s="13">
+        <f t="shared" si="1"/>
+        <v>0.12307692307692308</v>
+      </c>
+      <c r="G8" s="13">
+        <f t="shared" si="2"/>
+        <v>0.87692307692307692</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="L8" s="12"/>
+    </row>
+    <row r="9" spans="2:12" ht="16">
+      <c r="B9" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="12">
+        <v>40</v>
+      </c>
+      <c r="D9" s="12">
+        <v>188</v>
+      </c>
+      <c r="E9" s="12">
+        <f t="shared" si="0"/>
+        <v>228</v>
+      </c>
+      <c r="F9" s="13">
+        <f t="shared" si="1"/>
+        <v>0.17543859649122806</v>
+      </c>
+      <c r="G9" s="13">
+        <f t="shared" si="2"/>
+        <v>0.82456140350877194</v>
+      </c>
+      <c r="K9" s="11"/>
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" spans="2:12" ht="16">
+      <c r="B10" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="12">
+        <v>12</v>
+      </c>
+      <c r="D10" s="12">
+        <v>5</v>
+      </c>
+      <c r="E10" s="12">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="F10" s="13">
+        <f t="shared" si="1"/>
+        <v>0.70588235294117652</v>
+      </c>
+      <c r="G10" s="13">
+        <f t="shared" si="2"/>
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="K10" s="11"/>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="2:12" ht="16">
+      <c r="K11" s="11"/>
+      <c r="L11" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{446C12A0-C80E-B64C-BEF9-F9B58C29F90E}">
   <dimension ref="A1:O350"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5:M55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40.6640625" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
@@ -13143,7 +14968,7 @@
     <col min="13" max="13" width="8.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13151,12 +14976,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="D4" s="2" t="s">
         <v>81</v>
       </c>
@@ -13188,7 +15013,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
@@ -13236,7 +15061,7 @@
         <v>0.26200283176728023</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
@@ -13281,7 +15106,7 @@
         <v>0.16247855484912704</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15">
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
@@ -13326,7 +15151,7 @@
         <v>0.14160216534498316</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15">
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
@@ -13371,7 +15196,7 @@
         <v>0.13270288102045308</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
@@ -13416,7 +15241,7 @@
         <v>0.12428412344893414</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15">
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
@@ -13461,7 +15286,7 @@
         <v>0.11887204950531738</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15">
       <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
@@ -13506,7 +15331,7 @@
         <v>0.11093454152015149</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15">
       <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
@@ -13551,7 +15376,7 @@
         <v>0.10784574468085105</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15">
       <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
@@ -13596,7 +15421,7 @@
         <v>0.10784595258606937</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15">
       <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
@@ -13641,7 +15466,7 @@
         <v>0.103383097328122</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15">
       <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
@@ -13686,7 +15511,7 @@
         <v>0.10328966151698761</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15">
       <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
@@ -13731,7 +15556,7 @@
         <v>9.5134851023290945E-2</v>
       </c>
     </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:15">
       <c r="C17" s="2" t="s">
         <v>16</v>
       </c>
@@ -13776,7 +15601,7 @@
         <v>9.6587641382835959E-2</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15">
       <c r="C18" s="2" t="s">
         <v>17</v>
       </c>
@@ -13821,7 +15646,7 @@
         <v>9.5664847432398906E-2</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15">
       <c r="C19" s="2" t="s">
         <v>18</v>
       </c>
@@ -13866,7 +15691,7 @@
         <v>9.0563991323210413E-2</v>
       </c>
     </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:15">
       <c r="C20" s="2" t="s">
         <v>19</v>
       </c>
@@ -13911,7 +15736,7 @@
         <v>9.0430537583813669E-2</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15">
       <c r="C21" s="2" t="s">
         <v>20</v>
       </c>
@@ -13956,7 +15781,7 @@
         <v>8.9214184731385496E-2</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15">
       <c r="C22" s="2" t="s">
         <v>21</v>
       </c>
@@ -14001,7 +15826,7 @@
         <v>8.405392840539283E-2</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15">
       <c r="C23" s="2" t="s">
         <v>22</v>
       </c>
@@ -14046,7 +15871,7 @@
         <v>8.5636131920052205E-2</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15">
       <c r="C24" s="2" t="s">
         <v>23</v>
       </c>
@@ -14091,7 +15916,7 @@
         <v>8.308950762938494E-2</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15">
       <c r="C25" s="2" t="s">
         <v>24</v>
       </c>
@@ -14136,7 +15961,7 @@
         <v>8.2822852856607079E-2</v>
       </c>
     </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:15">
       <c r="C26" s="2" t="s">
         <v>25</v>
       </c>
@@ -14181,7 +16006,7 @@
         <v>7.9720713731574855E-2</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15">
       <c r="C27" s="2" t="s">
         <v>26</v>
       </c>
@@ -14226,7 +16051,7 @@
         <v>8.1111008581710803E-2</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15">
       <c r="C28" s="2" t="s">
         <v>27</v>
       </c>
@@ -14271,7 +16096,7 @@
         <v>8.2075057953762312E-2</v>
       </c>
     </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:15">
       <c r="C29" s="2" t="s">
         <v>28</v>
       </c>
@@ -14316,7 +16141,7 @@
         <v>8.1536051201706719E-2</v>
       </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:15">
       <c r="C30" s="2" t="s">
         <v>29</v>
       </c>
@@ -14361,7 +16186,7 @@
         <v>8.7168657151179718E-2</v>
       </c>
     </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:15">
       <c r="C31" s="2" t="s">
         <v>30</v>
       </c>
@@ -14406,7 +16231,7 @@
         <v>8.5062681493023581E-2</v>
       </c>
     </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:15">
       <c r="C32" s="2" t="s">
         <v>31</v>
       </c>
@@ -14451,7 +16276,7 @@
         <v>9.2177501136482848E-2</v>
       </c>
     </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:15">
       <c r="C33" s="2" t="s">
         <v>32</v>
       </c>
@@ -14496,7 +16321,7 @@
         <v>9.461155006951745E-2</v>
       </c>
     </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:15">
       <c r="C34" s="2" t="s">
         <v>33</v>
       </c>
@@ -14541,7 +16366,7 @@
         <v>0.10007974481658692</v>
       </c>
     </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:15">
       <c r="C35" s="2" t="s">
         <v>34</v>
       </c>
@@ -14586,7 +16411,7 @@
         <v>9.7348746623107371E-2</v>
       </c>
     </row>
-    <row r="36" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:15">
       <c r="C36" s="2" t="s">
         <v>35</v>
       </c>
@@ -14631,7 +16456,7 @@
         <v>9.7169113112125324E-2</v>
       </c>
     </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:15">
       <c r="C37" s="2" t="s">
         <v>36</v>
       </c>
@@ -14676,7 +16501,7 @@
         <v>0.104099094924783</v>
       </c>
     </row>
-    <row r="38" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:15">
       <c r="C38" s="2" t="s">
         <v>37</v>
       </c>
@@ -14721,7 +16546,7 @@
         <v>0.10422701928168708</v>
       </c>
     </row>
-    <row r="39" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:15">
       <c r="C39" s="2" t="s">
         <v>38</v>
       </c>
@@ -14766,7 +16591,7 @@
         <v>0.1077557045328741</v>
       </c>
     </row>
-    <row r="40" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:15">
       <c r="C40" s="2" t="s">
         <v>39</v>
       </c>
@@ -14811,7 +16636,7 @@
         <v>0.11189718557879451</v>
       </c>
     </row>
-    <row r="41" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:15">
       <c r="C41" s="2" t="s">
         <v>40</v>
       </c>
@@ -14856,7 +16681,7 @@
         <v>0.11886041699824923</v>
       </c>
     </row>
-    <row r="42" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:15">
       <c r="C42" s="2" t="s">
         <v>41</v>
       </c>
@@ -14901,7 +16726,7 @@
         <v>0.11914433597588941</v>
       </c>
     </row>
-    <row r="43" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:15">
       <c r="C43" s="2" t="s">
         <v>42</v>
       </c>
@@ -14946,7 +16771,7 @@
         <v>0.12374773078733275</v>
       </c>
     </row>
-    <row r="44" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:15">
       <c r="C44" s="2" t="s">
         <v>43</v>
       </c>
@@ -14991,7 +16816,7 @@
         <v>0.13681075090052647</v>
       </c>
     </row>
-    <row r="45" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:15">
       <c r="C45" s="2" t="s">
         <v>44</v>
       </c>
@@ -15036,7 +16861,7 @@
         <v>0.1548034034259155</v>
       </c>
     </row>
-    <row r="46" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:15">
       <c r="C46" s="2" t="s">
         <v>45</v>
       </c>
@@ -15081,7 +16906,7 @@
         <v>0.19710593924739306</v>
       </c>
     </row>
-    <row r="47" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:15">
       <c r="C47" s="2" t="s">
         <v>46</v>
       </c>
@@ -15126,7 +16951,7 @@
         <v>0.1877148655925113</v>
       </c>
     </row>
-    <row r="48" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:15">
       <c r="C48" s="2" t="s">
         <v>47</v>
       </c>
@@ -15171,7 +16996,7 @@
         <v>0.15448059173921583</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15">
       <c r="C49" s="2" t="s">
         <v>48</v>
       </c>
@@ -15216,7 +17041,7 @@
         <v>0.11608093716719914</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15">
       <c r="C50" s="2" t="s">
         <v>49</v>
       </c>
@@ -15260,7 +17085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15">
       <c r="C51" s="2" t="s">
         <v>50</v>
       </c>
@@ -15304,7 +17129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15">
       <c r="C52" s="2" t="s">
         <v>51</v>
       </c>
@@ -15348,7 +17173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15">
       <c r="C53" s="2" t="s">
         <v>52</v>
       </c>
@@ -15392,7 +17217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15">
       <c r="C54" s="2" t="s">
         <v>53</v>
       </c>
@@ -15436,7 +17261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15">
       <c r="C55" s="2" t="s">
         <v>54</v>
       </c>
@@ -15480,1407 +17305,1407 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15">
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15">
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15">
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15">
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15">
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15">
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15">
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15">
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:5">
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:5">
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:5">
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="3"/>
     </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:5">
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:5">
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="3"/>
     </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:5">
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:5">
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:5">
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:5">
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:5">
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:5">
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:5">
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="3"/>
     </row>
-    <row r="77" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:5">
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="3"/>
     </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:5">
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="3"/>
     </row>
-    <row r="79" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:5">
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="3"/>
     </row>
-    <row r="80" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:5">
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="3"/>
     </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:5">
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="3"/>
     </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:5">
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="3"/>
     </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:5">
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="3"/>
     </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:5">
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="3"/>
     </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:5">
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="3"/>
     </row>
-    <row r="86" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:5">
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="3"/>
     </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:5">
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="3"/>
     </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:5">
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="3"/>
     </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:5">
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="3"/>
     </row>
-    <row r="90" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:5">
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="3"/>
     </row>
-    <row r="91" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:5">
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="3"/>
     </row>
-    <row r="92" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:5">
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="3"/>
     </row>
-    <row r="93" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:5">
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="3"/>
     </row>
-    <row r="94" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:5">
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="3"/>
     </row>
-    <row r="95" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:5">
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="3"/>
     </row>
-    <row r="96" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:5">
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="3"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5">
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="3"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5">
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="3"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5">
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="3"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5">
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="3"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5">
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="3"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5">
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="3"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5">
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="3"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5">
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="3"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5">
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="3"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5">
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="3"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="3"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5">
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="3"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5">
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="3"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5">
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="3"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5">
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="3"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5">
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="3"/>
     </row>
-    <row r="113" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:5">
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="3"/>
     </row>
-    <row r="114" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:5">
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="3"/>
     </row>
-    <row r="115" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:5">
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="3"/>
     </row>
-    <row r="116" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="3:5">
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="3"/>
     </row>
-    <row r="117" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="3:5">
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="3"/>
     </row>
-    <row r="118" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="3:5">
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="3"/>
     </row>
-    <row r="119" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="3:5">
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="3"/>
     </row>
-    <row r="120" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:5">
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="3"/>
     </row>
-    <row r="121" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:5">
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="3"/>
     </row>
-    <row r="122" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="3:5">
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="3"/>
     </row>
-    <row r="123" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="3:5">
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="3"/>
     </row>
-    <row r="124" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="3:5">
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="3"/>
     </row>
-    <row r="125" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="3:5">
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="3"/>
     </row>
-    <row r="126" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="3:5">
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="3"/>
     </row>
-    <row r="127" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="3:5">
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="3"/>
     </row>
-    <row r="128" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="3:5">
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="3"/>
     </row>
-    <row r="129" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="3:5">
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="3"/>
     </row>
-    <row r="130" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="3:5">
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="3"/>
     </row>
-    <row r="131" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="3:5">
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="3"/>
     </row>
-    <row r="132" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="3:5">
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="3"/>
     </row>
-    <row r="133" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="3:5">
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="3"/>
     </row>
-    <row r="134" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="3:5">
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="3"/>
     </row>
-    <row r="135" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="3:5">
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="3"/>
     </row>
-    <row r="136" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="3:5">
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="3"/>
     </row>
-    <row r="137" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="3:5">
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="3"/>
     </row>
-    <row r="138" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="3:5">
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="3"/>
     </row>
-    <row r="139" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="3:5">
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="3"/>
     </row>
-    <row r="140" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="3:5">
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="3"/>
     </row>
-    <row r="141" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="3:5">
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="3"/>
     </row>
-    <row r="142" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="3:5">
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="3"/>
     </row>
-    <row r="143" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="3:5">
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="3"/>
     </row>
-    <row r="144" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="3:5">
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="3"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5">
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="3"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5">
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="3"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5">
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="3"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5">
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="3"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5">
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="3"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5">
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="3"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5">
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="3"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5">
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="3"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5">
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="3"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5">
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="3"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5">
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="3"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5">
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="3"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5">
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="3"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="3"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5">
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="3"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5">
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="3"/>
     </row>
-    <row r="161" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="3:5">
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="3"/>
     </row>
-    <row r="162" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="3:5">
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="3"/>
     </row>
-    <row r="163" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="3:5">
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="3"/>
     </row>
-    <row r="164" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="3:5">
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="3"/>
     </row>
-    <row r="165" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="3:5">
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="3"/>
     </row>
-    <row r="166" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="3:5">
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="3"/>
     </row>
-    <row r="167" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="3:5">
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="3"/>
     </row>
-    <row r="168" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="3:5">
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="3"/>
     </row>
-    <row r="169" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="3:5">
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="3"/>
     </row>
-    <row r="170" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="3:5">
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="3"/>
     </row>
-    <row r="171" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="3:5">
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="3"/>
     </row>
-    <row r="172" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="3:5">
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="3"/>
     </row>
-    <row r="173" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="3:5">
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="3"/>
     </row>
-    <row r="174" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="3:5">
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="3"/>
     </row>
-    <row r="175" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="3:5">
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="3"/>
     </row>
-    <row r="176" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="3:5">
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="3"/>
     </row>
-    <row r="177" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="3:5">
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="3"/>
     </row>
-    <row r="178" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="3:5">
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="3"/>
     </row>
-    <row r="179" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="3:5">
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="3"/>
     </row>
-    <row r="180" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="3:5">
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="3"/>
     </row>
-    <row r="181" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="3:5">
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
       <c r="E181" s="3"/>
     </row>
-    <row r="182" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="3:5">
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="3"/>
     </row>
-    <row r="183" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="3:5">
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="3"/>
     </row>
-    <row r="184" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="3:5">
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="3"/>
     </row>
-    <row r="185" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="3:5">
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="3"/>
     </row>
-    <row r="186" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="3:5">
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
       <c r="E186" s="3"/>
     </row>
-    <row r="187" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="3:5">
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="3"/>
     </row>
-    <row r="188" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="3:5">
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
       <c r="E188" s="3"/>
     </row>
-    <row r="189" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="3:5">
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
       <c r="E189" s="3"/>
     </row>
-    <row r="190" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="3:5">
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
       <c r="E190" s="3"/>
     </row>
-    <row r="191" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="3:5">
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
       <c r="E191" s="3"/>
     </row>
-    <row r="192" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="3:5">
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="3"/>
     </row>
-    <row r="193" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="3:5">
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="3"/>
     </row>
-    <row r="194" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="3:5">
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
       <c r="E194" s="3"/>
     </row>
-    <row r="195" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="3:5">
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
       <c r="E195" s="3"/>
     </row>
-    <row r="196" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="3:5">
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
       <c r="E196" s="3"/>
     </row>
-    <row r="197" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="3:5">
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
       <c r="E197" s="3"/>
     </row>
-    <row r="198" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="3:5">
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
       <c r="E198" s="3"/>
     </row>
-    <row r="199" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="3:5">
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="3"/>
     </row>
-    <row r="200" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="3:5">
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
       <c r="E200" s="3"/>
     </row>
-    <row r="201" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="3:5">
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
       <c r="E201" s="3"/>
     </row>
-    <row r="202" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="3:5">
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
       <c r="E202" s="3"/>
     </row>
-    <row r="203" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="3:5">
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
       <c r="E203" s="3"/>
     </row>
-    <row r="204" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="3:5">
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
       <c r="E204" s="3"/>
     </row>
-    <row r="205" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="3:5">
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
       <c r="E205" s="3"/>
     </row>
-    <row r="206" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="3:5">
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
       <c r="E206" s="3"/>
     </row>
-    <row r="207" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="3:5">
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
       <c r="E207" s="3"/>
     </row>
-    <row r="208" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="3:5">
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
       <c r="E208" s="3"/>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
       <c r="E209" s="3"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5">
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
       <c r="E210" s="3"/>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5">
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="3"/>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5">
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="3"/>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5">
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
       <c r="E213" s="3"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5">
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
       <c r="E214" s="3"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5">
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
       <c r="E215" s="3"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5">
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
       <c r="E216" s="3"/>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5">
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
       <c r="E217" s="3"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5">
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
       <c r="E218" s="3"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5">
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
       <c r="E219" s="3"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5">
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
       <c r="E220" s="3"/>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5">
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
       <c r="E221" s="3"/>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5">
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
       <c r="E222" s="3"/>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5">
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
       <c r="E223" s="3"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5">
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
       <c r="E224" s="3"/>
     </row>
-    <row r="225" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="3:5">
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
       <c r="E225" s="3"/>
     </row>
-    <row r="226" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="3:5">
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
       <c r="E226" s="3"/>
     </row>
-    <row r="227" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="3:5">
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
       <c r="E227" s="3"/>
     </row>
-    <row r="228" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="3:5">
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
       <c r="E228" s="3"/>
     </row>
-    <row r="229" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="3:5">
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="3"/>
     </row>
-    <row r="230" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="3:5">
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
       <c r="E230" s="3"/>
     </row>
-    <row r="231" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="3:5">
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
       <c r="E231" s="3"/>
     </row>
-    <row r="232" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="3:5">
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
       <c r="E232" s="3"/>
     </row>
-    <row r="233" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="3:5">
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
       <c r="E233" s="3"/>
     </row>
-    <row r="234" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="3:5">
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
       <c r="E234" s="3"/>
     </row>
-    <row r="235" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="3:5">
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
       <c r="E235" s="3"/>
     </row>
-    <row r="236" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="3:5">
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
       <c r="E236" s="3"/>
     </row>
-    <row r="237" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="3:5">
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
       <c r="E237" s="3"/>
     </row>
-    <row r="238" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="3:5">
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
       <c r="E238" s="3"/>
     </row>
-    <row r="239" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="3:5">
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
       <c r="E239" s="3"/>
     </row>
-    <row r="240" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="3:5">
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
       <c r="E240" s="3"/>
     </row>
-    <row r="241" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="3:5">
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
       <c r="E241" s="3"/>
     </row>
-    <row r="242" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="3:5">
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
       <c r="E242" s="3"/>
     </row>
-    <row r="243" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="3:5">
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
       <c r="E243" s="3"/>
     </row>
-    <row r="244" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="3:5">
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
       <c r="E244" s="3"/>
     </row>
-    <row r="245" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="3:5">
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
       <c r="E245" s="3"/>
     </row>
-    <row r="246" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="3:5">
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
       <c r="E246" s="3"/>
     </row>
-    <row r="247" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="3:5">
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
       <c r="E247" s="3"/>
     </row>
-    <row r="248" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="3:5">
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
       <c r="E248" s="3"/>
     </row>
-    <row r="249" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="3:5">
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
       <c r="E249" s="3"/>
     </row>
-    <row r="250" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="3:5">
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
       <c r="E250" s="3"/>
     </row>
-    <row r="251" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="3:5">
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
       <c r="E251" s="3"/>
     </row>
-    <row r="252" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="3:5">
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
       <c r="E252" s="3"/>
     </row>
-    <row r="253" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="3:5">
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
       <c r="E253" s="3"/>
     </row>
-    <row r="254" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="3:5">
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
       <c r="E254" s="3"/>
     </row>
-    <row r="255" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="3:5">
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
       <c r="E255" s="3"/>
     </row>
-    <row r="256" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="3:5">
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
       <c r="E256" s="3"/>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5">
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
       <c r="E257" s="3"/>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5">
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
       <c r="E258" s="3"/>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5">
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
       <c r="E259" s="3"/>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
       <c r="E260" s="3"/>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5">
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
       <c r="E261" s="3"/>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5">
       <c r="C262" s="2"/>
       <c r="D262" s="2"/>
       <c r="E262" s="3"/>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5">
       <c r="C263" s="2"/>
       <c r="D263" s="2"/>
       <c r="E263" s="3"/>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5">
       <c r="C264" s="2"/>
       <c r="D264" s="2"/>
       <c r="E264" s="3"/>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5">
       <c r="C265" s="2"/>
       <c r="D265" s="2"/>
       <c r="E265" s="3"/>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5">
       <c r="C266" s="2"/>
       <c r="D266" s="2"/>
       <c r="E266" s="3"/>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5">
       <c r="C267" s="2"/>
       <c r="D267" s="2"/>
       <c r="E267" s="3"/>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5">
       <c r="C268" s="2"/>
       <c r="D268" s="2"/>
       <c r="E268" s="3"/>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5">
       <c r="C269" s="2"/>
       <c r="D269" s="2"/>
       <c r="E269" s="3"/>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5">
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
       <c r="E270" s="3"/>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5">
       <c r="C271" s="2"/>
       <c r="D271" s="2"/>
       <c r="E271" s="3"/>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5">
       <c r="C272" s="2"/>
       <c r="D272" s="2"/>
       <c r="E272" s="3"/>
     </row>
-    <row r="273" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="3:5">
       <c r="C273" s="2"/>
       <c r="D273" s="2"/>
       <c r="E273" s="3"/>
     </row>
-    <row r="274" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="3:5">
       <c r="C274" s="2"/>
       <c r="D274" s="2"/>
       <c r="E274" s="3"/>
     </row>
-    <row r="275" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="3:5">
       <c r="C275" s="2"/>
       <c r="D275" s="2"/>
       <c r="E275" s="3"/>
     </row>
-    <row r="276" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="3:5">
       <c r="C276" s="2"/>
       <c r="D276" s="2"/>
       <c r="E276" s="3"/>
     </row>
-    <row r="277" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="3:5">
       <c r="C277" s="2"/>
       <c r="D277" s="2"/>
       <c r="E277" s="3"/>
     </row>
-    <row r="278" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="3:5">
       <c r="C278" s="2"/>
       <c r="D278" s="2"/>
       <c r="E278" s="3"/>
     </row>
-    <row r="279" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="3:5">
       <c r="C279" s="2"/>
       <c r="D279" s="2"/>
       <c r="E279" s="3"/>
     </row>
-    <row r="280" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="3:5">
       <c r="C280" s="2"/>
       <c r="D280" s="2"/>
       <c r="E280" s="3"/>
     </row>
-    <row r="281" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="3:5">
       <c r="C281" s="2"/>
       <c r="D281" s="2"/>
       <c r="E281" s="3"/>
     </row>
-    <row r="282" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="3:5">
       <c r="C282" s="2"/>
       <c r="D282" s="2"/>
       <c r="E282" s="3"/>
     </row>
-    <row r="283" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="3:5">
       <c r="C283" s="2"/>
       <c r="D283" s="2"/>
       <c r="E283" s="3"/>
     </row>
-    <row r="284" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="3:5">
       <c r="C284" s="2"/>
       <c r="D284" s="2"/>
       <c r="E284" s="3"/>
     </row>
-    <row r="285" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="3:5">
       <c r="C285" s="2"/>
       <c r="D285" s="2"/>
       <c r="E285" s="3"/>
     </row>
-    <row r="286" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="3:5">
       <c r="C286" s="2"/>
       <c r="D286" s="2"/>
       <c r="E286" s="3"/>
     </row>
-    <row r="287" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="3:5">
       <c r="C287" s="2"/>
       <c r="D287" s="2"/>
       <c r="E287" s="3"/>
     </row>
-    <row r="288" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="3:5">
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
       <c r="E288" s="3"/>
     </row>
-    <row r="289" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="3:5">
       <c r="C289" s="2"/>
       <c r="D289" s="2"/>
       <c r="E289" s="3"/>
     </row>
-    <row r="290" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="3:5">
       <c r="C290" s="2"/>
       <c r="D290" s="2"/>
       <c r="E290" s="3"/>
     </row>
-    <row r="291" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="3:5">
       <c r="C291" s="2"/>
       <c r="D291" s="2"/>
       <c r="E291" s="3"/>
     </row>
-    <row r="292" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="3:5">
       <c r="C292" s="2"/>
       <c r="D292" s="2"/>
       <c r="E292" s="3"/>
     </row>
-    <row r="293" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="3:5">
       <c r="C293" s="2"/>
       <c r="D293" s="2"/>
       <c r="E293" s="3"/>
     </row>
-    <row r="294" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="3:5">
       <c r="C294" s="2"/>
       <c r="D294" s="2"/>
       <c r="E294" s="3"/>
     </row>
-    <row r="295" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="3:5">
       <c r="C295" s="2"/>
       <c r="D295" s="2"/>
       <c r="E295" s="3"/>
     </row>
-    <row r="296" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="3:5">
       <c r="C296" s="2"/>
       <c r="D296" s="2"/>
       <c r="E296" s="3"/>
     </row>
-    <row r="297" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="3:5">
       <c r="C297" s="2"/>
       <c r="D297" s="2"/>
       <c r="E297" s="3"/>
     </row>
-    <row r="298" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="3:5">
       <c r="C298" s="2"/>
       <c r="D298" s="2"/>
       <c r="E298" s="3"/>
     </row>
-    <row r="299" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="3:5">
       <c r="C299" s="2"/>
       <c r="D299" s="2"/>
       <c r="E299" s="3"/>
     </row>
-    <row r="300" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="3:5">
       <c r="C300" s="2"/>
       <c r="D300" s="2"/>
       <c r="E300" s="3"/>
     </row>
-    <row r="301" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="3:5">
       <c r="C301" s="2"/>
       <c r="D301" s="2"/>
       <c r="E301" s="3"/>
     </row>
-    <row r="302" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="3:5">
       <c r="C302" s="2"/>
       <c r="D302" s="2"/>
       <c r="E302" s="3"/>
     </row>
-    <row r="303" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="3:5">
       <c r="C303" s="2"/>
       <c r="D303" s="2"/>
       <c r="E303" s="3"/>
     </row>
-    <row r="304" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="3:5">
       <c r="C304" s="2"/>
       <c r="D304" s="2"/>
       <c r="E304" s="3"/>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5">
       <c r="C305" s="2"/>
       <c r="D305" s="2"/>
       <c r="E305" s="3"/>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5">
       <c r="C306" s="2"/>
       <c r="D306" s="2"/>
       <c r="E306" s="3"/>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5">
       <c r="C307" s="2"/>
       <c r="D307" s="2"/>
       <c r="E307" s="3"/>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5">
       <c r="C308" s="2"/>
       <c r="D308" s="2"/>
       <c r="E308" s="3"/>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5">
       <c r="C309" s="2"/>
       <c r="D309" s="2"/>
       <c r="E309" s="3"/>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5">
       <c r="C310" s="2"/>
       <c r="D310" s="2"/>
       <c r="E310" s="3"/>
     </row>
-    <row r="312" spans="1:5" ht="144" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5" ht="144">
       <c r="A312" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="313" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5" ht="32">
       <c r="A313" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="314" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5" ht="80">
       <c r="A314" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5">
       <c r="A315" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5">
       <c r="A316" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5">
       <c r="A318" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5">
       <c r="A319" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:5">
       <c r="A320" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:1">
       <c r="A323" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:1">
       <c r="A324" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:1">
       <c r="A325" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:1">
       <c r="A327" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:1">
       <c r="A328" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:1">
       <c r="A330" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:1">
       <c r="A331" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:1">
       <c r="A332" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:1">
       <c r="A333" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:1">
       <c r="A335" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:1">
       <c r="A337" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:1">
       <c r="A338" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:1">
       <c r="A339" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:1">
       <c r="A346" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:1">
       <c r="A349" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:1">
       <c r="A350" t="s">
         <v>79</v>
       </c>
@@ -16892,7 +18717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{163C39A6-29BF-724E-904D-5E7F0695D24E}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -16900,7 +18725,7 @@
       <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/intensities/tilastokeskus data väestörakenne 2018 miehet.xlsx
+++ b/intensities/tilastokeskus data väestörakenne 2018 miehet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antti/Documents/Github/econogym/intensities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BC0F6B-3660-DF48-83D8-5C439BCD47C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A78AF1-29FD-844F-9278-FC3EDC5E1F0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="2360" windowWidth="23720" windowHeight="14600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1360" yWindow="2360" windowWidth="15460" windowHeight="14600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="022_115c_2018" sheetId="2" r:id="rId1"/>
@@ -13190,7 +13190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59685EB-9BF6-1F4F-92B3-98D8318AAB2C}">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
@@ -14755,8 +14755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC63199-CE52-3041-9846-1F10D2621F28}">
   <dimension ref="B3:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -14794,22 +14794,22 @@
         <v>98</v>
       </c>
       <c r="C5" s="12">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="D5" s="12">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="E5" s="12">
         <f>D5+C5</f>
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F5" s="13">
         <f>C5/E5</f>
-        <v>0.5461538461538461</v>
+        <v>0.31746031746031744</v>
       </c>
       <c r="G5" s="13">
         <f>D5/E5</f>
-        <v>0.45384615384615384</v>
+        <v>0.68253968253968256</v>
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="12"/>
@@ -14819,22 +14819,22 @@
         <v>99</v>
       </c>
       <c r="C6" s="12">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="D6" s="12">
-        <v>184</v>
+        <v>246</v>
       </c>
       <c r="E6" s="12">
         <f t="shared" ref="E6:E10" si="0">D6+C6</f>
-        <v>233</v>
+        <v>268</v>
       </c>
       <c r="F6" s="13">
         <f t="shared" ref="F6:F10" si="1">C6/E6</f>
-        <v>0.21030042918454936</v>
+        <v>8.2089552238805971E-2</v>
       </c>
       <c r="G6" s="13">
         <f t="shared" ref="G6:G10" si="2">D6/E6</f>
-        <v>0.78969957081545061</v>
+        <v>0.91791044776119401</v>
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="12"/>
@@ -14844,22 +14844,22 @@
         <v>100</v>
       </c>
       <c r="C7" s="12">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D7" s="12">
-        <v>211</v>
+        <v>258</v>
       </c>
       <c r="E7" s="12">
         <f t="shared" si="0"/>
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="F7" s="13">
         <f t="shared" si="1"/>
-        <v>0.1626984126984127</v>
+        <v>4.797047970479705E-2</v>
       </c>
       <c r="G7" s="13">
         <f t="shared" si="2"/>
-        <v>0.83730158730158732</v>
+        <v>0.95202952029520294</v>
       </c>
       <c r="K7" s="11"/>
       <c r="L7" s="12"/>
@@ -14869,22 +14869,22 @@
         <v>101</v>
       </c>
       <c r="C8" s="12">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D8" s="12">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E8" s="12">
         <f t="shared" si="0"/>
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="F8" s="13">
         <f t="shared" si="1"/>
-        <v>0.12307692307692308</v>
+        <v>3.7656903765690378E-2</v>
       </c>
       <c r="G8" s="13">
         <f t="shared" si="2"/>
-        <v>0.87692307692307692</v>
+        <v>0.96234309623430958</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="12"/>
@@ -14894,22 +14894,22 @@
         <v>102</v>
       </c>
       <c r="C9" s="12">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D9" s="12">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="E9" s="12">
         <f t="shared" si="0"/>
-        <v>228</v>
+        <v>180</v>
       </c>
       <c r="F9" s="13">
         <f t="shared" si="1"/>
-        <v>0.17543859649122806</v>
+        <v>9.4444444444444442E-2</v>
       </c>
       <c r="G9" s="13">
         <f t="shared" si="2"/>
-        <v>0.82456140350877194</v>
+        <v>0.90555555555555556</v>
       </c>
       <c r="K9" s="11"/>
       <c r="L9" s="12"/>
@@ -14919,10 +14919,10 @@
         <v>103</v>
       </c>
       <c r="C10" s="12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E10" s="12">
         <f t="shared" si="0"/>
@@ -14930,11 +14930,11 @@
       </c>
       <c r="F10" s="13">
         <f t="shared" si="1"/>
-        <v>0.70588235294117652</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="G10" s="13">
         <f t="shared" si="2"/>
-        <v>0.29411764705882354</v>
+        <v>0.35294117647058826</v>
       </c>
       <c r="K10" s="11"/>
       <c r="L10" s="12"/>

--- a/intensities/tilastokeskus data väestörakenne 2018 miehet.xlsx
+++ b/intensities/tilastokeskus data väestörakenne 2018 miehet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antti/Documents/Github/econogym/intensities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antti/Github/econogym/intensities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A78AF1-29FD-844F-9278-FC3EDC5E1F0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA84F549-B3ED-3B42-AA5F-B9A844DDE128}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="2360" windowWidth="15460" windowHeight="14600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2120" yWindow="500" windowWidth="26200" windowHeight="14600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="022_115c_2018" sheetId="2" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="110">
   <si>
     <t>Väestö muuttujina Pääasiallinen toiminta, Sukupuoli, Ikä, Vuosi ja Tiedot</t>
   </si>
@@ -411,14 +411,21 @@
   <si>
     <t>yht</t>
   </si>
+  <si>
+    <t>ei-opisk</t>
+  </si>
+  <si>
+    <t>vanh.vapaat</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00000\ _€_-;\-* #,##0.00000\ _€_-;_-* &quot;-&quot;?????\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -486,7 +493,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
@@ -503,6 +510,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -6811,8 +6819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L350"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -13190,8 +13198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59685EB-9BF6-1F4F-92B3-98D8318AAB2C}">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -13238,16 +13246,16 @@
         <v>1.4412416851441241E-2</v>
       </c>
       <c r="F5">
-        <f>Yhteensä!D5+Yhteensä!E5</f>
-        <v>0.50665188470066513</v>
+        <f>Yhteensä!D5+Yhteensä!E5+Yhteensä!F5+Yhteensä!I5</f>
+        <v>0.89842832920307814</v>
       </c>
       <c r="G5">
         <f>F5+MAX(0,Yhteensä!H5-Yhteensä!J5)</f>
-        <v>0.50665188470066513</v>
+        <v>0.89842832920307814</v>
       </c>
       <c r="I5">
         <f>MAX(0,E6-E5)/G5</f>
-        <v>6.8168003890104571E-3</v>
+        <v>3.8442073256793989E-3</v>
       </c>
       <c r="J5">
         <f>alkavuus!H4</f>
@@ -13268,16 +13276,16 @@
         <v>1.7866161616161617E-2</v>
       </c>
       <c r="F6">
-        <f>Yhteensä!D6+Yhteensä!E6</f>
-        <v>0.62556818181818186</v>
+        <f>Yhteensä!D6+Yhteensä!E6+Yhteensä!F6+Yhteensä!I6</f>
+        <v>0.9688131313131314</v>
       </c>
       <c r="G6">
         <f>F6+MAX(0,Yhteensä!H6-Yhteensä!J6)</f>
-        <v>0.62556818181818186</v>
+        <v>0.9688131313131314</v>
       </c>
       <c r="I6">
         <f t="shared" ref="I6:I54" si="1">MAX(0,E7-E6)/G6</f>
-        <v>3.3410140823720222E-3</v>
+        <v>2.1573119081340002E-3</v>
       </c>
       <c r="J6">
         <f>alkavuus!H5</f>
@@ -13298,12 +13306,12 @@
         <v>1.9956193721100024E-2</v>
       </c>
       <c r="F7">
-        <f>Yhteensä!D7+Yhteensä!E7</f>
-        <v>0.64063640788513021</v>
+        <f>Yhteensä!D7+Yhteensä!E7+Yhteensä!F7+Yhteensä!I7</f>
+        <v>0.97605865174008277</v>
       </c>
       <c r="G7">
         <f>F7+MAX(0,Yhteensä!H7-Yhteensä!J7)</f>
-        <v>0.64063640788513021</v>
+        <v>0.97605865174008277</v>
       </c>
       <c r="I7">
         <f t="shared" si="1"/>
@@ -13328,16 +13336,16 @@
         <v>1.9219483568075117E-2</v>
       </c>
       <c r="F8">
-        <f>Yhteensä!D8+Yhteensä!E8</f>
-        <v>0.66710680751173701</v>
+        <f>Yhteensä!D8+Yhteensä!E8+Yhteensä!F8+Yhteensä!I8</f>
+        <v>0.97922535211267592</v>
       </c>
       <c r="G8">
         <f>F8+MAX(0,Yhteensä!H8-Yhteensä!J8)</f>
-        <v>0.66710680751173701</v>
+        <v>0.97922535211267592</v>
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
-        <v>4.2796852803107573E-3</v>
+        <v>2.9155772757960287E-3</v>
       </c>
       <c r="J8">
         <f>alkavuus!H7</f>
@@ -13358,16 +13366,16 @@
         <v>2.20744907525782E-2</v>
       </c>
       <c r="F9">
-        <f>Yhteensä!D9+Yhteensä!E9</f>
-        <v>0.71433847552487284</v>
+        <f>Yhteensä!D9+Yhteensä!E9+Yhteensä!F9+Yhteensä!I9</f>
+        <v>0.97838006761555718</v>
       </c>
       <c r="G9">
         <f>F9+MAX(0,Yhteensä!H9-Yhteensä!J9)</f>
-        <v>0.71433847552487284</v>
+        <v>0.97838006761555718</v>
       </c>
       <c r="I9">
         <f t="shared" si="1"/>
-        <v>1.1186733510203147E-3</v>
+        <v>8.167699267685347E-4</v>
       </c>
       <c r="J9">
         <f>alkavuus!H8</f>
@@ -13388,16 +13396,16 @@
         <v>2.2873602168756352E-2</v>
       </c>
       <c r="F10">
-        <f>Yhteensä!D10+Yhteensä!E10</f>
-        <v>0.76208629842991082</v>
+        <f>Yhteensä!D10+Yhteensä!E10+Yhteensä!F10+Yhteensä!I10</f>
+        <v>0.97786061222184573</v>
       </c>
       <c r="G10">
         <f>F10+MAX(0,Yhteensä!H10-Yhteensä!J10)</f>
-        <v>0.76208629842991082</v>
+        <v>0.97786061222184573</v>
       </c>
       <c r="I10">
         <f t="shared" si="1"/>
-        <v>1.8025930100331979E-3</v>
+        <v>1.40483359020925E-3</v>
       </c>
       <c r="J10">
         <f>alkavuus!H9</f>
@@ -13418,16 +13426,16 @@
         <v>2.4247333603348183E-2</v>
       </c>
       <c r="F11">
-        <f>Yhteensä!D11+Yhteensä!E11</f>
-        <v>0.79859592277575264</v>
+        <f>Yhteensä!D11+Yhteensä!E11+Yhteensä!F11+Yhteensä!I11</f>
+        <v>0.97818280005400293</v>
       </c>
       <c r="G11">
         <f>F11+MAX(0,Yhteensä!H11-Yhteensä!J11)</f>
-        <v>0.79859592277575264</v>
+        <v>0.97818280005400293</v>
       </c>
       <c r="I11">
         <f t="shared" si="1"/>
-        <v>2.1714903311113119E-3</v>
+        <v>1.7728213220235781E-3</v>
       </c>
       <c r="J11">
         <f>alkavuus!H10</f>
@@ -13448,12 +13456,12 @@
         <v>2.5981476928120646E-2</v>
       </c>
       <c r="F12">
-        <f>Yhteensä!D12+Yhteensä!E12</f>
-        <v>0.82179056361500424</v>
+        <f>Yhteensä!D12+Yhteensä!E12+Yhteensä!F12+Yhteensä!I12</f>
+        <v>0.97628609676802447</v>
       </c>
       <c r="G12">
         <f>F12+MAX(0,Yhteensä!H12-Yhteensä!J12)</f>
-        <v>0.82179056361500424</v>
+        <v>0.97628609676802447</v>
       </c>
       <c r="I12">
         <f t="shared" si="1"/>
@@ -13478,12 +13486,12 @@
         <v>2.5087389083086852E-2</v>
       </c>
       <c r="F13">
-        <f>Yhteensä!D13+Yhteensä!E13</f>
-        <v>0.84272653939230979</v>
+        <f>Yhteensä!D13+Yhteensä!E13+Yhteensä!F13+Yhteensä!I13</f>
+        <v>0.97698305996235557</v>
       </c>
       <c r="G13">
         <f>F13+MAX(0,Yhteensä!H13-Yhteensä!J13)</f>
-        <v>0.84272653939230979</v>
+        <v>0.97698305996235557</v>
       </c>
       <c r="I13">
         <f t="shared" si="1"/>
@@ -13508,16 +13516,16 @@
         <v>2.3162522324495123E-2</v>
       </c>
       <c r="F14">
-        <f>Yhteensä!D14+Yhteensä!E14</f>
-        <v>0.85764528094518477</v>
+        <f>Yhteensä!D14+Yhteensä!E14+Yhteensä!F14+Yhteensä!I14</f>
+        <v>0.97834867426844341</v>
       </c>
       <c r="G14">
         <f>F14+MAX(0,Yhteensä!H14-Yhteensä!J14)</f>
-        <v>0.85764528094518477</v>
+        <v>0.97834867426844341</v>
       </c>
       <c r="I14">
         <f t="shared" si="1"/>
-        <v>2.1576414617074835E-3</v>
+        <v>1.891443271989704E-3</v>
       </c>
       <c r="J14">
         <f>alkavuus!H13</f>
@@ -13538,12 +13546,12 @@
         <v>2.5013013342100217E-2</v>
       </c>
       <c r="F15">
-        <f>Yhteensä!D15+Yhteensä!E15</f>
-        <v>0.86362017478973174</v>
+        <f>Yhteensä!D15+Yhteensä!E15+Yhteensä!F15+Yhteensä!I15</f>
+        <v>0.97780882715542039</v>
       </c>
       <c r="G15">
         <f>F15+MAX(0,Yhteensä!H15-Yhteensä!J15)</f>
-        <v>0.86362017478973174</v>
+        <v>0.97780882715542039</v>
       </c>
       <c r="I15">
         <f t="shared" si="1"/>
@@ -13568,16 +13576,16 @@
         <v>2.3496079216988153E-2</v>
       </c>
       <c r="F16">
-        <f>Yhteensä!D16+Yhteensä!E16</f>
-        <v>0.87118653769103094</v>
+        <f>Yhteensä!D16+Yhteensä!E16+Yhteensä!F16+Yhteensä!I16</f>
+        <v>0.97890790452750287</v>
       </c>
       <c r="G16">
         <f>F16+MAX(0,Yhteensä!H16-Yhteensä!J16)</f>
-        <v>0.87118653769103094</v>
+        <v>0.97890790452750287</v>
       </c>
       <c r="I16">
         <f t="shared" si="1"/>
-        <v>2.5451718034245241E-3</v>
+        <v>2.2650950114908911E-3</v>
       </c>
       <c r="J16">
         <f>alkavuus!H15</f>
@@ -13598,12 +13606,12 @@
         <v>2.5713398628242401E-2</v>
       </c>
       <c r="F17">
-        <f>Yhteensä!D17+Yhteensä!E17</f>
-        <v>0.88340060402495135</v>
+        <f>Yhteensä!D17+Yhteensä!E17+Yhteensä!F17+Yhteensä!I17</f>
+        <v>0.97645996217787689</v>
       </c>
       <c r="G17">
         <f>F17+MAX(0,Yhteensä!H17-Yhteensä!J17)</f>
-        <v>0.88340060402495135</v>
+        <v>0.97645996217787689</v>
       </c>
       <c r="I17">
         <f t="shared" si="1"/>
@@ -13628,16 +13636,16 @@
         <v>2.5633995887594244E-2</v>
       </c>
       <c r="F18">
-        <f>Yhteensä!D18+Yhteensä!E18</f>
-        <v>0.88411240575736805</v>
+        <f>Yhteensä!D18+Yhteensä!E18+Yhteensä!F18+Yhteensä!I18</f>
+        <v>0.97639479095270731</v>
       </c>
       <c r="G18">
         <f>F18+MAX(0,Yhteensä!H18-Yhteensä!J18)</f>
-        <v>0.88411240575736805</v>
+        <v>0.97639479095270731</v>
       </c>
       <c r="I18">
         <f t="shared" si="1"/>
-        <v>2.9603754178426519E-3</v>
+        <v>2.6805802907449274E-3</v>
       </c>
       <c r="J18">
         <f>alkavuus!H17</f>
@@ -13658,16 +13666,16 @@
         <v>2.8251300520208085E-2</v>
       </c>
       <c r="F19">
-        <f>Yhteensä!D19+Yhteensä!E19</f>
-        <v>0.88547418967587033</v>
+        <f>Yhteensä!D19+Yhteensä!E19+Yhteensä!F19+Yhteensä!I19</f>
+        <v>0.97444311057756439</v>
       </c>
       <c r="G19">
         <f>F19+MAX(0,Yhteensä!H19-Yhteensä!J19)</f>
-        <v>0.88547418967587033</v>
+        <v>0.97444311057756439</v>
       </c>
       <c r="I19">
         <f t="shared" si="1"/>
-        <v>7.6729285861902217E-4</v>
+        <v>6.9723723720214038E-4</v>
       </c>
       <c r="J19">
         <f>alkavuus!H18</f>
@@ -13688,12 +13696,12 @@
         <v>2.8930718542437846E-2</v>
       </c>
       <c r="F20">
-        <f>Yhteensä!D20+Yhteensä!E20</f>
-        <v>0.89270431335486078</v>
+        <f>Yhteensä!D20+Yhteensä!E20+Yhteensä!F20+Yhteensä!I20</f>
+        <v>0.97406211441022827</v>
       </c>
       <c r="G20">
         <f>F20+MAX(0,Yhteensä!H20-Yhteensä!J20)</f>
-        <v>0.89270431335486078</v>
+        <v>0.97406211441022827</v>
       </c>
       <c r="I20">
         <f t="shared" si="1"/>
@@ -13718,16 +13726,16 @@
         <v>2.8930188480572813E-2</v>
       </c>
       <c r="F21">
-        <f>Yhteensä!D21+Yhteensä!E21</f>
-        <v>0.8937559229230283</v>
+        <f>Yhteensä!D21+Yhteensä!E21+Yhteensä!F21+Yhteensä!I21</f>
+        <v>0.97399178688006738</v>
       </c>
       <c r="G21">
         <f>F21+MAX(0,Yhteensä!H21-Yhteensä!J21)</f>
-        <v>0.8937559229230283</v>
+        <v>0.97399178688006738</v>
       </c>
       <c r="I21">
         <f t="shared" si="1"/>
-        <v>2.2658292666169811E-3</v>
+        <v>2.079173925950804E-3</v>
       </c>
       <c r="J21">
         <f>alkavuus!H20</f>
@@ -13748,16 +13756,16 @@
         <v>3.0955286807944082E-2</v>
       </c>
       <c r="F22">
-        <f>Yhteensä!D22+Yhteensä!E22</f>
-        <v>0.89495728392322205</v>
+        <f>Yhteensä!D22+Yhteensä!E22+Yhteensä!F22+Yhteensä!I22</f>
+        <v>0.97212359924553438</v>
       </c>
       <c r="G22">
         <f>F22+MAX(0,Yhteensä!H22-Yhteensä!J22)</f>
-        <v>0.89495728392322205</v>
+        <v>0.97212359924553438</v>
       </c>
       <c r="I22">
         <f t="shared" si="1"/>
-        <v>2.8652699230863674E-4</v>
+        <v>2.6378273195532182E-4</v>
       </c>
       <c r="J22">
         <f>alkavuus!H21</f>
@@ -13778,12 +13786,12 @@
         <v>3.1211716226751309E-2</v>
       </c>
       <c r="F23">
-        <f>Yhteensä!D23+Yhteensä!E23</f>
-        <v>0.89572892304265517</v>
+        <f>Yhteensä!D23+Yhteensä!E23+Yhteensä!F23+Yhteensä!I23</f>
+        <v>0.97204588484241017</v>
       </c>
       <c r="G23">
         <f>F23+MAX(0,Yhteensä!H23-Yhteensä!J23)</f>
-        <v>0.89572892304265517</v>
+        <v>0.97204588484241017</v>
       </c>
       <c r="I23">
         <f t="shared" si="1"/>
@@ -13808,16 +13816,16 @@
         <v>3.0980725623582766E-2</v>
       </c>
       <c r="F24">
-        <f>Yhteensä!D24+Yhteensä!E24</f>
-        <v>0.90093537414965985</v>
+        <f>Yhteensä!D24+Yhteensä!E24+Yhteensä!F24+Yhteensä!I24</f>
+        <v>0.97270408163265309</v>
       </c>
       <c r="G24">
         <f>F24+MAX(0,Yhteensä!H24-Yhteensä!J24)</f>
-        <v>0.90093537414965985</v>
+        <v>0.97270408163265309</v>
       </c>
       <c r="I24">
         <f t="shared" si="1"/>
-        <v>4.8999311460806317E-3</v>
+        <v>4.5384011270849104E-3</v>
       </c>
       <c r="J24">
         <f>alkavuus!H23</f>
@@ -13838,12 +13846,12 @@
         <v>3.5395246923984491E-2</v>
       </c>
       <c r="F25">
-        <f>Yhteensä!D25+Yhteensä!E25</f>
-        <v>0.89881454014270468</v>
+        <f>Yhteensä!D25+Yhteensä!E25+Yhteensä!F25+Yhteensä!I25</f>
+        <v>0.96822855216585202</v>
       </c>
       <c r="G25">
         <f>F25+MAX(0,Yhteensä!H25-Yhteensä!J25)</f>
-        <v>0.89881454014270468</v>
+        <v>0.96822855216585202</v>
       </c>
       <c r="I25">
         <f t="shared" si="1"/>
@@ -13868,16 +13876,16 @@
         <v>3.5222910303471855E-2</v>
       </c>
       <c r="F26">
-        <f>Yhteensä!D26+Yhteensä!E26</f>
-        <v>0.90298988427158355</v>
+        <f>Yhteensä!D26+Yhteensä!E26+Yhteensä!F26+Yhteensä!I26</f>
+        <v>0.96839185137445005</v>
       </c>
       <c r="G26">
         <f>F26+MAX(0,Yhteensä!H26-Yhteensä!J26)</f>
-        <v>0.90298988427158355</v>
+        <v>0.96839185137445005</v>
       </c>
       <c r="I26">
         <f t="shared" si="1"/>
-        <v>6.7720788526762622E-4</v>
+        <v>6.3147151545904848E-4</v>
       </c>
       <c r="J26">
         <f>alkavuus!H25</f>
@@ -13898,16 +13906,16 @@
         <v>3.5834422173417473E-2</v>
       </c>
       <c r="F27">
-        <f>Yhteensä!D27+Yhteensä!E27</f>
-        <v>0.90381140363070256</v>
+        <f>Yhteensä!D27+Yhteensä!E27+Yhteensä!F27+Yhteensä!I27</f>
+        <v>0.96733479747574447</v>
       </c>
       <c r="G27">
         <f>F27+MAX(0,Yhteensä!H27-Yhteensä!J27)</f>
-        <v>0.90381140363070256</v>
+        <v>0.96733479747574447</v>
       </c>
       <c r="I27">
         <f t="shared" si="1"/>
-        <v>1.155068691479895E-3</v>
+        <v>1.0792171004915183E-3</v>
       </c>
       <c r="J27">
         <f>alkavuus!H26</f>
@@ -13928,16 +13936,16 @@
         <v>3.6878386428753795E-2</v>
       </c>
       <c r="F28">
-        <f>Yhteensä!D28+Yhteensä!E28</f>
-        <v>0.90556296275282966</v>
+        <f>Yhteensä!D28+Yhteensä!E28+Yhteensä!F28+Yhteensä!I28</f>
+        <v>0.96700802814104558</v>
       </c>
       <c r="G28">
         <f>F28+MAX(0,Yhteensä!H28-Yhteensä!J28)</f>
-        <v>0.90556296275282966</v>
+        <v>0.96700802814104558</v>
       </c>
       <c r="I28">
         <f t="shared" si="1"/>
-        <v>3.7964123369364708E-3</v>
+        <v>3.5551828977847346E-3</v>
       </c>
       <c r="J28">
         <f>alkavuus!H27</f>
@@ -13958,16 +13966,16 @@
         <v>4.031627683242138E-2</v>
       </c>
       <c r="F29">
-        <f>Yhteensä!D29+Yhteensä!E29</f>
-        <v>0.90190006614154294</v>
+        <f>Yhteensä!D29+Yhteensä!E29+Yhteensä!F29+Yhteensä!I29</f>
+        <v>0.96377247309241787</v>
       </c>
       <c r="G29">
         <f>F29+MAX(0,Yhteensä!H29-Yhteensä!J29)</f>
-        <v>0.90190006614154294</v>
+        <v>0.96377247309241787</v>
       </c>
       <c r="I29">
         <f t="shared" si="1"/>
-        <v>4.8967094899277364E-3</v>
+        <v>4.5823498140294527E-3</v>
       </c>
       <c r="J29">
         <f>alkavuus!H28</f>
@@ -13988,16 +13996,16 @@
         <v>4.4732619445263126E-2</v>
       </c>
       <c r="F30">
-        <f>Yhteensä!D30+Yhteensä!E30</f>
-        <v>0.89936797982774996</v>
+        <f>Yhteensä!D30+Yhteensä!E30+Yhteensä!F30+Yhteensä!I30</f>
+        <v>0.95949176408946524</v>
       </c>
       <c r="G30">
         <f>F30+MAX(0,Yhteensä!H30-Yhteensä!J30)</f>
-        <v>0.89936797982774996</v>
+        <v>0.95949176408946524</v>
       </c>
       <c r="I30">
         <f t="shared" si="1"/>
-        <v>1.9213266602761674E-3</v>
+        <v>1.8009322661373605E-3</v>
       </c>
       <c r="J30">
         <f>alkavuus!H29</f>
@@ -14018,16 +14026,16 @@
         <v>4.6460599122304901E-2</v>
       </c>
       <c r="F31">
-        <f>Yhteensä!D31+Yhteensä!E31</f>
-        <v>0.89798384532213948</v>
+        <f>Yhteensä!D31+Yhteensä!E31+Yhteensä!F31+Yhteensä!I31</f>
+        <v>0.95786427526553453</v>
       </c>
       <c r="G31">
         <f>F31+MAX(0,Yhteensä!H31-Yhteensä!J31)</f>
-        <v>0.89798384532213948</v>
+        <v>0.95786427526553453</v>
       </c>
       <c r="I31">
         <f t="shared" si="1"/>
-        <v>4.6683757912086045E-3</v>
+        <v>4.3765344972659798E-3</v>
       </c>
       <c r="J31">
         <f>alkavuus!H30</f>
@@ -14048,16 +14056,16 @@
         <v>5.0652725166703189E-2</v>
       </c>
       <c r="F32">
-        <f>Yhteensä!D32+Yhteensä!E32</f>
-        <v>0.89525091569357917</v>
+        <f>Yhteensä!D32+Yhteensä!E32+Yhteensä!F32+Yhteensä!I32</f>
+        <v>0.9547318661365557</v>
       </c>
       <c r="G32">
         <f>F32+MAX(0,Yhteensä!H32-Yhteensä!J32)</f>
-        <v>0.89525091569357917</v>
+        <v>0.9547318661365557</v>
       </c>
       <c r="I32">
         <f t="shared" si="1"/>
-        <v>4.6301256526801258E-3</v>
+        <v>4.3416632222741114E-3</v>
       </c>
       <c r="J32">
         <f>alkavuus!H31</f>
@@ -14078,16 +14086,16 @@
         <v>5.4797849397041402E-2</v>
       </c>
       <c r="F33">
-        <f>Yhteensä!D33+Yhteensä!E33</f>
-        <v>0.89575043285440903</v>
+        <f>Yhteensä!D33+Yhteensä!E33+Yhteensä!F33+Yhteensä!I33</f>
+        <v>0.95091279122748396</v>
       </c>
       <c r="G33">
         <f>F33+MAX(0,Yhteensä!H33-Yhteensä!J33)</f>
-        <v>0.89575043285440903</v>
+        <v>0.95091279122748396</v>
       </c>
       <c r="I33">
         <f t="shared" si="1"/>
-        <v>2.4788988797857692E-3</v>
+        <v>2.3350981972848602E-3</v>
       </c>
       <c r="J33">
         <f>alkavuus!H32</f>
@@ -14108,16 +14116,16 @@
         <v>5.7018324141611815E-2</v>
       </c>
       <c r="F34">
-        <f>Yhteensä!D34+Yhteensä!E34</f>
-        <v>0.89236790606653615</v>
+        <f>Yhteensä!D34+Yhteensä!E34+Yhteensä!F34+Yhteensä!I34</f>
+        <v>0.94938623020814805</v>
       </c>
       <c r="G34">
         <f>F34+MAX(0,Yhteensä!H34-Yhteensä!J34)</f>
-        <v>0.89236790606653615</v>
+        <v>0.94938623020814805</v>
       </c>
       <c r="I34">
         <f t="shared" si="1"/>
-        <v>6.4226598484436312E-3</v>
+        <v>6.0369271619588214E-3</v>
       </c>
       <c r="J34">
         <f>alkavuus!H33</f>
@@ -14138,16 +14146,16 @@
         <v>6.2749699661945074E-2</v>
       </c>
       <c r="F35">
-        <f>Yhteensä!D35+Yhteensä!E35</f>
-        <v>0.8893917805157433</v>
+        <f>Yhteensä!D35+Yhteensä!E35+Yhteensä!F35+Yhteensä!I35</f>
+        <v>0.94415109099544603</v>
       </c>
       <c r="G35">
         <f>F35+MAX(0,Yhteensä!H35-Yhteensä!J35)</f>
-        <v>0.8893917805157433</v>
+        <v>0.94415109099544603</v>
       </c>
       <c r="I35">
         <f t="shared" si="1"/>
-        <v>5.7956053677125198E-3</v>
+        <v>5.4594691742842032E-3</v>
       </c>
       <c r="J35">
         <f>alkavuus!H34</f>
@@ -14168,16 +14176,16 @@
         <v>6.7904263439101512E-2</v>
       </c>
       <c r="F36">
-        <f>Yhteensä!D36+Yhteensä!E36</f>
-        <v>0.88398211754443357</v>
+        <f>Yhteensä!D36+Yhteensä!E36+Yhteensä!F36+Yhteensä!I36</f>
+        <v>0.93953767309998915</v>
       </c>
       <c r="G36">
         <f>F36+MAX(0,Yhteensä!H36-Yhteensä!J36)</f>
-        <v>0.88398211754443357</v>
+        <v>0.93953767309998915</v>
       </c>
       <c r="I36">
         <f t="shared" si="1"/>
-        <v>5.5842597148553679E-3</v>
+        <v>5.2540583193097512E-3</v>
       </c>
       <c r="J36">
         <f>alkavuus!H35</f>
@@ -14198,16 +14206,16 @@
         <v>7.2840649166757435E-2</v>
       </c>
       <c r="F37">
-        <f>Yhteensä!D37+Yhteensä!E37</f>
-        <v>0.88152162073848161</v>
+        <f>Yhteensä!D37+Yhteensä!E37+Yhteensä!F37+Yhteensä!I37</f>
+        <v>0.93513778455505936</v>
       </c>
       <c r="G37">
         <f>F37+MAX(0,Yhteensä!H37-Yhteensä!J37)</f>
-        <v>0.88152162073848161</v>
+        <v>0.93513778455505936</v>
       </c>
       <c r="I37">
         <f t="shared" si="1"/>
-        <v>8.0968782489593029E-3</v>
+        <v>7.6326433974014179E-3</v>
       </c>
       <c r="J37">
         <f>alkavuus!H36</f>
@@ -14228,16 +14236,16 @@
         <v>7.9978222403702198E-2</v>
       </c>
       <c r="F38">
-        <f>Yhteensä!D38+Yhteensä!E38</f>
-        <v>0.87390771743568796</v>
+        <f>Yhteensä!D38+Yhteensä!E38+Yhteensä!F38+Yhteensä!I38</f>
+        <v>0.9282155982033482</v>
       </c>
       <c r="G38">
         <f>F38+MAX(0,Yhteensä!H38-Yhteensä!J38)</f>
-        <v>0.87390771743568796</v>
+        <v>0.9282155982033482</v>
       </c>
       <c r="I38">
         <f t="shared" si="1"/>
-        <v>4.548654360798327E-3</v>
+        <v>4.282522463039143E-3</v>
       </c>
       <c r="J38">
         <f>alkavuus!H37</f>
@@ -14258,16 +14266,16 @@
         <v>8.3953326553551352E-2</v>
       </c>
       <c r="F39">
-        <f>Yhteensä!D39+Yhteensä!E39</f>
-        <v>0.87025638280790019</v>
+        <f>Yhteensä!D39+Yhteensä!E39+Yhteensä!F39+Yhteensä!I39</f>
+        <v>0.9219879034416314</v>
       </c>
       <c r="G39">
         <f>F39+MAX(0,Yhteensä!H39-Yhteensä!J39)</f>
-        <v>0.87025638280790019</v>
+        <v>0.9219879034416314</v>
       </c>
       <c r="I39">
         <f t="shared" si="1"/>
-        <v>1.0179089019395642E-2</v>
+        <v>9.6079538107081801E-3</v>
       </c>
       <c r="J39">
         <f>alkavuus!H38</f>
@@ -14288,16 +14296,16 @@
         <v>9.281174374385022E-2</v>
       </c>
       <c r="F40">
-        <f>Yhteensä!D40+Yhteensä!E40</f>
-        <v>0.86080897800707401</v>
+        <f>Yhteensä!D40+Yhteensä!E40+Yhteensä!F40+Yhteensä!I40</f>
+        <v>0.91359731936281685</v>
       </c>
       <c r="G40">
         <f>F40+MAX(0,Yhteensä!H40-Yhteensä!J40)</f>
-        <v>0.86080897800707401</v>
+        <v>0.91359731936281685</v>
       </c>
       <c r="I40">
         <f t="shared" si="1"/>
-        <v>1.6100660625114054E-2</v>
+        <v>1.5170352325036877E-2</v>
       </c>
       <c r="J40">
         <f>alkavuus!H39</f>
@@ -14318,16 +14326,16 @@
         <v>0.10667133696179339</v>
       </c>
       <c r="F41">
-        <f>Yhteensä!D41+Yhteensä!E41</f>
-        <v>0.84644608503529672</v>
+        <f>Yhteensä!D41+Yhteensä!E41+Yhteensä!F41+Yhteensä!I41</f>
+        <v>0.90079215390418721</v>
       </c>
       <c r="G41">
         <f>F41+MAX(0,Yhteensä!H41-Yhteensä!J41)</f>
-        <v>0.84644608503529672</v>
+        <v>0.90079215390418721</v>
       </c>
       <c r="I41">
         <f t="shared" si="1"/>
-        <v>1.5144888610020666E-2</v>
+        <v>1.4231175989584805E-2</v>
       </c>
       <c r="J41">
         <f>alkavuus!H40</f>
@@ -14348,16 +14356,16 @@
         <v>0.11949066863404104</v>
       </c>
       <c r="F42">
-        <f>Yhteensä!D42+Yhteensä!E42</f>
-        <v>0.83411208569008388</v>
+        <f>Yhteensä!D42+Yhteensä!E42+Yhteensä!F42+Yhteensä!I42</f>
+        <v>0.88810558242478888</v>
       </c>
       <c r="G42">
         <f>F42+MAX(0,Yhteensä!H42-Yhteensä!J42)</f>
-        <v>0.83411208569008388</v>
+        <v>0.88810558242478888</v>
       </c>
       <c r="I42">
         <f t="shared" si="1"/>
-        <v>1.1688052806080037E-2</v>
+        <v>1.0977462924078495E-2</v>
       </c>
       <c r="J42">
         <f>alkavuus!H41</f>
@@ -14378,16 +14386,16 @@
         <v>0.12923981473777629</v>
       </c>
       <c r="F43">
-        <f>Yhteensä!D43+Yhteensä!E43</f>
-        <v>0.82497157278753086</v>
+        <f>Yhteensä!D43+Yhteensä!E43+Yhteensä!F43+Yhteensä!I43</f>
+        <v>0.87708350666999468</v>
       </c>
       <c r="G43">
         <f>F43+MAX(0,Yhteensä!H43-Yhteensä!J43)</f>
-        <v>0.82497157278753086</v>
+        <v>0.87708350666999468</v>
       </c>
       <c r="I43">
         <f t="shared" si="1"/>
-        <v>2.456347351359485E-2</v>
+        <v>2.3104034249340474E-2</v>
       </c>
       <c r="J43">
         <f>alkavuus!H42</f>
@@ -14408,16 +14416,16 @@
         <v>0.14950398211541149</v>
       </c>
       <c r="F44">
-        <f>Yhteensä!D44+Yhteensä!E44</f>
-        <v>0.80681849937124495</v>
+        <f>Yhteensä!D44+Yhteensä!E44+Yhteensä!F44+Yhteensä!I44</f>
+        <v>0.8555540030739136</v>
       </c>
       <c r="G44">
         <f>F44+MAX(0,Yhteensä!H44-Yhteensä!J44)</f>
-        <v>0.80681849937124495</v>
+        <v>0.8555540030739136</v>
       </c>
       <c r="I44">
         <f t="shared" si="1"/>
-        <v>3.6719657191459518E-2</v>
+        <v>3.4627970421734364E-2</v>
       </c>
       <c r="J44">
         <f>alkavuus!H43</f>
@@ -14438,16 +14446,16 @@
         <v>0.1791300808280514</v>
       </c>
       <c r="F45">
-        <f>Yhteensä!D45+Yhteensä!E45</f>
-        <v>0.77568761993370938</v>
+        <f>Yhteensä!D45+Yhteensä!E45+Yhteensä!F45+Yhteensä!I45</f>
+        <v>0.8221201372332384</v>
       </c>
       <c r="G45">
         <f>F45+MAX(0,Yhteensä!H45-Yhteensä!J45)</f>
-        <v>0.77568761993370938</v>
+        <v>0.8221201372332384</v>
       </c>
       <c r="I45">
         <f t="shared" si="1"/>
-        <v>3.6573355127608606E-2</v>
+        <v>3.4507728867218486E-2</v>
       </c>
       <c r="J45">
         <f>alkavuus!H44</f>
@@ -14468,16 +14476,16 @@
         <v>0.20749957961997645</v>
       </c>
       <c r="F46">
-        <f>Yhteensä!D46+Yhteensä!E46</f>
-        <v>0.74177456420604226</v>
+        <f>Yhteensä!D46+Yhteensä!E46+Yhteensä!F46+Yhteensä!I46</f>
+        <v>0.7840087439044896</v>
       </c>
       <c r="G46">
         <f>F46+MAX(0,Yhteensä!H46-Yhteensä!J46)</f>
-        <v>0.7502662406815761</v>
+        <v>0.79250042038002344</v>
       </c>
       <c r="I46">
         <f t="shared" si="1"/>
-        <v>2.6898065954173076E-2</v>
+        <v>2.5464605829944389E-2</v>
       </c>
       <c r="J46">
         <f>alkavuus!H45</f>
@@ -14498,16 +14506,16 @@
         <v>0.22768029044501897</v>
       </c>
       <c r="F47">
-        <f>Yhteensä!D47+Yhteensä!E47</f>
-        <v>0.66403542549095107</v>
+        <f>Yhteensä!D47+Yhteensä!E47+Yhteensä!F47+Yhteensä!I47</f>
+        <v>0.70273392375818244</v>
       </c>
       <c r="G47">
         <f>F47+MAX(0,Yhteensä!H47-Yhteensä!J47)</f>
-        <v>0.7336212112877496</v>
+        <v>0.77231970955498097</v>
       </c>
       <c r="I47">
         <f t="shared" si="1"/>
-        <v>2.7508352422933157E-2</v>
+        <v>2.6129995875245591E-2</v>
       </c>
       <c r="J47">
         <f>alkavuus!H46</f>
@@ -14528,16 +14536,16 @@
         <v>0.2478610012700615</v>
       </c>
       <c r="F48">
-        <f>Yhteensä!D48+Yhteensä!E48</f>
-        <v>0.42843120758315106</v>
+        <f>Yhteensä!D48+Yhteensä!E48+Yhteensä!F48+Yhteensä!I48</f>
+        <v>0.45139940546300972</v>
       </c>
       <c r="G48">
         <f>F48+MAX(0,Yhteensä!H48-Yhteensä!J48)</f>
-        <v>0.83473554321610854</v>
+        <v>0.85770374109596725</v>
       </c>
       <c r="I48">
         <f t="shared" si="1"/>
-        <v>2.4176172907756303E-2</v>
+        <v>2.3528766237227515E-2</v>
       </c>
       <c r="J48">
         <f>alkavuus!H47</f>
@@ -14558,16 +14566,16 @@
         <v>0.26804171209510402</v>
       </c>
       <c r="F49">
-        <f>Yhteensä!D49+Yhteensä!E49</f>
-        <v>0.24171266767725882</v>
+        <f>Yhteensä!D49+Yhteensä!E49+Yhteensä!F49+Yhteensä!I49</f>
+        <v>0.25223808025627092</v>
       </c>
       <c r="G49">
         <f>F49+MAX(0,Yhteensä!H49-Yhteensä!J49)</f>
-        <v>0.85433172210622665</v>
+        <v>0.86485713468523873</v>
       </c>
       <c r="I49">
         <f t="shared" si="1"/>
-        <v>2.3621633497688709E-2</v>
+        <v>2.3334155452608037E-2</v>
       </c>
       <c r="J49">
         <f>alkavuus!H48</f>
@@ -14588,16 +14596,16 @@
         <v>0.28822242292014655</v>
       </c>
       <c r="F50">
-        <f>Yhteensä!D50+Yhteensä!E50</f>
-        <v>0.14805480721879435</v>
+        <f>Yhteensä!D50+Yhteensä!E50+Yhteensä!F50+Yhteensä!I50</f>
+        <v>0.15700588047854927</v>
       </c>
       <c r="G50">
         <f>F50+MAX(0,Yhteensä!H50-Yhteensä!J50)</f>
-        <v>0.98059152399988425</v>
+        <v>0.98954259725963911</v>
       </c>
       <c r="I50">
         <f t="shared" si="1"/>
-        <v>2.0580139977882276E-2</v>
+        <v>2.0393978875623331E-2</v>
       </c>
       <c r="J50">
         <f>alkavuus!H49</f>
@@ -14618,16 +14626,16 @@
         <v>0.30840313374518907</v>
       </c>
       <c r="F51">
-        <f>Yhteensä!D51+Yhteensä!E51</f>
-        <v>0.11498846175493893</v>
+        <f>Yhteensä!D51+Yhteensä!E51+Yhteensä!F51+Yhteensä!I51</f>
+        <v>0.12039173749085384</v>
       </c>
       <c r="G51">
         <f>F51+MAX(0,Yhteensä!H51-Yhteensä!J51)</f>
-        <v>0.99459672426408507</v>
+        <v>1</v>
       </c>
       <c r="I51">
         <f t="shared" si="1"/>
-        <v>2.0290345154690203E-2</v>
+        <v>2.0180710825042525E-2</v>
       </c>
       <c r="J51">
         <f>alkavuus!H50</f>
@@ -14648,16 +14656,16 @@
         <v>0.3285838445702316</v>
       </c>
       <c r="F52">
-        <f>Yhteensä!D52+Yhteensä!E52</f>
-        <v>9.3521375055090353E-2</v>
+        <f>Yhteensä!D52+Yhteensä!E52+Yhteensä!F52+Yhteensä!I52</f>
+        <v>9.9280152783898928E-2</v>
       </c>
       <c r="G52">
         <f>F52+MAX(0,Yhteensä!H52-Yhteensä!J52)</f>
-        <v>0.99424122227119149</v>
+        <v>1</v>
       </c>
       <c r="I52">
         <f t="shared" si="1"/>
-        <v>2.0297600192982129E-2</v>
+        <v>2.0180710825042525E-2</v>
       </c>
       <c r="J52">
         <f>alkavuus!H51</f>
@@ -14678,16 +14686,16 @@
         <v>0.34876455539527412</v>
       </c>
       <c r="F53">
-        <f>Yhteensä!D53+Yhteensä!E53</f>
-        <v>1.1552056093565907E-2</v>
+        <f>Yhteensä!D53+Yhteensä!E53+Yhteensä!F53+Yhteensä!I53</f>
+        <v>1.7672921635679184E-2</v>
       </c>
       <c r="G53">
         <f>F53+MAX(0,Yhteensä!H53-Yhteensä!J53)</f>
-        <v>0.99387913445788667</v>
+        <v>1</v>
       </c>
       <c r="I53">
         <f t="shared" si="1"/>
-        <v>2.0304994969081561E-2</v>
+        <v>2.0180710825042525E-2</v>
       </c>
       <c r="J53">
         <f>alkavuus!H52</f>
@@ -14708,16 +14716,16 @@
         <v>0.36894526622031665</v>
       </c>
       <c r="F54">
-        <f>Yhteensä!D54+Yhteensä!E54</f>
-        <v>1.921501031393936E-3</v>
+        <f>Yhteensä!D54+Yhteensä!E54+Yhteensä!F54+Yhteensä!I54</f>
+        <v>6.951312554748651E-3</v>
       </c>
       <c r="G54">
         <f>F54+MAX(0,Yhteensä!H54-Yhteensä!J54)</f>
-        <v>0.99497018847664531</v>
+        <v>1</v>
       </c>
       <c r="I54">
         <f t="shared" si="1"/>
-        <v>2.0282729129744395E-2</v>
+        <v>2.0180710825042525E-2</v>
       </c>
       <c r="J54">
         <f>alkavuus!H53</f>
@@ -14738,12 +14746,12 @@
         <v>0.38912597704535917</v>
       </c>
       <c r="F55">
-        <f>Yhteensä!D55+Yhteensä!E55</f>
-        <v>1.5240890745392454E-3</v>
+        <f>Yhteensä!D55+Yhteensä!E55+Yhteensä!F55+Yhteensä!I55</f>
+        <v>6.7455053484236967E-3</v>
       </c>
       <c r="G55">
         <f>F55+MAX(0,Yhteensä!H55-Yhteensä!J55)</f>
-        <v>0.99477858372611561</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -14950,10 +14958,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{446C12A0-C80E-B64C-BEF9-F9B58C29F90E}">
-  <dimension ref="A1:O350"/>
+  <dimension ref="A1:R350"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -14966,9 +14974,12 @@
     <col min="6" max="7" width="9.1640625" customWidth="1"/>
     <col min="12" max="12" width="12.1640625" customWidth="1"/>
     <col min="13" max="13" width="8.83203125" style="7"/>
+    <col min="16" max="16" width="8.83203125" style="7"/>
+    <col min="17" max="17" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="19">
+    <row r="1" spans="1:18" ht="19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14976,12 +14987,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:18">
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:18">
       <c r="D4" s="2" t="s">
         <v>81</v>
       </c>
@@ -15012,8 +15023,14 @@
       <c r="O4" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="Q4" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
@@ -15060,8 +15077,15 @@
         <f>E5/(E5+D5)</f>
         <v>0.26200283176728023</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="Q5" s="14">
+        <f>D5+E5</f>
+        <v>0.50665188470066513</v>
+      </c>
+      <c r="R5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
@@ -15105,8 +15129,15 @@
         <f t="shared" ref="O6:O55" si="1">E6/(E6+D6)</f>
         <v>0.16247855484912704</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="Q6" s="14">
+        <f t="shared" ref="Q6:Q55" si="2">D6+E6</f>
+        <v>0.62556818181818186</v>
+      </c>
+      <c r="R6" s="7">
+        <v>1.0143999999999999E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
@@ -15150,8 +15181,15 @@
         <f t="shared" si="1"/>
         <v>0.14160216534498316</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="Q7" s="14">
+        <f t="shared" si="2"/>
+        <v>0.64063640788513021</v>
+      </c>
+      <c r="R7" s="7">
+        <v>3.6518599999999998E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
@@ -15195,8 +15233,15 @@
         <f t="shared" si="1"/>
         <v>0.13270288102045308</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="Q8" s="14">
+        <f t="shared" si="2"/>
+        <v>0.66710680751173701</v>
+      </c>
+      <c r="R8" s="7">
+        <v>4.4633800000000003E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
@@ -15240,8 +15285,15 @@
         <f t="shared" si="1"/>
         <v>0.12428412344893414</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="Q9" s="14">
+        <f t="shared" si="2"/>
+        <v>0.71433847552487284</v>
+      </c>
+      <c r="R9" s="7">
+        <v>3.0432100000000002E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
@@ -15285,8 +15337,15 @@
         <f t="shared" si="1"/>
         <v>0.11887204950531738</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="Q10" s="14">
+        <f t="shared" si="2"/>
+        <v>0.76208629842991082</v>
+      </c>
+      <c r="R10" s="7">
+        <v>2.2316900000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
@@ -15330,8 +15389,15 @@
         <f t="shared" si="1"/>
         <v>0.11093454152015149</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="Q11" s="14">
+        <f t="shared" si="2"/>
+        <v>0.79859592277575264</v>
+      </c>
+      <c r="R11" s="7">
+        <v>1.8259299999999999E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
@@ -15375,8 +15441,15 @@
         <f t="shared" si="1"/>
         <v>0.10784574468085105</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="Q12" s="14">
+        <f t="shared" si="2"/>
+        <v>0.82179056361500424</v>
+      </c>
+      <c r="R12" s="7">
+        <v>1.8259299999999999E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
@@ -15420,8 +15493,15 @@
         <f t="shared" si="1"/>
         <v>0.10784595258606937</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="Q13" s="14">
+        <f t="shared" si="2"/>
+        <v>0.84272653939230979</v>
+      </c>
+      <c r="R13" s="7">
+        <v>1.62305E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
@@ -15465,8 +15545,15 @@
         <f t="shared" si="1"/>
         <v>0.103383097328122</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="Q14" s="14">
+        <f t="shared" si="2"/>
+        <v>0.85764528094518477</v>
+      </c>
+      <c r="R14" s="7">
+        <v>1.21729E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
@@ -15510,8 +15597,15 @@
         <f t="shared" si="1"/>
         <v>0.10328966151698761</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="Q15" s="14">
+        <f t="shared" si="2"/>
+        <v>0.86362017478973174</v>
+      </c>
+      <c r="R15" s="7">
+        <v>1.8259299999999999E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
@@ -15555,8 +15649,15 @@
         <f t="shared" si="1"/>
         <v>9.5134851023290945E-2</v>
       </c>
-    </row>
-    <row r="17" spans="3:15">
+      <c r="Q16" s="14">
+        <f t="shared" si="2"/>
+        <v>0.87118653769103094</v>
+      </c>
+      <c r="R16" s="7">
+        <v>1.62305E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:18">
       <c r="C17" s="2" t="s">
         <v>16</v>
       </c>
@@ -15600,8 +15701,15 @@
         <f t="shared" si="1"/>
         <v>9.6587641382835959E-2</v>
       </c>
-    </row>
-    <row r="18" spans="3:15">
+      <c r="Q17" s="14">
+        <f t="shared" si="2"/>
+        <v>0.88340060402495135</v>
+      </c>
+      <c r="R17" s="7">
+        <v>1.0143999999999999E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18">
       <c r="C18" s="2" t="s">
         <v>17</v>
       </c>
@@ -15645,8 +15753,15 @@
         <f t="shared" si="1"/>
         <v>9.5664847432398906E-2</v>
       </c>
-    </row>
-    <row r="19" spans="3:15">
+      <c r="Q18" s="14">
+        <f t="shared" si="2"/>
+        <v>0.88411240575736805</v>
+      </c>
+      <c r="R18" s="7">
+        <v>1.62305E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18">
       <c r="C19" s="2" t="s">
         <v>18</v>
       </c>
@@ -15690,8 +15805,15 @@
         <f t="shared" si="1"/>
         <v>9.0563991323210413E-2</v>
       </c>
-    </row>
-    <row r="20" spans="3:15">
+      <c r="Q19" s="14">
+        <f t="shared" si="2"/>
+        <v>0.88547418967587033</v>
+      </c>
+      <c r="R19" s="7">
+        <v>2.2316900000000001E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="3:18">
       <c r="C20" s="2" t="s">
         <v>19</v>
       </c>
@@ -15735,8 +15857,15 @@
         <f t="shared" si="1"/>
         <v>9.0430537583813669E-2</v>
       </c>
-    </row>
-    <row r="21" spans="3:15">
+      <c r="Q20" s="14">
+        <f t="shared" si="2"/>
+        <v>0.89270431335486078</v>
+      </c>
+      <c r="R20" s="7">
+        <v>2.43457E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18">
       <c r="C21" s="2" t="s">
         <v>20</v>
       </c>
@@ -15780,8 +15909,15 @@
         <f t="shared" si="1"/>
         <v>8.9214184731385496E-2</v>
       </c>
-    </row>
-    <row r="22" spans="3:15">
+      <c r="Q21" s="14">
+        <f t="shared" si="2"/>
+        <v>0.8937559229230283</v>
+      </c>
+      <c r="R21" s="7">
+        <v>2.8403299999999999E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18">
       <c r="C22" s="2" t="s">
         <v>21</v>
       </c>
@@ -15825,8 +15961,15 @@
         <f t="shared" si="1"/>
         <v>8.405392840539283E-2</v>
       </c>
-    </row>
-    <row r="23" spans="3:15">
+      <c r="Q22" s="14">
+        <f t="shared" si="2"/>
+        <v>0.89495728392322205</v>
+      </c>
+      <c r="R22" s="7">
+        <v>1.62305E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18">
       <c r="C23" s="2" t="s">
         <v>22</v>
       </c>
@@ -15870,8 +16013,15 @@
         <f t="shared" si="1"/>
         <v>8.5636131920052205E-2</v>
       </c>
-    </row>
-    <row r="24" spans="3:15">
+      <c r="Q23" s="14">
+        <f t="shared" si="2"/>
+        <v>0.89572892304265517</v>
+      </c>
+      <c r="R23" s="7">
+        <v>1.0143999999999999E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18">
       <c r="C24" s="2" t="s">
         <v>23</v>
       </c>
@@ -15915,8 +16065,15 @@
         <f t="shared" si="1"/>
         <v>8.308950762938494E-2</v>
       </c>
-    </row>
-    <row r="25" spans="3:15">
+      <c r="Q24" s="14">
+        <f t="shared" si="2"/>
+        <v>0.90093537414965985</v>
+      </c>
+      <c r="R24" s="7">
+        <v>2.2316900000000001E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18">
       <c r="C25" s="2" t="s">
         <v>24</v>
       </c>
@@ -15960,8 +16117,15 @@
         <f t="shared" si="1"/>
         <v>8.2822852856607079E-2</v>
       </c>
-    </row>
-    <row r="26" spans="3:15">
+      <c r="Q25" s="14">
+        <f t="shared" si="2"/>
+        <v>0.89881454014270468</v>
+      </c>
+      <c r="R25" s="7">
+        <v>1.62305E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18">
       <c r="C26" s="2" t="s">
         <v>25</v>
       </c>
@@ -16005,8 +16169,15 @@
         <f t="shared" si="1"/>
         <v>7.9720713731574855E-2</v>
       </c>
-    </row>
-    <row r="27" spans="3:15">
+      <c r="Q26" s="14">
+        <f t="shared" si="2"/>
+        <v>0.90298988427158355</v>
+      </c>
+      <c r="R26" s="7">
+        <v>8.1152000000000004E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18">
       <c r="C27" s="2" t="s">
         <v>26</v>
       </c>
@@ -16050,8 +16221,15 @@
         <f t="shared" si="1"/>
         <v>8.1111008581710803E-2</v>
       </c>
-    </row>
-    <row r="28" spans="3:15">
+      <c r="Q27" s="14">
+        <f t="shared" si="2"/>
+        <v>0.90381140363070256</v>
+      </c>
+      <c r="R27" s="7">
+        <v>1.0143999999999999E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18">
       <c r="C28" s="2" t="s">
         <v>27</v>
       </c>
@@ -16095,8 +16273,15 @@
         <f t="shared" si="1"/>
         <v>8.2075057953762312E-2</v>
       </c>
-    </row>
-    <row r="29" spans="3:15">
+      <c r="Q28" s="14">
+        <f t="shared" si="2"/>
+        <v>0.90556296275282966</v>
+      </c>
+      <c r="R28" s="7">
+        <v>4.0576000000000002E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18">
       <c r="C29" s="2" t="s">
         <v>28</v>
       </c>
@@ -16140,8 +16325,15 @@
         <f t="shared" si="1"/>
         <v>8.1536051201706719E-2</v>
       </c>
-    </row>
-    <row r="30" spans="3:15">
+      <c r="Q29" s="14">
+        <f t="shared" si="2"/>
+        <v>0.90190006614154294</v>
+      </c>
+      <c r="R29" s="7">
+        <v>6.0864000000000003E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18">
       <c r="C30" s="2" t="s">
         <v>29</v>
       </c>
@@ -16185,8 +16377,15 @@
         <f t="shared" si="1"/>
         <v>8.7168657151179718E-2</v>
       </c>
-    </row>
-    <row r="31" spans="3:15">
+      <c r="Q30" s="14">
+        <f t="shared" si="2"/>
+        <v>0.89936797982774996</v>
+      </c>
+      <c r="R30" s="7">
+        <v>6.0864000000000003E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18">
       <c r="C31" s="2" t="s">
         <v>30</v>
       </c>
@@ -16230,8 +16429,15 @@
         <f t="shared" si="1"/>
         <v>8.5062681493023581E-2</v>
       </c>
-    </row>
-    <row r="32" spans="3:15">
+      <c r="Q31" s="14">
+        <f t="shared" si="2"/>
+        <v>0.89798384532213948</v>
+      </c>
+      <c r="R31" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18">
       <c r="C32" s="2" t="s">
         <v>31</v>
       </c>
@@ -16275,8 +16481,15 @@
         <f t="shared" si="1"/>
         <v>9.2177501136482848E-2</v>
       </c>
-    </row>
-    <row r="33" spans="3:15">
+      <c r="Q32" s="14">
+        <f t="shared" si="2"/>
+        <v>0.89525091569357917</v>
+      </c>
+      <c r="R32" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:18">
       <c r="C33" s="2" t="s">
         <v>32</v>
       </c>
@@ -16320,8 +16533,15 @@
         <f t="shared" si="1"/>
         <v>9.461155006951745E-2</v>
       </c>
-    </row>
-    <row r="34" spans="3:15">
+      <c r="Q33" s="14">
+        <f t="shared" si="2"/>
+        <v>0.89575043285440903</v>
+      </c>
+      <c r="R33" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:18">
       <c r="C34" s="2" t="s">
         <v>33</v>
       </c>
@@ -16365,8 +16585,15 @@
         <f t="shared" si="1"/>
         <v>0.10007974481658692</v>
       </c>
-    </row>
-    <row r="35" spans="3:15">
+      <c r="Q34" s="14">
+        <f t="shared" si="2"/>
+        <v>0.89236790606653615</v>
+      </c>
+      <c r="R34" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:18">
       <c r="C35" s="2" t="s">
         <v>34</v>
       </c>
@@ -16410,8 +16637,15 @@
         <f t="shared" si="1"/>
         <v>9.7348746623107371E-2</v>
       </c>
-    </row>
-    <row r="36" spans="3:15">
+      <c r="Q35" s="14">
+        <f t="shared" si="2"/>
+        <v>0.8893917805157433</v>
+      </c>
+      <c r="R35" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="3:18">
       <c r="C36" s="2" t="s">
         <v>35</v>
       </c>
@@ -16455,8 +16689,15 @@
         <f t="shared" si="1"/>
         <v>9.7169113112125324E-2</v>
       </c>
-    </row>
-    <row r="37" spans="3:15">
+      <c r="Q36" s="14">
+        <f t="shared" si="2"/>
+        <v>0.88398211754443357</v>
+      </c>
+      <c r="R36" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:18">
       <c r="C37" s="2" t="s">
         <v>36</v>
       </c>
@@ -16500,8 +16741,15 @@
         <f t="shared" si="1"/>
         <v>0.104099094924783</v>
       </c>
-    </row>
-    <row r="38" spans="3:15">
+      <c r="Q37" s="14">
+        <f t="shared" si="2"/>
+        <v>0.88152162073848161</v>
+      </c>
+      <c r="R37" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="3:18">
       <c r="C38" s="2" t="s">
         <v>37</v>
       </c>
@@ -16545,8 +16793,15 @@
         <f t="shared" si="1"/>
         <v>0.10422701928168708</v>
       </c>
-    </row>
-    <row r="39" spans="3:15">
+      <c r="Q38" s="14">
+        <f t="shared" si="2"/>
+        <v>0.87390771743568796</v>
+      </c>
+      <c r="R38" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="3:18">
       <c r="C39" s="2" t="s">
         <v>38</v>
       </c>
@@ -16590,8 +16845,15 @@
         <f t="shared" si="1"/>
         <v>0.1077557045328741</v>
       </c>
-    </row>
-    <row r="40" spans="3:15">
+      <c r="Q39" s="14">
+        <f t="shared" si="2"/>
+        <v>0.87025638280790019</v>
+      </c>
+      <c r="R39" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="3:18">
       <c r="C40" s="2" t="s">
         <v>39</v>
       </c>
@@ -16635,8 +16897,15 @@
         <f t="shared" si="1"/>
         <v>0.11189718557879451</v>
       </c>
-    </row>
-    <row r="41" spans="3:15">
+      <c r="Q40" s="14">
+        <f t="shared" si="2"/>
+        <v>0.86080897800707401</v>
+      </c>
+      <c r="R40" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="3:18">
       <c r="C41" s="2" t="s">
         <v>40</v>
       </c>
@@ -16680,8 +16949,15 @@
         <f t="shared" si="1"/>
         <v>0.11886041699824923</v>
       </c>
-    </row>
-    <row r="42" spans="3:15">
+      <c r="Q41" s="14">
+        <f t="shared" si="2"/>
+        <v>0.84644608503529672</v>
+      </c>
+      <c r="R41" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="3:18">
       <c r="C42" s="2" t="s">
         <v>41</v>
       </c>
@@ -16725,8 +17001,15 @@
         <f t="shared" si="1"/>
         <v>0.11914433597588941</v>
       </c>
-    </row>
-    <row r="43" spans="3:15">
+      <c r="Q42" s="14">
+        <f t="shared" si="2"/>
+        <v>0.83411208569008388</v>
+      </c>
+      <c r="R42" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:18">
       <c r="C43" s="2" t="s">
         <v>42</v>
       </c>
@@ -16770,8 +17053,15 @@
         <f t="shared" si="1"/>
         <v>0.12374773078733275</v>
       </c>
-    </row>
-    <row r="44" spans="3:15">
+      <c r="Q43" s="14">
+        <f t="shared" si="2"/>
+        <v>0.82497157278753086</v>
+      </c>
+      <c r="R43" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="3:18">
       <c r="C44" s="2" t="s">
         <v>43</v>
       </c>
@@ -16815,8 +17105,15 @@
         <f t="shared" si="1"/>
         <v>0.13681075090052647</v>
       </c>
-    </row>
-    <row r="45" spans="3:15">
+      <c r="Q44" s="14">
+        <f t="shared" si="2"/>
+        <v>0.80681849937124495</v>
+      </c>
+      <c r="R44" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="3:18">
       <c r="C45" s="2" t="s">
         <v>44</v>
       </c>
@@ -16860,8 +17157,15 @@
         <f t="shared" si="1"/>
         <v>0.1548034034259155</v>
       </c>
-    </row>
-    <row r="46" spans="3:15">
+      <c r="Q45" s="14">
+        <f t="shared" si="2"/>
+        <v>0.77568761993370938</v>
+      </c>
+      <c r="R45" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="3:18">
       <c r="C46" s="2" t="s">
         <v>45</v>
       </c>
@@ -16905,8 +17209,15 @@
         <f t="shared" si="1"/>
         <v>0.19710593924739306</v>
       </c>
-    </row>
-    <row r="47" spans="3:15">
+      <c r="Q46" s="14">
+        <f t="shared" si="2"/>
+        <v>0.74177456420604226</v>
+      </c>
+      <c r="R46" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="3:18">
       <c r="C47" s="2" t="s">
         <v>46</v>
       </c>
@@ -16950,8 +17261,15 @@
         <f t="shared" si="1"/>
         <v>0.1877148655925113</v>
       </c>
-    </row>
-    <row r="48" spans="3:15">
+      <c r="Q47" s="14">
+        <f t="shared" si="2"/>
+        <v>0.66403542549095107</v>
+      </c>
+      <c r="R47" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="3:18">
       <c r="C48" s="2" t="s">
         <v>47</v>
       </c>
@@ -16995,8 +17313,15 @@
         <f t="shared" si="1"/>
         <v>0.15448059173921583</v>
       </c>
-    </row>
-    <row r="49" spans="1:15">
+      <c r="Q48" s="14">
+        <f t="shared" si="2"/>
+        <v>0.42843120758315106</v>
+      </c>
+      <c r="R48" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
       <c r="C49" s="2" t="s">
         <v>48</v>
       </c>
@@ -17040,8 +17365,15 @@
         <f t="shared" si="1"/>
         <v>0.11608093716719914</v>
       </c>
-    </row>
-    <row r="50" spans="1:15">
+      <c r="Q49" s="14">
+        <f t="shared" si="2"/>
+        <v>0.24171266767725882</v>
+      </c>
+      <c r="R49" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
       <c r="C50" s="2" t="s">
         <v>49</v>
       </c>
@@ -17084,8 +17416,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:15">
+      <c r="Q50" s="14">
+        <f t="shared" si="2"/>
+        <v>0.14805480721879435</v>
+      </c>
+      <c r="R50" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
       <c r="C51" s="2" t="s">
         <v>50</v>
       </c>
@@ -17128,8 +17467,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:15">
+      <c r="Q51" s="14">
+        <f t="shared" si="2"/>
+        <v>0.11498846175493893</v>
+      </c>
+      <c r="R51" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
       <c r="C52" s="2" t="s">
         <v>51</v>
       </c>
@@ -17172,8 +17518,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:15">
+      <c r="Q52" s="14">
+        <f t="shared" si="2"/>
+        <v>9.3521375055090353E-2</v>
+      </c>
+      <c r="R52" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
       <c r="C53" s="2" t="s">
         <v>52</v>
       </c>
@@ -17216,8 +17569,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:15">
+      <c r="Q53" s="14">
+        <f t="shared" si="2"/>
+        <v>1.1552056093565907E-2</v>
+      </c>
+      <c r="R53" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
       <c r="C54" s="2" t="s">
         <v>53</v>
       </c>
@@ -17260,8 +17620,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:15">
+      <c r="Q54" s="14">
+        <f t="shared" si="2"/>
+        <v>1.921501031393936E-3</v>
+      </c>
+      <c r="R54" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
       <c r="C55" s="2" t="s">
         <v>54</v>
       </c>
@@ -17304,50 +17671,57 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:15">
+      <c r="Q55" s="14">
+        <f t="shared" si="2"/>
+        <v>1.5240890745392454E-3</v>
+      </c>
+      <c r="R55" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:18">
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:18">
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:18">
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:18">
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:18">
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:18">
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:18">
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:18">
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="3"/>

--- a/intensities/tilastokeskus data väestörakenne 2018 miehet.xlsx
+++ b/intensities/tilastokeskus data väestörakenne 2018 miehet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antti/Github/econogym/intensities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA84F549-B3ED-3B42-AA5F-B9A844DDE128}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD02762B-8C57-B142-8805-BFAB0CE26C9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2120" yWindow="500" windowWidth="26200" windowHeight="14600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -415,7 +415,7 @@
     <t>ei-opisk</t>
   </si>
   <si>
-    <t>vanh.vapaat</t>
+    <t>vanh.vapaat mukana työllisissä</t>
   </si>
 </sst>
 </file>
@@ -493,7 +493,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
@@ -511,6 +511,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -14958,7 +14959,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{446C12A0-C80E-B64C-BEF9-F9B58C29F90E}">
-  <dimension ref="A1:R350"/>
+  <dimension ref="A1:S350"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q5" sqref="Q5"/>
@@ -14979,7 +14980,7 @@
     <col min="18" max="18" width="8.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="19">
+    <row r="1" spans="1:19" ht="19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14987,12 +14988,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="D4" s="2" t="s">
         <v>81</v>
       </c>
@@ -15030,7 +15031,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
@@ -15078,14 +15079,15 @@
         <v>0.26200283176728023</v>
       </c>
       <c r="Q5" s="14">
-        <f>D5+E5</f>
-        <v>0.50665188470066513</v>
-      </c>
-      <c r="R5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <f>D5+E5-R5</f>
+        <v>0.50355406509066514</v>
+      </c>
+      <c r="R5" s="15">
+        <v>3.0978196100000001E-3</v>
+      </c>
+      <c r="S5" s="15"/>
+    </row>
+    <row r="6" spans="1:19">
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
@@ -15130,14 +15132,15 @@
         <v>0.16247855484912704</v>
       </c>
       <c r="Q6" s="14">
-        <f t="shared" ref="Q6:Q55" si="2">D6+E6</f>
-        <v>0.62556818181818186</v>
-      </c>
-      <c r="R6" s="7">
-        <v>1.0143999999999999E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <f t="shared" ref="Q6:Q55" si="2">D6+E6-R6</f>
+        <v>0.62155690257818186</v>
+      </c>
+      <c r="R6" s="15">
+        <v>4.0112792400000003E-3</v>
+      </c>
+      <c r="S6" s="15"/>
+    </row>
+    <row r="7" spans="1:19">
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
@@ -15183,13 +15186,14 @@
       </c>
       <c r="Q7" s="14">
         <f t="shared" si="2"/>
-        <v>0.64063640788513021</v>
-      </c>
-      <c r="R7" s="7">
-        <v>3.6518599999999998E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>0.63646626610513024</v>
+      </c>
+      <c r="R7" s="15">
+        <v>4.17014178E-3</v>
+      </c>
+      <c r="S7" s="15"/>
+    </row>
+    <row r="8" spans="1:19">
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
@@ -15235,13 +15239,14 @@
       </c>
       <c r="Q8" s="14">
         <f t="shared" si="2"/>
-        <v>0.66710680751173701</v>
-      </c>
-      <c r="R8" s="7">
-        <v>4.4633800000000003E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>0.66095088392173706</v>
+      </c>
+      <c r="R8" s="15">
+        <v>6.15592359E-3</v>
+      </c>
+      <c r="S8" s="15"/>
+    </row>
+    <row r="9" spans="1:19">
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
@@ -15287,13 +15292,14 @@
       </c>
       <c r="Q9" s="14">
         <f t="shared" si="2"/>
-        <v>0.71433847552487284</v>
-      </c>
-      <c r="R9" s="7">
-        <v>3.0432100000000002E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>0.70683222031487281</v>
+      </c>
+      <c r="R9" s="15">
+        <v>7.5062552099999999E-3</v>
+      </c>
+      <c r="S9" s="15"/>
+    </row>
+    <row r="10" spans="1:19">
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
@@ -15339,13 +15345,14 @@
       </c>
       <c r="Q10" s="14">
         <f t="shared" si="2"/>
-        <v>0.76208629842991082</v>
-      </c>
-      <c r="R10" s="7">
-        <v>2.2316900000000001E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>0.75505663084991081</v>
+      </c>
+      <c r="R10" s="15">
+        <v>7.0296675800000001E-3</v>
+      </c>
+      <c r="S10" s="15"/>
+    </row>
+    <row r="11" spans="1:19">
       <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
@@ -15391,13 +15398,14 @@
       </c>
       <c r="Q11" s="14">
         <f t="shared" si="2"/>
-        <v>0.79859592277575264</v>
-      </c>
-      <c r="R11" s="7">
-        <v>1.8259299999999999E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>0.78977905157575268</v>
+      </c>
+      <c r="R11" s="15">
+        <v>8.8168711999999996E-3</v>
+      </c>
+      <c r="S11" s="15"/>
+    </row>
+    <row r="12" spans="1:19">
       <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
@@ -15443,13 +15451,14 @@
       </c>
       <c r="Q12" s="14">
         <f t="shared" si="2"/>
-        <v>0.82179056361500424</v>
-      </c>
-      <c r="R12" s="7">
-        <v>1.8259299999999999E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>0.81122620441500426</v>
+      </c>
+      <c r="R12" s="15">
+        <v>1.05643592E-2</v>
+      </c>
+      <c r="S12" s="15"/>
+    </row>
+    <row r="13" spans="1:19">
       <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
@@ -15495,13 +15504,14 @@
       </c>
       <c r="Q13" s="14">
         <f t="shared" si="2"/>
-        <v>0.84272653939230979</v>
-      </c>
-      <c r="R13" s="7">
-        <v>1.62305E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>0.8309707110923098</v>
+      </c>
+      <c r="R13" s="15">
+        <v>1.17558283E-2</v>
+      </c>
+      <c r="S13" s="15"/>
+    </row>
+    <row r="14" spans="1:19">
       <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
@@ -15547,13 +15557,14 @@
       </c>
       <c r="Q14" s="14">
         <f t="shared" si="2"/>
-        <v>0.85764528094518477</v>
-      </c>
-      <c r="R14" s="7">
-        <v>1.21729E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>0.84584973704518474</v>
+      </c>
+      <c r="R14" s="15">
+        <v>1.17955439E-2</v>
+      </c>
+      <c r="S14" s="15"/>
+    </row>
+    <row r="15" spans="1:19">
       <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
@@ -15599,13 +15610,14 @@
       </c>
       <c r="Q15" s="14">
         <f t="shared" si="2"/>
-        <v>0.86362017478973174</v>
-      </c>
-      <c r="R15" s="7">
-        <v>1.8259299999999999E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>0.85174519958973172</v>
+      </c>
+      <c r="R15" s="15">
+        <v>1.18749752E-2</v>
+      </c>
+      <c r="S15" s="15"/>
+    </row>
+    <row r="16" spans="1:19">
       <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
@@ -15651,13 +15663,14 @@
       </c>
       <c r="Q16" s="14">
         <f t="shared" si="2"/>
-        <v>0.87118653769103094</v>
-      </c>
-      <c r="R16" s="7">
-        <v>1.62305E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="3:18">
+        <v>0.8572066337910309</v>
+      </c>
+      <c r="R16" s="15">
+        <v>1.39799039E-2</v>
+      </c>
+      <c r="S16" s="15"/>
+    </row>
+    <row r="17" spans="3:19">
       <c r="C17" s="2" t="s">
         <v>16</v>
       </c>
@@ -15703,13 +15716,14 @@
       </c>
       <c r="Q17" s="14">
         <f t="shared" si="2"/>
-        <v>0.88340060402495135</v>
-      </c>
-      <c r="R17" s="7">
-        <v>1.0143999999999999E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18">
+        <v>0.87160506012495131</v>
+      </c>
+      <c r="R17" s="15">
+        <v>1.17955439E-2</v>
+      </c>
+      <c r="S17" s="15"/>
+    </row>
+    <row r="18" spans="3:19">
       <c r="C18" s="2" t="s">
         <v>17</v>
       </c>
@@ -15755,13 +15769,14 @@
       </c>
       <c r="Q18" s="14">
         <f t="shared" si="2"/>
-        <v>0.88411240575736805</v>
-      </c>
-      <c r="R18" s="7">
-        <v>1.62305E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18">
+        <v>0.872396293157368</v>
+      </c>
+      <c r="R18" s="15">
+        <v>1.17161126E-2</v>
+      </c>
+      <c r="S18" s="15"/>
+    </row>
+    <row r="19" spans="3:19">
       <c r="C19" s="2" t="s">
         <v>18</v>
       </c>
@@ -15807,13 +15822,14 @@
       </c>
       <c r="Q19" s="14">
         <f t="shared" si="2"/>
-        <v>0.88547418967587033</v>
-      </c>
-      <c r="R19" s="7">
-        <v>2.2316900000000001E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="3:18">
+        <v>0.87526727117587033</v>
+      </c>
+      <c r="R19" s="15">
+        <v>1.02069185E-2</v>
+      </c>
+      <c r="S19" s="15"/>
+    </row>
+    <row r="20" spans="3:19">
       <c r="C20" s="2" t="s">
         <v>19</v>
       </c>
@@ -15859,13 +15875,14 @@
       </c>
       <c r="Q20" s="14">
         <f t="shared" si="2"/>
-        <v>0.89270431335486078</v>
-      </c>
-      <c r="R20" s="7">
-        <v>2.43457E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18">
+        <v>0.8842448828748608</v>
+      </c>
+      <c r="R20" s="15">
+        <v>8.4594304800000002E-3</v>
+      </c>
+      <c r="S20" s="15"/>
+    </row>
+    <row r="21" spans="3:19">
       <c r="C21" s="2" t="s">
         <v>20</v>
       </c>
@@ -15911,13 +15928,14 @@
       </c>
       <c r="Q21" s="14">
         <f t="shared" si="2"/>
-        <v>0.8937559229230283</v>
-      </c>
-      <c r="R21" s="7">
-        <v>2.8403299999999999E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18">
+        <v>0.88620995207302833</v>
+      </c>
+      <c r="R21" s="15">
+        <v>7.54597085E-3</v>
+      </c>
+      <c r="S21" s="15"/>
+    </row>
+    <row r="22" spans="3:19">
       <c r="C22" s="2" t="s">
         <v>21</v>
       </c>
@@ -15963,13 +15981,14 @@
       </c>
       <c r="Q22" s="14">
         <f t="shared" si="2"/>
-        <v>0.89495728392322205</v>
-      </c>
-      <c r="R22" s="7">
-        <v>1.62305E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18">
+        <v>0.88776875380322207</v>
+      </c>
+      <c r="R22" s="15">
+        <v>7.1885301199999998E-3</v>
+      </c>
+      <c r="S22" s="15"/>
+    </row>
+    <row r="23" spans="3:19">
       <c r="C23" s="2" t="s">
         <v>22</v>
       </c>
@@ -16015,13 +16034,14 @@
       </c>
       <c r="Q23" s="14">
         <f t="shared" si="2"/>
-        <v>0.89572892304265517</v>
-      </c>
-      <c r="R23" s="7">
-        <v>1.0143999999999999E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18">
+        <v>0.89112190926265522</v>
+      </c>
+      <c r="R23" s="15">
+        <v>4.6070137800000004E-3</v>
+      </c>
+      <c r="S23" s="15"/>
+    </row>
+    <row r="24" spans="3:19">
       <c r="C24" s="2" t="s">
         <v>23</v>
       </c>
@@ -16067,13 +16087,14 @@
       </c>
       <c r="Q24" s="14">
         <f t="shared" si="2"/>
-        <v>0.90093537414965985</v>
-      </c>
-      <c r="R24" s="7">
-        <v>2.2316900000000001E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18">
+        <v>0.89664608545965985</v>
+      </c>
+      <c r="R24" s="15">
+        <v>4.2892886900000003E-3</v>
+      </c>
+      <c r="S24" s="15"/>
+    </row>
+    <row r="25" spans="3:19">
       <c r="C25" s="2" t="s">
         <v>24</v>
       </c>
@@ -16119,13 +16140,14 @@
       </c>
       <c r="Q25" s="14">
         <f t="shared" si="2"/>
-        <v>0.89881454014270468</v>
-      </c>
-      <c r="R25" s="7">
-        <v>1.62305E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="3:18">
+        <v>0.89587558307270465</v>
+      </c>
+      <c r="R25" s="15">
+        <v>2.93895707E-3</v>
+      </c>
+      <c r="S25" s="15"/>
+    </row>
+    <row r="26" spans="3:19">
       <c r="C26" s="2" t="s">
         <v>25</v>
       </c>
@@ -16171,13 +16193,14 @@
       </c>
       <c r="Q26" s="14">
         <f t="shared" si="2"/>
-        <v>0.90298988427158355</v>
-      </c>
-      <c r="R26" s="7">
-        <v>8.1152000000000004E-4</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18">
+        <v>0.90100410247158358</v>
+      </c>
+      <c r="R26" s="15">
+        <v>1.9857818000000001E-3</v>
+      </c>
+      <c r="S26" s="15"/>
+    </row>
+    <row r="27" spans="3:19">
       <c r="C27" s="2" t="s">
         <v>26</v>
       </c>
@@ -16223,13 +16246,14 @@
       </c>
       <c r="Q27" s="14">
         <f t="shared" si="2"/>
-        <v>0.90381140363070256</v>
-      </c>
-      <c r="R27" s="7">
-        <v>1.0143999999999999E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18">
+        <v>0.90226249382070256</v>
+      </c>
+      <c r="R27" s="15">
+        <v>1.54890981E-3</v>
+      </c>
+      <c r="S27" s="15"/>
+    </row>
+    <row r="28" spans="3:19">
       <c r="C28" s="2" t="s">
         <v>27</v>
       </c>
@@ -16275,13 +16299,14 @@
       </c>
       <c r="Q28" s="14">
         <f t="shared" si="2"/>
-        <v>0.90556296275282966</v>
-      </c>
-      <c r="R28" s="7">
-        <v>4.0576000000000002E-4</v>
-      </c>
-    </row>
-    <row r="29" spans="3:18">
+        <v>0.90472893439582969</v>
+      </c>
+      <c r="R28" s="15">
+        <v>8.3402835699999999E-4</v>
+      </c>
+      <c r="S28" s="15"/>
+    </row>
+    <row r="29" spans="3:19">
       <c r="C29" s="2" t="s">
         <v>28</v>
       </c>
@@ -16327,13 +16352,14 @@
       </c>
       <c r="Q29" s="14">
         <f t="shared" si="2"/>
-        <v>0.90190006614154294</v>
-      </c>
-      <c r="R29" s="7">
-        <v>6.0864000000000003E-4</v>
-      </c>
-    </row>
-    <row r="30" spans="3:18">
+        <v>0.90138376287254296</v>
+      </c>
+      <c r="R29" s="15">
+        <v>5.1630326899999998E-4</v>
+      </c>
+      <c r="S29" s="15"/>
+    </row>
+    <row r="30" spans="3:19">
       <c r="C30" s="2" t="s">
         <v>29</v>
       </c>
@@ -16379,13 +16405,14 @@
       </c>
       <c r="Q30" s="14">
         <f t="shared" si="2"/>
-        <v>0.89936797982774996</v>
-      </c>
-      <c r="R30" s="7">
-        <v>6.0864000000000003E-4</v>
-      </c>
-    </row>
-    <row r="31" spans="3:18">
+        <v>0.89912968601174992</v>
+      </c>
+      <c r="R30" s="15">
+        <v>2.3829381600000001E-4</v>
+      </c>
+      <c r="S30" s="15"/>
+    </row>
+    <row r="31" spans="3:19">
       <c r="C31" s="2" t="s">
         <v>30</v>
       </c>
@@ -16431,13 +16458,14 @@
       </c>
       <c r="Q31" s="14">
         <f t="shared" si="2"/>
-        <v>0.89798384532213948</v>
-      </c>
-      <c r="R31" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="3:18">
+        <v>0.89782498277813949</v>
+      </c>
+      <c r="R31" s="15">
+        <v>1.5886254400000001E-4</v>
+      </c>
+      <c r="S31" s="15"/>
+    </row>
+    <row r="32" spans="3:19">
       <c r="C32" s="2" t="s">
         <v>31</v>
       </c>
@@ -16483,13 +16511,14 @@
       </c>
       <c r="Q32" s="14">
         <f t="shared" si="2"/>
-        <v>0.89525091569357917</v>
-      </c>
-      <c r="R32" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="3:18">
+        <v>0.89521120005757915</v>
+      </c>
+      <c r="R32" s="15">
+        <v>3.9715636000000002E-5</v>
+      </c>
+      <c r="S32" s="15"/>
+    </row>
+    <row r="33" spans="3:19">
       <c r="C33" s="2" t="s">
         <v>32</v>
       </c>
@@ -16537,11 +16566,12 @@
         <f t="shared" si="2"/>
         <v>0.89575043285440903</v>
       </c>
-      <c r="R33" s="7">
+      <c r="R33" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="3:18">
+      <c r="S33" s="15"/>
+    </row>
+    <row r="34" spans="3:19">
       <c r="C34" s="2" t="s">
         <v>33</v>
       </c>
@@ -16589,11 +16619,12 @@
         <f t="shared" si="2"/>
         <v>0.89236790606653615</v>
       </c>
-      <c r="R34" s="7">
+      <c r="R34" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="3:18">
+      <c r="S34" s="15"/>
+    </row>
+    <row r="35" spans="3:19">
       <c r="C35" s="2" t="s">
         <v>34</v>
       </c>
@@ -16641,11 +16672,12 @@
         <f t="shared" si="2"/>
         <v>0.8893917805157433</v>
       </c>
-      <c r="R35" s="7">
+      <c r="R35" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="3:18">
+      <c r="S35" s="15"/>
+    </row>
+    <row r="36" spans="3:19">
       <c r="C36" s="2" t="s">
         <v>35</v>
       </c>
@@ -16693,11 +16725,12 @@
         <f t="shared" si="2"/>
         <v>0.88398211754443357</v>
       </c>
-      <c r="R36" s="7">
+      <c r="R36" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="3:18">
+      <c r="S36" s="15"/>
+    </row>
+    <row r="37" spans="3:19">
       <c r="C37" s="2" t="s">
         <v>36</v>
       </c>
@@ -16745,11 +16778,12 @@
         <f t="shared" si="2"/>
         <v>0.88152162073848161</v>
       </c>
-      <c r="R37" s="7">
+      <c r="R37" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="3:18">
+      <c r="S37" s="15"/>
+    </row>
+    <row r="38" spans="3:19">
       <c r="C38" s="2" t="s">
         <v>37</v>
       </c>
@@ -16797,11 +16831,12 @@
         <f t="shared" si="2"/>
         <v>0.87390771743568796</v>
       </c>
-      <c r="R38" s="7">
+      <c r="R38" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="3:18">
+      <c r="S38" s="15"/>
+    </row>
+    <row r="39" spans="3:19">
       <c r="C39" s="2" t="s">
         <v>38</v>
       </c>
@@ -16849,11 +16884,12 @@
         <f t="shared" si="2"/>
         <v>0.87025638280790019</v>
       </c>
-      <c r="R39" s="7">
+      <c r="R39" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="3:18">
+      <c r="S39" s="15"/>
+    </row>
+    <row r="40" spans="3:19">
       <c r="C40" s="2" t="s">
         <v>39</v>
       </c>
@@ -16901,11 +16937,12 @@
         <f t="shared" si="2"/>
         <v>0.86080897800707401</v>
       </c>
-      <c r="R40" s="7">
+      <c r="R40" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="3:18">
+      <c r="S40" s="15"/>
+    </row>
+    <row r="41" spans="3:19">
       <c r="C41" s="2" t="s">
         <v>40</v>
       </c>
@@ -16953,11 +16990,12 @@
         <f t="shared" si="2"/>
         <v>0.84644608503529672</v>
       </c>
-      <c r="R41" s="7">
+      <c r="R41" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="3:18">
+      <c r="S41" s="15"/>
+    </row>
+    <row r="42" spans="3:19">
       <c r="C42" s="2" t="s">
         <v>41</v>
       </c>
@@ -17005,11 +17043,12 @@
         <f t="shared" si="2"/>
         <v>0.83411208569008388</v>
       </c>
-      <c r="R42" s="7">
+      <c r="R42" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="3:18">
+      <c r="S42" s="15"/>
+    </row>
+    <row r="43" spans="3:19">
       <c r="C43" s="2" t="s">
         <v>42</v>
       </c>
@@ -17057,11 +17096,12 @@
         <f t="shared" si="2"/>
         <v>0.82497157278753086</v>
       </c>
-      <c r="R43" s="7">
+      <c r="R43" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="3:18">
+      <c r="S43" s="15"/>
+    </row>
+    <row r="44" spans="3:19">
       <c r="C44" s="2" t="s">
         <v>43</v>
       </c>
@@ -17109,11 +17149,12 @@
         <f t="shared" si="2"/>
         <v>0.80681849937124495</v>
       </c>
-      <c r="R44" s="7">
+      <c r="R44" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="3:18">
+      <c r="S44" s="15"/>
+    </row>
+    <row r="45" spans="3:19">
       <c r="C45" s="2" t="s">
         <v>44</v>
       </c>
@@ -17161,11 +17202,12 @@
         <f t="shared" si="2"/>
         <v>0.77568761993370938</v>
       </c>
-      <c r="R45" s="7">
+      <c r="R45" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="3:18">
+      <c r="S45" s="15"/>
+    </row>
+    <row r="46" spans="3:19">
       <c r="C46" s="2" t="s">
         <v>45</v>
       </c>
@@ -17213,11 +17255,12 @@
         <f t="shared" si="2"/>
         <v>0.74177456420604226</v>
       </c>
-      <c r="R46" s="7">
+      <c r="R46" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="3:18">
+      <c r="S46" s="15"/>
+    </row>
+    <row r="47" spans="3:19">
       <c r="C47" s="2" t="s">
         <v>46</v>
       </c>
@@ -17265,11 +17308,12 @@
         <f t="shared" si="2"/>
         <v>0.66403542549095107</v>
       </c>
-      <c r="R47" s="7">
+      <c r="R47" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="3:18">
+      <c r="S47" s="15"/>
+    </row>
+    <row r="48" spans="3:19">
       <c r="C48" s="2" t="s">
         <v>47</v>
       </c>
@@ -17317,11 +17361,12 @@
         <f t="shared" si="2"/>
         <v>0.42843120758315106</v>
       </c>
-      <c r="R48" s="7">
+      <c r="R48" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:18">
+      <c r="S48" s="15"/>
+    </row>
+    <row r="49" spans="1:19">
       <c r="C49" s="2" t="s">
         <v>48</v>
       </c>
@@ -17369,11 +17414,12 @@
         <f t="shared" si="2"/>
         <v>0.24171266767725882</v>
       </c>
-      <c r="R49" s="7">
+      <c r="R49" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:18">
+      <c r="S49" s="15"/>
+    </row>
+    <row r="50" spans="1:19">
       <c r="C50" s="2" t="s">
         <v>49</v>
       </c>
@@ -17420,11 +17466,12 @@
         <f t="shared" si="2"/>
         <v>0.14805480721879435</v>
       </c>
-      <c r="R50" s="7">
+      <c r="R50" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:18">
+      <c r="S50" s="15"/>
+    </row>
+    <row r="51" spans="1:19">
       <c r="C51" s="2" t="s">
         <v>50</v>
       </c>
@@ -17471,11 +17518,12 @@
         <f t="shared" si="2"/>
         <v>0.11498846175493893</v>
       </c>
-      <c r="R51" s="7">
+      <c r="R51" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:18">
+      <c r="S51" s="15"/>
+    </row>
+    <row r="52" spans="1:19">
       <c r="C52" s="2" t="s">
         <v>51</v>
       </c>
@@ -17522,11 +17570,12 @@
         <f t="shared" si="2"/>
         <v>9.3521375055090353E-2</v>
       </c>
-      <c r="R52" s="7">
+      <c r="R52" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:18">
+      <c r="S52" s="15"/>
+    </row>
+    <row r="53" spans="1:19">
       <c r="C53" s="2" t="s">
         <v>52</v>
       </c>
@@ -17573,11 +17622,12 @@
         <f t="shared" si="2"/>
         <v>1.1552056093565907E-2</v>
       </c>
-      <c r="R53" s="7">
+      <c r="R53" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:18">
+      <c r="S53" s="15"/>
+    </row>
+    <row r="54" spans="1:19">
       <c r="C54" s="2" t="s">
         <v>53</v>
       </c>
@@ -17624,11 +17674,12 @@
         <f t="shared" si="2"/>
         <v>1.921501031393936E-3</v>
       </c>
-      <c r="R54" s="7">
+      <c r="R54" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:18">
+      <c r="S54" s="15"/>
+    </row>
+    <row r="55" spans="1:19">
       <c r="C55" s="2" t="s">
         <v>54</v>
       </c>
@@ -17675,53 +17726,54 @@
         <f t="shared" si="2"/>
         <v>1.5240890745392454E-3</v>
       </c>
-      <c r="R55" s="7">
+      <c r="R55" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:18">
+      <c r="S55" s="15"/>
+    </row>
+    <row r="56" spans="1:19">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:19">
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:19">
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:19">
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:19">
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:19">
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:19">
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:19">
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:19">
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="3"/>
